--- a/Example D20 XML/FE D20 M++ QC Doc Rev 3.xlsx
+++ b/Example D20 XML/FE D20 M++ QC Doc Rev 3.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clbishop\Documents\GitHub\FE-D20_Checker\Example D20 XML\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8172" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="General" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="D20++ QC Doc" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ME++ Pseudo points" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="General" sheetId="1" r:id="rId1"/>
+    <sheet name="D20++ QC Doc" sheetId="2" r:id="rId2"/>
+    <sheet name="ME++ Pseudo points" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="1" name="_xlnm.Print_Titles">'D20++ QC Doc'!$8:$8</definedName>
-    <definedName localSheetId="1" name="_xlnm.Print_Area">'D20++ QC Doc'!$B$1:$J$173</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'D20++ QC Doc'!$B$1:$J$173</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'D20++ QC Doc'!$8:$8</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="220">
   <si>
     <t>D20 ME,  MEII and MX QC Document</t>
   </si>
@@ -684,100 +690,100 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt formatCode="m/d/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="10"/>
-      <u val="single"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
-      <u val="single"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="14"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="55"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="55"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="16"/>
     </font>
     <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="18"/>
-      <u val="single"/>
     </font>
     <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color indexed="10"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -795,7 +801,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1091,347 +1097,334 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="116">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="16" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="18" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="18" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="19" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="20" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="13" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="16" fillId="0" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="17" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="21" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="23" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="24" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="22" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="22" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
@@ -2644,7 +2637,15 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2944,117 +2945,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A7:J20"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row customHeight="1" ht="21" r="7" s="90" spans="1:10" thickBot="1">
-      <c r="B7" s="91" t="s">
+    <row r="7" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="3" t="n"/>
-    </row>
-    <row customHeight="1" ht="18.75" r="11" s="90" spans="1:10" thickBot="1">
-      <c r="D11" s="92" t="s">
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="93" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="13" s="90" spans="1:10">
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="93" t="s">
+      <c r="C13" s="94" t="s">
         <v>4</v>
       </c>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
       <c r="J13" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="32.25" r="14" s="90" spans="1:10">
+    <row r="14" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="27" t="n">
+      <c r="B14" s="27">
         <v>42494</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="90" t="s">
         <v>7</v>
       </c>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
       <c r="J14" s="74" t="s">
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="32.25" r="15" s="90" spans="1:10">
-      <c r="A15" s="26" t="n">
+    <row r="15" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
         <v>1</v>
       </c>
-      <c r="B15" s="27" t="n">
+      <c r="B15" s="27">
         <v>42821</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="90" t="s">
         <v>9</v>
       </c>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
       <c r="J15" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="51.75" r="16" s="90" spans="1:10">
-      <c r="A16" s="26" t="n">
+    <row r="16" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
         <v>2</v>
       </c>
-      <c r="B16" s="27" t="n">
+      <c r="B16" s="27">
         <v>42838</v>
       </c>
-      <c r="C16" s="89" t="s">
+      <c r="C16" s="90" t="s">
         <v>11</v>
       </c>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
       <c r="J16" s="74" t="s">
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="48" r="17" s="90" spans="1:10">
-      <c r="A17" s="26" t="n">
+    <row r="17" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
         <v>3</v>
       </c>
-      <c r="B17" s="27" t="n">
+      <c r="B17" s="27">
         <v>42935</v>
       </c>
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="90" t="s">
         <v>12</v>
       </c>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
       <c r="J17" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="32.25" r="18" s="90" spans="1:10">
-      <c r="A18" s="26" t="n"/>
-      <c r="B18" s="27" t="n"/>
-      <c r="C18" s="89" t="n"/>
-      <c r="J18" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="32.25" r="19" s="90" spans="1:10">
-      <c r="A19" s="26" t="n"/>
-      <c r="B19" s="27" t="n"/>
-      <c r="C19" s="89" t="n"/>
-      <c r="J19" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="42" r="20" s="90" spans="1:10">
-      <c r="A20" s="26" t="n"/>
-      <c r="B20" s="27" t="n"/>
-      <c r="C20" s="89" t="n"/>
-      <c r="J20" s="28" t="n"/>
+    <row r="18" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3069,94 +3123,93 @@
     <mergeCell ref="C16:I16"/>
     <mergeCell ref="C17:I17"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.5" top="1"/>
+  <pageMargins left="0.75" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A120" ySplit="8"/>
-      <selection activeCell="N121" pane="bottomLeft" sqref="N121"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="103" width="22"/>
-    <col customWidth="1" max="3" min="3" style="103" width="18"/>
-    <col customWidth="1" max="4" min="4" style="103" width="24.6640625"/>
-    <col customWidth="1" max="5" min="5" style="95" width="25.6640625"/>
-    <col customWidth="1" max="6" min="6" style="95" width="31.109375"/>
-    <col customWidth="1" max="7" min="7" style="95" width="1.33203125"/>
-    <col customWidth="1" max="9" min="9" style="90" width="2.33203125"/>
-    <col customWidth="1" max="11" min="11" style="90" width="2.5546875"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="90" width="15.109375"/>
+    <col min="2" max="2" width="22" style="85" customWidth="1"/>
+    <col min="3" max="3" width="18" style="85" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="85" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="81" customWidth="1"/>
+    <col min="6" max="6" width="31.109375" style="81" customWidth="1"/>
+    <col min="7" max="7" width="1.33203125" style="81" customWidth="1"/>
+    <col min="9" max="9" width="2.33203125" style="79" customWidth="1"/>
+    <col min="11" max="11" width="2.5546875" style="79" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="33.6" r="1" s="90" spans="1:22">
+    <row r="1" spans="1:22" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="111" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row customHeight="1" ht="19.2" r="2" s="90" spans="1:22">
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+    </row>
+    <row r="2" spans="1:22" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="30" t="n"/>
-    </row>
-    <row customHeight="1" ht="29.4" r="3" s="90" spans="1:22">
-      <c r="B3" s="54" t="n"/>
-      <c r="C3" s="96">
+      <c r="C2" s="30"/>
+    </row>
+    <row r="3" spans="1:22" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="54"/>
+      <c r="C3" s="82" t="str">
         <f>IF(LEN(B3)&lt;8, "Insert Substation Name in Cell B3", "" )</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>Insert Substation Name in Cell B3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="30" t="n"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="6" s="90" spans="1:22">
-      <c r="B6" s="54" t="n"/>
-      <c r="C6" s="107">
+    <row r="6" spans="1:22" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="54"/>
+      <c r="C6" s="87" t="str">
         <f>IF(LEN(B6)&gt;8, "Config Name Greater Than 8 Characters", "Insert Config Name In Cell B6" )</f>
-        <v/>
-      </c>
-      <c r="D6" s="50" t="n"/>
-      <c r="E6" s="107">
+        <v>Insert Config Name In Cell B6</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="87" t="str">
         <f>IF(LEN(D6)&lt;8, "Paste Config Properties Revision Text in Cell D6", "" )</f>
-        <v/>
+        <v>Paste Config Properties Revision Text in Cell D6</v>
       </c>
       <c r="F6" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="54" t="n"/>
-      <c r="I6" s="54" t="n"/>
-      <c r="J6" s="54" t="n"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
       <c r="L6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="H7" s="95" t="n"/>
-      <c r="I7" s="95" t="n"/>
-      <c r="J7" s="95" t="n"/>
-    </row>
-    <row customFormat="1" r="8" s="83" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+    </row>
+    <row r="8" spans="1:22" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
@@ -3172,39 +3225,40 @@
       <c r="F8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="1" t="n"/>
-      <c r="H8" s="106" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="106" t="n"/>
-      <c r="J8" s="106" t="s">
+      <c r="I8" s="86"/>
+      <c r="J8" s="86" t="s">
         <v>27</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="13.5" r="9" s="83" spans="1:22" thickBot="1">
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="n"/>
-      <c r="D9" s="1" t="n"/>
-      <c r="E9" s="1" t="n"/>
-      <c r="F9" s="114" t="n"/>
-      <c r="G9" s="1" t="n"/>
-      <c r="H9" s="106" t="n"/>
-      <c r="I9" s="106" t="n"/>
-      <c r="J9" s="106" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.5" r="10" s="83" spans="1:22" thickBot="1">
-      <c r="B10" s="7" t="n"/>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="104" t="s">
+    <row r="9" spans="1:22" s="78" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+    </row>
+    <row r="10" spans="1:22" s="78" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="7" t="n"/>
-      <c r="H10" s="51" t="n"/>
-      <c r="I10" s="51" t="n"/>
-      <c r="J10" s="51" t="n"/>
-    </row>
-    <row customFormat="1" r="11" s="97" spans="1:22">
+      <c r="F10" s="101"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+    </row>
+    <row r="11" spans="1:22" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
@@ -3220,114 +3274,118 @@
       <c r="F11" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="54" t="n"/>
-      <c r="I11" s="54" t="n"/>
-      <c r="J11" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="12" s="97" spans="1:22">
-      <c r="E12" s="71" t="n"/>
-      <c r="F12" s="72" t="n"/>
-      <c r="H12" s="54" t="n"/>
-      <c r="I12" s="54" t="n"/>
-      <c r="J12" s="54" t="n"/>
-      <c r="V12" s="97" t="s">
+      <c r="G11" s="7"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+    </row>
+    <row r="12" spans="1:22" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="71"/>
+      <c r="F12" s="72"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="V12" s="83" t="s">
         <v>34</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="13.2" r="13" s="97" spans="1:22">
-      <c r="D13" s="101" t="s">
+    <row r="13" spans="1:22" s="83" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="71" t="n"/>
-      <c r="F13" s="72" t="n"/>
-      <c r="H13" s="54" t="n"/>
-      <c r="I13" s="54" t="n"/>
-      <c r="J13" s="54" t="n"/>
-      <c r="L13" s="97" t="s">
+      <c r="E13" s="71"/>
+      <c r="F13" s="72"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="L13" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="V13" s="97" t="s">
+      <c r="V13" s="83" t="s">
         <v>36</v>
       </c>
     </row>
-    <row customFormat="1" r="14" s="97" spans="1:22">
-      <c r="E14" s="71" t="n"/>
-      <c r="F14" s="72" t="n"/>
-      <c r="H14" s="54" t="n"/>
-      <c r="I14" s="54" t="n"/>
-      <c r="J14" s="54" t="n"/>
-      <c r="L14" s="97" t="s">
+    <row r="14" spans="1:22" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="99"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="72"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="L14" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="V14" s="97" t="s">
+      <c r="V14" s="83" t="s">
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" r="15" s="97" spans="1:22">
-      <c r="E15" s="71" t="n"/>
-      <c r="F15" s="72" t="n"/>
-      <c r="H15" s="54" t="n"/>
-      <c r="I15" s="54" t="n"/>
-      <c r="J15" s="54" t="n"/>
-      <c r="L15" s="97" t="s">
+    <row r="15" spans="1:22" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="99"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="72"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="L15" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="V15" s="97" t="s">
+      <c r="V15" s="83" t="s">
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" r="16" s="97" spans="1:22">
-      <c r="E16" s="71" t="n"/>
-      <c r="F16" s="72" t="n"/>
-      <c r="H16" s="54" t="n"/>
-      <c r="I16" s="54" t="n"/>
-      <c r="J16" s="54" t="n"/>
-      <c r="L16" s="97" t="s">
+    <row r="16" spans="1:22" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="99"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="72"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="L16" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="V16" s="97" t="s">
+      <c r="V16" s="83" t="s">
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="17" s="97" spans="1:22">
-      <c r="E17" s="71" t="n"/>
-      <c r="F17" s="72" t="n"/>
-      <c r="H17" s="54" t="n"/>
-      <c r="I17" s="54" t="n"/>
-      <c r="J17" s="54" t="n"/>
-      <c r="L17" s="97" t="s">
+    <row r="17" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="L17" s="83" t="s">
         <v>40</v>
       </c>
     </row>
-    <row customFormat="1" r="18" s="97" spans="1:22">
-      <c r="E18" s="71" t="n"/>
-      <c r="F18" s="72" t="n"/>
-      <c r="H18" s="54" t="n"/>
-      <c r="I18" s="54" t="n"/>
-      <c r="J18" s="54" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.5" r="19" s="97" spans="1:22" thickBot="1">
-      <c r="E19" s="75" t="n"/>
-      <c r="F19" s="73" t="n"/>
-      <c r="H19" s="54" t="n"/>
-      <c r="I19" s="54" t="n"/>
-      <c r="J19" s="54" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.5" r="20" s="97" spans="1:22" thickBot="1">
-      <c r="H20" s="54" t="n"/>
-      <c r="I20" s="54" t="n"/>
-      <c r="J20" s="54" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.5" r="21" s="97" spans="1:22" thickBot="1">
-      <c r="E21" s="104" t="s">
+    <row r="18" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="71"/>
+      <c r="F18" s="72"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+    </row>
+    <row r="19" spans="2:13" s="83" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="75"/>
+      <c r="F19" s="73"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+    </row>
+    <row r="20" spans="2:13" s="83" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+    </row>
+    <row r="21" spans="2:13" s="83" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="54" t="n"/>
-      <c r="I21" s="54" t="n"/>
-      <c r="J21" s="54" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.2" r="22" s="97" spans="1:22">
+      <c r="F21" s="99"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+    </row>
+    <row r="22" spans="2:13" s="83" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>29</v>
       </c>
@@ -3343,86 +3401,89 @@
       <c r="F22" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="7" t="n"/>
-      <c r="H22" s="54" t="n"/>
-      <c r="I22" s="54" t="n"/>
-      <c r="J22" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="23" s="97" spans="1:22">
-      <c r="E23" s="71" t="n"/>
-      <c r="F23" s="72" t="n"/>
-      <c r="H23" s="54" t="n"/>
-      <c r="I23" s="54" t="n"/>
-      <c r="J23" s="54" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.2" r="24" s="97" spans="1:22">
-      <c r="D24" s="101" t="s">
+      <c r="G22" s="7"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+    </row>
+    <row r="23" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="71"/>
+      <c r="F23" s="72"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+    </row>
+    <row r="24" spans="2:13" s="83" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="71" t="n"/>
-      <c r="F24" s="72" t="n"/>
-      <c r="H24" s="54" t="n"/>
-      <c r="I24" s="54" t="n"/>
-      <c r="J24" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="25" s="97" spans="1:22">
-      <c r="E25" s="71" t="n"/>
-      <c r="F25" s="72" t="n"/>
-      <c r="H25" s="54" t="n"/>
-      <c r="I25" s="54" t="n"/>
-      <c r="J25" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="26" s="97" spans="1:22">
-      <c r="E26" s="71" t="n"/>
-      <c r="F26" s="72" t="n"/>
-      <c r="H26" s="54" t="n"/>
-      <c r="I26" s="54" t="n"/>
-      <c r="J26" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="27" s="97" spans="1:22">
-      <c r="E27" s="71" t="n"/>
-      <c r="F27" s="72" t="n"/>
-      <c r="H27" s="54" t="n"/>
-      <c r="I27" s="54" t="n"/>
-      <c r="J27" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="28" s="97" spans="1:22">
-      <c r="E28" s="71" t="n"/>
-      <c r="F28" s="72" t="n"/>
-      <c r="H28" s="54" t="n"/>
-      <c r="I28" s="54" t="n"/>
-      <c r="J28" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="29" s="97" spans="1:22">
-      <c r="E29" s="71" t="n"/>
-      <c r="F29" s="72" t="n"/>
-      <c r="H29" s="54" t="n"/>
-      <c r="I29" s="54" t="n"/>
-      <c r="J29" s="54" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.5" r="30" s="97" spans="1:22" thickBot="1">
-      <c r="E30" s="75" t="n"/>
-      <c r="F30" s="73" t="n"/>
-      <c r="H30" s="54" t="n"/>
-      <c r="I30" s="54" t="n"/>
-      <c r="J30" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="31" s="97" spans="1:22">
-      <c r="B31" s="7" t="n"/>
-      <c r="C31" s="7" t="n"/>
-      <c r="D31" s="7" t="n"/>
-      <c r="E31" s="7" t="n"/>
-      <c r="F31" s="7" t="n"/>
-      <c r="G31" s="7" t="n"/>
-      <c r="H31" s="83" t="n"/>
-      <c r="I31" s="83" t="n"/>
-      <c r="J31" s="83" t="n"/>
-      <c r="K31" s="83" t="n"/>
-      <c r="L31" s="83" t="n"/>
-      <c r="M31" s="83" t="n"/>
-    </row>
-    <row customFormat="1" r="32" s="97" spans="1:22"/>
-    <row customFormat="1" r="33" s="97" spans="1:22">
+      <c r="E24" s="71"/>
+      <c r="F24" s="72"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+    </row>
+    <row r="25" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="99"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="72"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+    </row>
+    <row r="26" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="99"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="72"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+    </row>
+    <row r="27" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="99"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="72"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+    </row>
+    <row r="28" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="71"/>
+      <c r="F28" s="72"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+    </row>
+    <row r="29" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="71"/>
+      <c r="F29" s="72"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+    </row>
+    <row r="30" spans="2:13" s="83" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="75"/>
+      <c r="F30" s="73"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+    </row>
+    <row r="31" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+    </row>
+    <row r="32" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>29</v>
       </c>
@@ -3435,15 +3496,15 @@
       <c r="E33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="7" t="n">
+      <c r="F33" s="7">
         <v>10</v>
       </c>
-      <c r="G33" s="7" t="n"/>
-      <c r="H33" s="54" t="n"/>
-      <c r="I33" s="54" t="n"/>
-      <c r="J33" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="34" s="97" spans="1:22">
+      <c r="G33" s="7"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+    </row>
+    <row r="34" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>29</v>
       </c>
@@ -3459,12 +3520,12 @@
       <c r="F34" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G34" s="7" t="n"/>
-      <c r="H34" s="54" t="n"/>
-      <c r="I34" s="54" t="n"/>
-      <c r="J34" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="35" s="97" spans="1:22">
+      <c r="G34" s="7"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+    </row>
+    <row r="35" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>29</v>
       </c>
@@ -3477,15 +3538,15 @@
       <c r="E35" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="7" t="n">
+      <c r="F35" s="7">
         <v>0</v>
       </c>
-      <c r="G35" s="7" t="n"/>
-      <c r="H35" s="54" t="n"/>
-      <c r="I35" s="54" t="n"/>
-      <c r="J35" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="36" s="97" spans="1:22">
+      <c r="G35" s="7"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+    </row>
+    <row r="36" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>29</v>
       </c>
@@ -3501,12 +3562,12 @@
       <c r="F36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="7" t="n"/>
-      <c r="H36" s="54" t="n"/>
-      <c r="I36" s="54" t="n"/>
-      <c r="J36" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="37" s="97" spans="1:22">
+      <c r="G36" s="7"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+    </row>
+    <row r="37" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>29</v>
       </c>
@@ -3522,12 +3583,12 @@
       <c r="F37" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G37" s="7" t="n"/>
-      <c r="H37" s="54" t="n"/>
-      <c r="I37" s="54" t="n"/>
-      <c r="J37" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="38" s="97" spans="1:22">
+      <c r="G37" s="7"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+    </row>
+    <row r="38" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>29</v>
       </c>
@@ -3543,23 +3604,23 @@
       <c r="F38" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="7" t="n"/>
-      <c r="H38" s="54" t="n"/>
-      <c r="I38" s="54" t="n"/>
-      <c r="J38" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="39" s="97" spans="1:22">
-      <c r="B39" s="7" t="n"/>
-      <c r="C39" s="7" t="n"/>
-      <c r="D39" s="7" t="n"/>
-      <c r="E39" s="7" t="n"/>
-      <c r="F39" s="7" t="n"/>
-      <c r="G39" s="7" t="n"/>
-      <c r="H39" s="54" t="n"/>
-      <c r="I39" s="54" t="n"/>
-      <c r="J39" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="40" s="97" spans="1:22">
+      <c r="G38" s="7"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+    </row>
+    <row r="39" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+    </row>
+    <row r="40" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
         <v>55</v>
       </c>
@@ -3572,26 +3633,26 @@
       <c r="E40" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F40" s="7" t="n">
+      <c r="F40" s="7">
         <v>5</v>
       </c>
-      <c r="G40" s="7" t="n"/>
-      <c r="H40" s="54" t="n"/>
-      <c r="I40" s="54" t="n"/>
-      <c r="J40" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="41" s="97" spans="1:22">
-      <c r="B41" s="7" t="n"/>
-      <c r="C41" s="7" t="n"/>
-      <c r="D41" s="7" t="n"/>
-      <c r="E41" s="7" t="n"/>
-      <c r="F41" s="7" t="n"/>
-      <c r="G41" s="7" t="n"/>
-      <c r="H41" s="54" t="n"/>
-      <c r="I41" s="54" t="n"/>
-      <c r="J41" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="42" s="97" spans="1:22">
+      <c r="G40" s="7"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+    </row>
+    <row r="41" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+    </row>
+    <row r="42" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>59</v>
       </c>
@@ -3607,12 +3668,12 @@
       <c r="F42" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G42" s="7" t="n"/>
-      <c r="H42" s="54" t="n"/>
-      <c r="I42" s="54" t="n"/>
-      <c r="J42" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="43" s="97" spans="1:22">
+      <c r="G42" s="7"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+    </row>
+    <row r="43" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>59</v>
       </c>
@@ -3628,151 +3689,163 @@
       <c r="F43" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G43" s="7" t="n"/>
-      <c r="H43" s="54" t="n"/>
-      <c r="I43" s="54" t="n"/>
-      <c r="J43" s="54" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.5" r="44" s="97" spans="1:22" thickBot="1">
-      <c r="B44" s="7" t="n"/>
-      <c r="C44" s="7" t="n"/>
-      <c r="D44" s="7" t="n"/>
-      <c r="E44" s="7" t="n"/>
-      <c r="F44" s="7" t="n"/>
-      <c r="G44" s="7" t="n"/>
-      <c r="H44" s="54" t="n"/>
-      <c r="I44" s="54" t="n"/>
-      <c r="J44" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="45" s="97" spans="1:22">
-      <c r="B45" s="31" t="n"/>
-      <c r="C45" s="32" t="n"/>
-      <c r="D45" s="100" t="s">
+      <c r="G43" s="7"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+    </row>
+    <row r="44" spans="2:10" s="83" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+    </row>
+    <row r="45" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="31"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="F45" s="16" t="n"/>
-      <c r="G45" s="7" t="n"/>
-      <c r="H45" s="54" t="n"/>
-      <c r="I45" s="54" t="n"/>
-      <c r="J45" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="46" s="97" spans="1:22">
-      <c r="B46" s="33" t="n"/>
-      <c r="C46" s="7" t="n"/>
-      <c r="D46" s="96" t="s">
+      <c r="E45" s="99"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+    </row>
+    <row r="46" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="33"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="F46" s="70" t="n"/>
-      <c r="G46" s="7" t="n"/>
-      <c r="H46" s="54" t="n"/>
-      <c r="I46" s="54" t="n"/>
-      <c r="J46" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="47" s="97" spans="1:22">
-      <c r="B47" s="33" t="n"/>
-      <c r="C47" s="7" t="n"/>
-      <c r="D47" s="7" t="n"/>
-      <c r="E47" s="8" t="n"/>
-      <c r="F47" s="70" t="n"/>
-      <c r="G47" s="7" t="n"/>
-      <c r="H47" s="54" t="n"/>
-      <c r="I47" s="54" t="n"/>
-      <c r="J47" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="48" s="97" spans="1:22">
-      <c r="B48" s="105" t="s">
+      <c r="E46" s="99"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+    </row>
+    <row r="47" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="33"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+    </row>
+    <row r="48" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="7" t="n"/>
+      <c r="C48" s="7"/>
       <c r="D48" s="13" t="s">
         <v>71</v>
       </c>
       <c r="E48" s="10">
         <f>C65</f>
-        <v/>
-      </c>
-      <c r="F48" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="G48" s="7" t="n"/>
-      <c r="H48" s="54" t="n"/>
-      <c r="I48" s="54" t="n"/>
-      <c r="J48" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="49" s="97" spans="1:22">
-      <c r="C49" s="7" t="n"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+    </row>
+    <row r="49" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="99"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="14" t="s">
         <v>73</v>
       </c>
       <c r="E49" s="10">
         <f>D65</f>
-        <v/>
-      </c>
-      <c r="G49" s="7" t="n"/>
-      <c r="H49" s="54" t="n"/>
-      <c r="I49" s="54" t="n"/>
-      <c r="J49" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="50" s="97" spans="1:22">
-      <c r="C50" s="7" t="n"/>
+        <v>9</v>
+      </c>
+      <c r="F49" s="99"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+    </row>
+    <row r="50" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="99"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="14" t="s">
         <v>74</v>
       </c>
       <c r="E50" s="10">
         <f>B65</f>
-        <v/>
-      </c>
-      <c r="G50" s="7" t="n"/>
-      <c r="H50" s="54" t="n"/>
-      <c r="I50" s="54" t="n"/>
-      <c r="J50" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="51" s="97" spans="1:22">
-      <c r="C51" s="7" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="99"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+    </row>
+    <row r="51" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="99"/>
+      <c r="C51" s="7"/>
       <c r="D51" s="15" t="s">
         <v>75</v>
       </c>
       <c r="E51" s="10">
         <f>F65</f>
-        <v/>
-      </c>
-      <c r="G51" s="7" t="n"/>
-      <c r="H51" s="54" t="n"/>
-      <c r="I51" s="54" t="n"/>
-      <c r="J51" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="52" s="97" spans="1:22">
-      <c r="B52" s="33" t="n"/>
-      <c r="C52" s="7" t="n"/>
-      <c r="D52" s="11" t="n"/>
-      <c r="E52" s="95" t="n"/>
-      <c r="F52" s="17" t="n"/>
-      <c r="G52" s="7" t="n"/>
-      <c r="H52" s="54" t="n"/>
-      <c r="I52" s="54" t="n"/>
-      <c r="J52" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="53" s="97" spans="1:22">
-      <c r="B53" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="99"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+    </row>
+    <row r="52" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="33"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+    </row>
+    <row r="53" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="G53" s="7" t="n"/>
-      <c r="H53" s="54" t="n"/>
-      <c r="I53" s="54" t="n"/>
-      <c r="J53" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="54" s="97" spans="1:22">
-      <c r="B54" s="33" t="n"/>
-      <c r="C54" s="7" t="n"/>
-      <c r="D54" s="7" t="n"/>
-      <c r="E54" s="7" t="n"/>
-      <c r="F54" s="70" t="n"/>
-      <c r="G54" s="7" t="n"/>
-      <c r="H54" s="54" t="n"/>
-      <c r="I54" s="54" t="n"/>
-      <c r="J54" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="55" s="97" spans="1:22">
+      <c r="C53" s="99"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+    </row>
+    <row r="54" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="33"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+    </row>
+    <row r="55" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="18" t="s">
         <v>77</v>
       </c>
@@ -3788,192 +3861,192 @@
       <c r="F55" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="G55" s="7" t="n"/>
-      <c r="H55" s="54" t="n"/>
-      <c r="I55" s="54" t="n"/>
-      <c r="J55" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="56" s="97" spans="1:22">
-      <c r="B56" s="20" t="n">
+      <c r="G55" s="7"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+    </row>
+    <row r="56" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="20">
         <v>0</v>
       </c>
-      <c r="C56" s="12" t="n">
+      <c r="C56" s="12">
         <v>3</v>
       </c>
-      <c r="D56" s="12" t="n">
+      <c r="D56" s="12">
         <v>9</v>
       </c>
-      <c r="E56" s="12" t="n"/>
-      <c r="F56" s="21" t="n">
+      <c r="E56" s="12"/>
+      <c r="F56" s="21">
         <v>0</v>
       </c>
-      <c r="G56" s="7" t="n"/>
-      <c r="H56" s="54" t="n"/>
-      <c r="I56" s="54" t="n"/>
-      <c r="J56" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="57" s="97" spans="1:22">
-      <c r="B57" s="62" t="n"/>
-      <c r="C57" s="54" t="n"/>
-      <c r="D57" s="54" t="n"/>
-      <c r="E57" s="54" t="n"/>
-      <c r="F57" s="55" t="n"/>
-      <c r="G57" s="7" t="n"/>
-      <c r="H57" s="54" t="n"/>
-      <c r="I57" s="54" t="n"/>
-      <c r="J57" s="54" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.2" r="58" s="97" spans="1:22">
+      <c r="G56" s="7"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+    </row>
+    <row r="57" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="62"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+    </row>
+    <row r="58" spans="2:10" s="83" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="63">
         <f>(F57*5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C58" s="64">
         <f>(F57*13)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="D58" s="64">
         <f>(F57*10)</f>
-        <v/>
-      </c>
-      <c r="E58" s="64" t="n"/>
-      <c r="F58" s="65" t="n"/>
-      <c r="G58" s="7" t="n"/>
-      <c r="H58" s="54" t="n"/>
-      <c r="I58" s="54" t="n"/>
-      <c r="J58" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="59" s="97" spans="1:22">
-      <c r="B59" s="62" t="n"/>
-      <c r="C59" s="54" t="n"/>
-      <c r="D59" s="54" t="n"/>
-      <c r="E59" s="54" t="n"/>
-      <c r="F59" s="55" t="n"/>
-      <c r="G59" s="7" t="n"/>
-      <c r="H59" s="54" t="n"/>
-      <c r="I59" s="54" t="n"/>
-      <c r="J59" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="60" s="97" spans="1:22">
+        <v>0</v>
+      </c>
+      <c r="E58" s="64"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
+    </row>
+    <row r="59" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="62"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+    </row>
+    <row r="60" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="63">
         <f>(F59*5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C60" s="64">
         <f>(F59*13)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="D60" s="64">
         <f>(F59*10)</f>
-        <v/>
-      </c>
-      <c r="E60" s="64" t="n"/>
-      <c r="F60" s="65" t="n"/>
-      <c r="G60" s="7" t="n"/>
-      <c r="H60" s="54" t="n"/>
-      <c r="I60" s="54" t="n"/>
-      <c r="J60" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="61" s="97" spans="1:22">
-      <c r="B61" s="62" t="n"/>
-      <c r="C61" s="54" t="n"/>
-      <c r="D61" s="54" t="n"/>
-      <c r="E61" s="54" t="n"/>
-      <c r="F61" s="55" t="n"/>
-      <c r="G61" s="7" t="n"/>
-      <c r="H61" s="54" t="n"/>
-      <c r="I61" s="54" t="n"/>
-      <c r="J61" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="97" spans="1:22">
+        <v>0</v>
+      </c>
+      <c r="E60" s="64"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+    </row>
+    <row r="61" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="62"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+    </row>
+    <row r="62" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="63">
         <f>(F61*5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C62" s="64">
         <f>(F61*13)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="D62" s="64">
         <f>(F61*10)</f>
-        <v/>
-      </c>
-      <c r="E62" s="64" t="n"/>
-      <c r="F62" s="65" t="n"/>
-      <c r="G62" s="7" t="n"/>
-      <c r="H62" s="54" t="n"/>
-      <c r="I62" s="54" t="n"/>
-      <c r="J62" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="97" spans="1:22">
-      <c r="B63" s="62" t="n"/>
-      <c r="C63" s="54" t="n"/>
-      <c r="D63" s="54" t="n"/>
-      <c r="E63" s="54" t="n"/>
-      <c r="F63" s="55" t="n"/>
-      <c r="G63" s="7" t="n"/>
-      <c r="H63" s="54" t="n"/>
-      <c r="I63" s="54" t="n"/>
-      <c r="J63" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="97" spans="1:22">
+        <v>0</v>
+      </c>
+      <c r="E62" s="64"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+    </row>
+    <row r="63" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="62"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+    </row>
+    <row r="64" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="20">
         <f>(F63*5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C64" s="12">
         <f>(F63*13)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="D64" s="12">
         <f>(F63*10)</f>
-        <v/>
-      </c>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="22" t="n"/>
-      <c r="G64" s="7" t="n"/>
-      <c r="H64" s="54" t="n"/>
-      <c r="I64" s="54" t="n"/>
-      <c r="J64" s="54" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.5" r="65" s="97" spans="1:22" thickBot="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
+    </row>
+    <row r="65" spans="2:11" s="83" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="23">
         <f>SUM(B56:B64)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C65" s="24">
         <f>SUM(C56:C64)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="D65" s="24">
         <f>SUM(D56:D64)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="E65" s="24">
         <f>SUM(E56:E64)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F65" s="25">
         <f>SUM(F56:F64)</f>
-        <v/>
-      </c>
-      <c r="G65" s="7" t="n"/>
-      <c r="H65" s="54" t="n"/>
-      <c r="I65" s="54" t="n"/>
-      <c r="J65" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="66" s="97" spans="1:22">
-      <c r="B66" s="7" t="n"/>
-      <c r="C66" s="7" t="n"/>
-      <c r="D66" s="7" t="n"/>
-      <c r="E66" s="7" t="n"/>
-      <c r="F66" s="7" t="n"/>
-      <c r="G66" s="7" t="n"/>
-      <c r="H66" s="54" t="n"/>
-      <c r="I66" s="54" t="n"/>
-      <c r="J66" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="67" s="97" spans="1:22">
+        <v>0</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
+    </row>
+    <row r="66" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
+    </row>
+    <row r="67" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
         <v>82</v>
       </c>
@@ -3986,15 +4059,15 @@
       <c r="E67" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F67" s="7" t="n">
+      <c r="F67" s="7">
         <v>500</v>
       </c>
-      <c r="G67" s="7" t="n"/>
-      <c r="H67" s="54" t="n"/>
-      <c r="I67" s="54" t="n"/>
-      <c r="J67" s="54" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.2" r="68" s="97" spans="1:22">
+      <c r="G67" s="7"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+    </row>
+    <row r="68" spans="2:11" s="83" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
         <v>82</v>
       </c>
@@ -4010,12 +4083,12 @@
       <c r="F68" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G68" s="7" t="n"/>
-      <c r="H68" s="54" t="n"/>
-      <c r="I68" s="54" t="n"/>
-      <c r="J68" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="69" s="97" spans="1:22">
+      <c r="G68" s="7"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
+    </row>
+    <row r="69" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
         <v>82</v>
       </c>
@@ -4028,15 +4101,15 @@
       <c r="E69" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F69" s="7" t="n">
+      <c r="F69" s="7">
         <v>0</v>
       </c>
-      <c r="G69" s="7" t="n"/>
-      <c r="H69" s="54" t="n"/>
-      <c r="I69" s="54" t="n"/>
-      <c r="J69" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="70" s="97" spans="1:22">
+      <c r="G69" s="7"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
+    </row>
+    <row r="70" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
         <v>82</v>
       </c>
@@ -4049,15 +4122,15 @@
       <c r="E70" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F70" s="7" t="n">
+      <c r="F70" s="7">
         <v>0</v>
       </c>
-      <c r="G70" s="7" t="n"/>
-      <c r="H70" s="54" t="n"/>
-      <c r="I70" s="54" t="n"/>
-      <c r="J70" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="71" s="97" spans="1:22">
+      <c r="G70" s="7"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
+    </row>
+    <row r="71" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
         <v>82</v>
       </c>
@@ -4070,13 +4143,13 @@
       <c r="E71" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F71" s="7" t="n"/>
-      <c r="G71" s="7" t="n"/>
-      <c r="H71" s="54" t="n"/>
-      <c r="I71" s="54" t="n"/>
-      <c r="J71" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="72" s="97" spans="1:22">
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
+    </row>
+    <row r="72" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
         <v>82</v>
       </c>
@@ -4089,13 +4162,13 @@
       <c r="E72" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F72" s="7" t="n"/>
-      <c r="G72" s="7" t="n"/>
-      <c r="H72" s="54" t="n"/>
-      <c r="I72" s="54" t="n"/>
-      <c r="J72" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="73" s="97" spans="1:22">
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="54"/>
+    </row>
+    <row r="73" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
         <v>82</v>
       </c>
@@ -4108,13 +4181,13 @@
       <c r="E73" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F73" s="7" t="n"/>
-      <c r="G73" s="7" t="n"/>
-      <c r="H73" s="54" t="n"/>
-      <c r="I73" s="54" t="n"/>
-      <c r="J73" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="74" s="97" spans="1:22">
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
+    </row>
+    <row r="74" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>82</v>
       </c>
@@ -4130,12 +4203,12 @@
       <c r="F74" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G74" s="7" t="n"/>
-      <c r="H74" s="54" t="n"/>
-      <c r="I74" s="54" t="n"/>
-      <c r="J74" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="75" s="97" spans="1:22">
+      <c r="G74" s="7"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="54"/>
+    </row>
+    <row r="75" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
         <v>82</v>
       </c>
@@ -4145,65 +4218,75 @@
       <c r="D75" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G75" s="7" t="n"/>
-    </row>
-    <row customFormat="1" r="76" s="97" spans="1:22">
-      <c r="B76" s="7" t="n"/>
-      <c r="C76" s="99" t="n"/>
-      <c r="F76" s="107" t="s">
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="7"/>
+      <c r="C76" s="114"/>
+      <c r="D76" s="99"/>
+      <c r="E76" s="99"/>
+      <c r="F76" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="G76" s="7" t="n"/>
-      <c r="H76" s="54" t="n"/>
-      <c r="I76" s="54" t="n"/>
-      <c r="J76" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="77" s="97" spans="1:22">
-      <c r="B77" s="7" t="n"/>
-      <c r="G77" s="7" t="n"/>
-      <c r="I77" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="78" s="97" spans="1:22">
-      <c r="B78" s="7" t="n"/>
-      <c r="G78" s="7" t="n"/>
-      <c r="I78" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="79" s="97" spans="1:22">
-      <c r="B79" s="7" t="n"/>
-      <c r="C79" s="7" t="n"/>
-      <c r="D79" s="7" t="n"/>
-      <c r="E79" s="7" t="n"/>
-      <c r="F79" s="7" t="n"/>
-      <c r="G79" s="7" t="n"/>
-      <c r="H79" s="54" t="n"/>
-      <c r="I79" s="54" t="n"/>
-      <c r="J79" s="54" t="n"/>
-      <c r="K79" s="69" t="n"/>
-    </row>
-    <row customFormat="1" r="80" s="97" spans="1:22">
-      <c r="B80" s="7" t="n"/>
-      <c r="C80" s="7" t="n"/>
-      <c r="D80" s="7" t="n"/>
-      <c r="E80" s="7" t="n"/>
-      <c r="F80" s="7" t="n"/>
-      <c r="G80" s="7" t="n"/>
-      <c r="H80" s="54" t="n"/>
-      <c r="I80" s="54" t="n"/>
-      <c r="J80" s="54" t="n"/>
-      <c r="K80" s="69" t="n"/>
-    </row>
-    <row customFormat="1" r="81" s="97" spans="1:22">
-      <c r="B81" s="7" t="n"/>
-      <c r="C81" s="7" t="n"/>
-      <c r="D81" s="7" t="n"/>
-      <c r="E81" s="7" t="n"/>
-      <c r="F81" s="7" t="n"/>
-      <c r="G81" s="7" t="n"/>
-      <c r="H81" s="54" t="n"/>
-      <c r="I81" s="54" t="n"/>
-      <c r="J81" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="82" s="97" spans="1:22">
+      <c r="G76" s="7"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="54"/>
+    </row>
+    <row r="77" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="7"/>
+      <c r="C77" s="99"/>
+      <c r="D77" s="99"/>
+      <c r="E77" s="99"/>
+      <c r="F77" s="99"/>
+      <c r="G77" s="7"/>
+      <c r="I77" s="54"/>
+    </row>
+    <row r="78" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="7"/>
+      <c r="C78" s="99"/>
+      <c r="D78" s="99"/>
+      <c r="E78" s="99"/>
+      <c r="F78" s="99"/>
+      <c r="G78" s="7"/>
+      <c r="I78" s="54"/>
+    </row>
+    <row r="79" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="54"/>
+      <c r="I79" s="54"/>
+      <c r="J79" s="54"/>
+      <c r="K79" s="69"/>
+    </row>
+    <row r="80" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="54"/>
+      <c r="K80" s="69"/>
+    </row>
+    <row r="81" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="54"/>
+      <c r="J81" s="54"/>
+    </row>
+    <row r="82" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
         <v>102</v>
       </c>
@@ -4216,601 +4299,603 @@
       <c r="E82" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="F82" s="76" t="n">
+      <c r="F82" s="76">
         <v>10</v>
       </c>
-      <c r="G82" s="76" t="n"/>
-      <c r="H82" s="54" t="n"/>
-      <c r="I82" s="54" t="n"/>
-      <c r="J82" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="83" s="97" spans="1:22">
-      <c r="B83" s="7" t="n"/>
-      <c r="C83" s="7" t="n"/>
-      <c r="D83" s="7" t="n"/>
-      <c r="E83" s="76" t="n"/>
-      <c r="F83" s="76" t="n"/>
-      <c r="G83" s="76" t="n"/>
-      <c r="H83" s="54" t="n"/>
-      <c r="I83" s="54" t="n"/>
-      <c r="J83" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="84" s="97" spans="1:22">
-      <c r="B84" s="7" t="n"/>
-      <c r="C84" s="7" t="n"/>
-      <c r="D84" s="106" t="s">
+      <c r="G82" s="76"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="54"/>
+    </row>
+    <row r="83" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="76"/>
+      <c r="F83" s="76"/>
+      <c r="G83" s="76"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="54"/>
+      <c r="J83" s="54"/>
+    </row>
+    <row r="84" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="E84" s="106" t="s">
+      <c r="E84" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="F84" s="106" t="s">
+      <c r="F84" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="G84" s="76" t="n"/>
-      <c r="H84" s="54" t="n"/>
-      <c r="I84" s="54" t="n"/>
-      <c r="J84" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="85" s="97" spans="1:22">
+      <c r="G84" s="76"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="54"/>
+      <c r="J84" s="54"/>
+    </row>
+    <row r="85" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
         <v>102</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D85" s="106" t="s">
+      <c r="D85" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="E85" s="106" t="s">
+      <c r="E85" s="86" t="s">
         <v>108</v>
       </c>
       <c r="F85" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="G85" s="76" t="n"/>
-      <c r="H85" s="54" t="n"/>
-      <c r="I85" s="54" t="n"/>
-      <c r="J85" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="86" s="97" spans="1:22">
-      <c r="B86" s="7" t="n"/>
-      <c r="C86" s="7" t="n"/>
-      <c r="D86" s="68" t="n"/>
-      <c r="E86" s="66" t="n"/>
-      <c r="F86" s="46">
-        <f>DEC2HEX(D86)</f>
-        <v/>
-      </c>
-      <c r="G86" s="76" t="n"/>
-      <c r="H86" s="54" t="n"/>
-      <c r="I86" s="54" t="n"/>
-      <c r="J86" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="87" s="97" spans="1:22">
-      <c r="B87" s="7" t="n"/>
-      <c r="C87" s="7" t="n"/>
-      <c r="D87" s="68" t="n"/>
-      <c r="E87" s="66" t="n"/>
-      <c r="F87" s="46">
-        <f>DEC2HEX(D87)</f>
-        <v/>
-      </c>
-      <c r="G87" s="76" t="n"/>
-      <c r="H87" s="54" t="n"/>
-      <c r="I87" s="54" t="n"/>
-      <c r="J87" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="88" s="97" spans="1:22">
-      <c r="B88" s="7" t="n"/>
-      <c r="C88" s="7" t="n"/>
-      <c r="D88" s="66" t="n"/>
-      <c r="E88" s="66" t="n"/>
-      <c r="F88" s="46">
-        <f>DEC2HEX(D88)</f>
-        <v/>
-      </c>
-      <c r="G88" s="76" t="n"/>
-      <c r="H88" s="54" t="n"/>
-      <c r="I88" s="54" t="n"/>
-      <c r="J88" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="89" s="97" spans="1:22">
-      <c r="B89" s="7" t="n"/>
-      <c r="C89" s="7" t="n"/>
-      <c r="D89" s="66" t="n"/>
-      <c r="E89" s="66" t="n"/>
-      <c r="F89" s="46">
-        <f>DEC2HEX(D89)</f>
-        <v/>
-      </c>
-      <c r="G89" s="76" t="n"/>
-      <c r="H89" s="54" t="n"/>
-      <c r="I89" s="54" t="n"/>
-      <c r="J89" s="54" t="n"/>
-      <c r="K89" s="69" t="n"/>
-    </row>
-    <row customFormat="1" r="90" s="97" spans="1:22">
-      <c r="B90" s="7" t="n"/>
-      <c r="C90" s="7" t="n"/>
-      <c r="D90" s="66" t="n"/>
-      <c r="E90" s="66" t="n"/>
-      <c r="F90" s="46">
-        <f>DEC2HEX(D90)</f>
-        <v/>
-      </c>
-      <c r="G90" s="76" t="n"/>
-      <c r="H90" s="54" t="n"/>
-      <c r="I90" s="54" t="n"/>
-      <c r="J90" s="54" t="n"/>
-      <c r="K90" s="69" t="n"/>
-    </row>
-    <row r="91" spans="1:22">
-      <c r="B91" s="7" t="n"/>
-      <c r="C91" s="7" t="n"/>
-      <c r="D91" s="66" t="n"/>
-      <c r="E91" s="66" t="n"/>
-      <c r="F91" s="46">
-        <f>DEC2HEX(D91)</f>
-        <v/>
-      </c>
-      <c r="G91" s="76" t="n"/>
-      <c r="H91" s="54" t="n"/>
-      <c r="I91" s="54" t="n"/>
-      <c r="J91" s="54" t="n"/>
-      <c r="K91" s="97" t="n"/>
-      <c r="L91" s="97" t="n"/>
-      <c r="M91" s="97" t="n"/>
-    </row>
-    <row r="92" spans="1:22">
-      <c r="B92" s="7" t="n"/>
-      <c r="C92" s="7" t="n"/>
-      <c r="D92" s="66" t="n"/>
-      <c r="E92" s="66" t="n"/>
-      <c r="F92" s="46">
-        <f>DEC2HEX(D92)</f>
-        <v/>
-      </c>
-      <c r="G92" s="76" t="n"/>
-      <c r="H92" s="54" t="n"/>
-      <c r="I92" s="54" t="n"/>
-      <c r="J92" s="54" t="n"/>
-      <c r="K92" s="97" t="n"/>
-      <c r="L92" s="97" t="n"/>
-      <c r="M92" s="97" t="n"/>
-    </row>
-    <row r="93" spans="1:22">
-      <c r="B93" s="7" t="n"/>
-      <c r="C93" s="7" t="n"/>
-      <c r="D93" s="7" t="n"/>
-      <c r="E93" s="7" t="n"/>
-      <c r="F93" s="7" t="n"/>
-      <c r="G93" s="7" t="n"/>
-      <c r="H93" s="54" t="n"/>
-      <c r="I93" s="54" t="n"/>
-      <c r="J93" s="54" t="n"/>
-      <c r="K93" s="97" t="n"/>
-      <c r="L93" s="97" t="n"/>
-      <c r="M93" s="97" t="n"/>
-    </row>
-    <row r="94" spans="1:22">
-      <c r="B94" s="7" t="n"/>
-      <c r="C94" s="7" t="n"/>
-      <c r="D94" s="106" t="s">
+      <c r="G85" s="76"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="54"/>
+      <c r="J85" s="54"/>
+    </row>
+    <row r="86" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="68"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="46" t="str">
+        <f t="shared" ref="F86:F92" si="0">DEC2HEX(D86)</f>
+        <v>0</v>
+      </c>
+      <c r="G86" s="76"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="54"/>
+      <c r="J86" s="54"/>
+    </row>
+    <row r="87" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="76"/>
+      <c r="H87" s="54"/>
+      <c r="I87" s="54"/>
+      <c r="J87" s="54"/>
+    </row>
+    <row r="88" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="66"/>
+      <c r="F88" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="76"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="54"/>
+      <c r="J88" s="54"/>
+    </row>
+    <row r="89" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="76"/>
+      <c r="H89" s="54"/>
+      <c r="I89" s="54"/>
+      <c r="J89" s="54"/>
+      <c r="K89" s="69"/>
+    </row>
+    <row r="90" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="76"/>
+      <c r="H90" s="54"/>
+      <c r="I90" s="54"/>
+      <c r="J90" s="54"/>
+      <c r="K90" s="69"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="66"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="76"/>
+      <c r="H91" s="54"/>
+      <c r="I91" s="54"/>
+      <c r="J91" s="54"/>
+      <c r="K91" s="83"/>
+      <c r="L91" s="83"/>
+      <c r="M91" s="83"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="66"/>
+      <c r="E92" s="66"/>
+      <c r="F92" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="76"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="54"/>
+      <c r="J92" s="54"/>
+      <c r="K92" s="83"/>
+      <c r="L92" s="83"/>
+      <c r="M92" s="83"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="54"/>
+      <c r="I93" s="54"/>
+      <c r="J93" s="54"/>
+      <c r="K93" s="83"/>
+      <c r="L93" s="83"/>
+      <c r="M93" s="83"/>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="E94" s="106" t="s">
+      <c r="E94" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="F94" s="106" t="s">
+      <c r="F94" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="G94" s="76" t="n"/>
-      <c r="H94" s="54" t="n"/>
-      <c r="I94" s="54" t="n"/>
-      <c r="J94" s="54" t="n"/>
-      <c r="K94" s="97" t="n"/>
-      <c r="L94" s="97" t="n"/>
-      <c r="M94" s="97" t="n"/>
-    </row>
-    <row r="95" spans="1:22">
+      <c r="G94" s="76"/>
+      <c r="H94" s="54"/>
+      <c r="I94" s="54"/>
+      <c r="J94" s="54"/>
+      <c r="K94" s="83"/>
+      <c r="L94" s="83"/>
+      <c r="M94" s="83"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
         <v>102</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D95" s="106" t="s">
+      <c r="D95" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="E95" s="106" t="s">
+      <c r="E95" s="86" t="s">
         <v>111</v>
       </c>
       <c r="F95" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="G95" s="76" t="n"/>
-      <c r="H95" s="54" t="n"/>
-      <c r="I95" s="54" t="n"/>
-      <c r="J95" s="54" t="n"/>
-      <c r="K95" s="97" t="n"/>
-      <c r="L95" s="97" t="n"/>
-      <c r="M95" s="97" t="n"/>
-    </row>
-    <row r="96" spans="1:22">
-      <c r="B96" s="7" t="n"/>
-      <c r="C96" s="7" t="n"/>
-      <c r="D96" s="66" t="n"/>
-      <c r="E96" s="66" t="n"/>
-      <c r="F96" s="46">
-        <f>DEC2HEX(D96)</f>
-        <v/>
-      </c>
-      <c r="G96" s="76" t="n"/>
-      <c r="H96" s="54" t="n"/>
-      <c r="I96" s="54" t="n"/>
-      <c r="J96" s="54" t="n"/>
-      <c r="K96" s="97" t="n"/>
-      <c r="L96" s="97" t="n"/>
-      <c r="M96" s="97" t="n"/>
-    </row>
-    <row customFormat="1" r="97" s="97" spans="1:22">
-      <c r="B97" s="7" t="n"/>
-      <c r="C97" s="7" t="n"/>
-      <c r="D97" s="66" t="n"/>
-      <c r="E97" s="66" t="n"/>
-      <c r="F97" s="46">
-        <f>DEC2HEX(D97)</f>
-        <v/>
-      </c>
-      <c r="G97" s="76" t="n"/>
-      <c r="H97" s="54" t="n"/>
-      <c r="I97" s="54" t="n"/>
-      <c r="J97" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="98" s="97" spans="1:22">
-      <c r="B98" s="7" t="n"/>
-      <c r="C98" s="7" t="n"/>
-      <c r="D98" s="66" t="n"/>
-      <c r="E98" s="66" t="n"/>
-      <c r="F98" s="46">
-        <f>DEC2HEX(D98)</f>
-        <v/>
-      </c>
-      <c r="G98" s="76" t="n"/>
-      <c r="H98" s="54" t="n"/>
-      <c r="I98" s="54" t="n"/>
-      <c r="J98" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="99" s="97" spans="1:22">
-      <c r="B99" s="7" t="n"/>
-      <c r="C99" s="7" t="n"/>
-      <c r="D99" s="66" t="n"/>
-      <c r="E99" s="66" t="n"/>
-      <c r="F99" s="46">
-        <f>DEC2HEX(D99)</f>
-        <v/>
-      </c>
-      <c r="G99" s="76" t="n"/>
-      <c r="H99" s="54" t="n"/>
-      <c r="I99" s="54" t="n"/>
-      <c r="J99" s="54" t="n"/>
-    </row>
-    <row customFormat="1" r="100" s="97" spans="1:22">
-      <c r="B100" s="7" t="n"/>
-      <c r="C100" s="7" t="n"/>
-      <c r="D100" s="66" t="n"/>
-      <c r="E100" s="66" t="n"/>
-      <c r="F100" s="46">
-        <f>DEC2HEX(D100)</f>
-        <v/>
-      </c>
-      <c r="G100" s="76" t="n"/>
-      <c r="H100" s="54" t="n"/>
-      <c r="I100" s="54" t="n"/>
-      <c r="J100" s="54" t="n"/>
-    </row>
-    <row r="101" spans="1:22">
-      <c r="B101" s="7" t="n"/>
-      <c r="C101" s="7" t="n"/>
-      <c r="D101" s="66" t="n"/>
-      <c r="E101" s="66" t="n"/>
-      <c r="F101" s="46">
-        <f>DEC2HEX(D101)</f>
-        <v/>
-      </c>
-      <c r="G101" s="76" t="n"/>
-      <c r="H101" s="54" t="n"/>
-      <c r="I101" s="54" t="n"/>
-      <c r="J101" s="54" t="n"/>
-      <c r="K101" s="97" t="n"/>
-      <c r="L101" s="97" t="n"/>
-      <c r="M101" s="97" t="n"/>
-    </row>
-    <row r="102" spans="1:22">
-      <c r="B102" s="7" t="n"/>
-      <c r="C102" s="7" t="n"/>
-      <c r="D102" s="66" t="n"/>
-      <c r="E102" s="66" t="n"/>
-      <c r="F102" s="46">
-        <f>DEC2HEX(D102)</f>
-        <v/>
-      </c>
-      <c r="G102" s="76" t="n"/>
-      <c r="H102" s="54" t="n"/>
-      <c r="I102" s="54" t="n"/>
-      <c r="J102" s="54" t="n"/>
-      <c r="K102" s="97" t="n"/>
-      <c r="L102" s="97" t="n"/>
-      <c r="M102" s="97" t="n"/>
-    </row>
-    <row r="103" spans="1:22">
-      <c r="B103" s="7" t="n"/>
-      <c r="C103" s="7" t="n"/>
-      <c r="D103" s="66" t="n"/>
-      <c r="E103" s="66" t="n"/>
-      <c r="F103" s="46">
-        <f>DEC2HEX(D103)</f>
-        <v/>
-      </c>
-      <c r="G103" s="76" t="n"/>
-      <c r="H103" s="54" t="n"/>
-      <c r="I103" s="54" t="n"/>
-      <c r="J103" s="54" t="n"/>
-      <c r="K103" s="97" t="n"/>
-      <c r="L103" s="97" t="n"/>
-      <c r="M103" s="97" t="n"/>
-    </row>
-    <row r="104" spans="1:22">
-      <c r="B104" s="7" t="n"/>
-      <c r="C104" s="7" t="n"/>
-      <c r="D104" s="66" t="n"/>
-      <c r="E104" s="66" t="n"/>
-      <c r="F104" s="46">
-        <f>DEC2HEX(D104)</f>
-        <v/>
-      </c>
-      <c r="G104" s="76" t="n"/>
-      <c r="H104" s="54" t="n"/>
-      <c r="I104" s="54" t="n"/>
-      <c r="J104" s="54" t="n"/>
-      <c r="K104" s="97" t="n"/>
-      <c r="L104" s="97" t="n"/>
-      <c r="M104" s="97" t="n"/>
-    </row>
-    <row r="105" spans="1:22">
-      <c r="B105" s="7" t="n"/>
-      <c r="C105" s="7" t="n"/>
-      <c r="D105" s="66" t="n"/>
-      <c r="E105" s="66" t="n"/>
-      <c r="F105" s="46">
-        <f>DEC2HEX(D105)</f>
-        <v/>
-      </c>
-      <c r="G105" s="76" t="n"/>
-      <c r="H105" s="54" t="n"/>
-      <c r="I105" s="54" t="n"/>
-      <c r="J105" s="54" t="n"/>
-      <c r="K105" s="97" t="n"/>
-      <c r="L105" s="97" t="n"/>
-      <c r="M105" s="97" t="n"/>
-    </row>
-    <row r="106" spans="1:22">
-      <c r="B106" s="7" t="n"/>
-      <c r="C106" s="7" t="n"/>
-      <c r="D106" s="66" t="n"/>
-      <c r="E106" s="66" t="n"/>
-      <c r="F106" s="46">
-        <f>DEC2HEX(D106)</f>
-        <v/>
-      </c>
-      <c r="G106" s="76" t="n"/>
-      <c r="H106" s="54" t="n"/>
-      <c r="I106" s="54" t="n"/>
-      <c r="J106" s="54" t="n"/>
-      <c r="K106" s="97" t="n"/>
-      <c r="L106" s="97" t="n"/>
-      <c r="M106" s="97" t="n"/>
-    </row>
-    <row r="107" spans="1:22">
-      <c r="B107" s="7" t="n"/>
-      <c r="C107" s="7" t="n"/>
-      <c r="D107" s="7" t="n"/>
-      <c r="E107" s="7" t="n"/>
-      <c r="F107" s="7" t="n"/>
-      <c r="G107" s="7" t="n"/>
-      <c r="H107" s="54" t="n"/>
-      <c r="I107" s="54" t="n"/>
-      <c r="J107" s="54" t="n"/>
-      <c r="K107" s="97" t="n"/>
-      <c r="L107" s="97" t="n"/>
-      <c r="M107" s="97" t="n"/>
-    </row>
-    <row r="108" spans="1:22">
+      <c r="G95" s="76"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="54"/>
+      <c r="J95" s="54"/>
+      <c r="K95" s="83"/>
+      <c r="L95" s="83"/>
+      <c r="M95" s="83"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="66"/>
+      <c r="F96" s="46" t="str">
+        <f t="shared" ref="F96:F106" si="1">DEC2HEX(D96)</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="76"/>
+      <c r="H96" s="54"/>
+      <c r="I96" s="54"/>
+      <c r="J96" s="54"/>
+      <c r="K96" s="83"/>
+      <c r="L96" s="83"/>
+      <c r="M96" s="83"/>
+    </row>
+    <row r="97" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="66"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="76"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="54"/>
+      <c r="J97" s="54"/>
+    </row>
+    <row r="98" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="66"/>
+      <c r="F98" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="76"/>
+      <c r="H98" s="54"/>
+      <c r="I98" s="54"/>
+      <c r="J98" s="54"/>
+    </row>
+    <row r="99" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="66"/>
+      <c r="E99" s="66"/>
+      <c r="F99" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="76"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="54"/>
+      <c r="J99" s="54"/>
+    </row>
+    <row r="100" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="66"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="76"/>
+      <c r="H100" s="54"/>
+      <c r="I100" s="54"/>
+      <c r="J100" s="54"/>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="66"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="76"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="54"/>
+      <c r="J101" s="54"/>
+      <c r="K101" s="83"/>
+      <c r="L101" s="83"/>
+      <c r="M101" s="83"/>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="66"/>
+      <c r="F102" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="76"/>
+      <c r="H102" s="54"/>
+      <c r="I102" s="54"/>
+      <c r="J102" s="54"/>
+      <c r="K102" s="83"/>
+      <c r="L102" s="83"/>
+      <c r="M102" s="83"/>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="66"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="76"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="54"/>
+      <c r="J103" s="54"/>
+      <c r="K103" s="83"/>
+      <c r="L103" s="83"/>
+      <c r="M103" s="83"/>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="76"/>
+      <c r="H104" s="54"/>
+      <c r="I104" s="54"/>
+      <c r="J104" s="54"/>
+      <c r="K104" s="83"/>
+      <c r="L104" s="83"/>
+      <c r="M104" s="83"/>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="66"/>
+      <c r="E105" s="66"/>
+      <c r="F105" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="76"/>
+      <c r="H105" s="54"/>
+      <c r="I105" s="54"/>
+      <c r="J105" s="54"/>
+      <c r="K105" s="83"/>
+      <c r="L105" s="83"/>
+      <c r="M105" s="83"/>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="66"/>
+      <c r="F106" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G106" s="76"/>
+      <c r="H106" s="54"/>
+      <c r="I106" s="54"/>
+      <c r="J106" s="54"/>
+      <c r="K106" s="83"/>
+      <c r="L106" s="83"/>
+      <c r="M106" s="83"/>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="54"/>
+      <c r="I107" s="54"/>
+      <c r="J107" s="54"/>
+      <c r="K107" s="83"/>
+      <c r="L107" s="83"/>
+      <c r="M107" s="83"/>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
         <v>112</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D108" s="106" t="s">
+      <c r="D108" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="G108" s="106" t="n"/>
-      <c r="H108" s="54" t="n"/>
-      <c r="I108" s="54" t="n"/>
-      <c r="J108" s="54" t="n"/>
-      <c r="K108" s="97" t="n"/>
-      <c r="L108" s="97" t="n"/>
-      <c r="M108" s="97" t="n"/>
-    </row>
-    <row r="109" spans="1:22">
-      <c r="B109" s="7" t="n"/>
-      <c r="C109" s="7" t="n"/>
-      <c r="D109" s="7" t="n"/>
-      <c r="E109" s="7" t="n"/>
-      <c r="F109" s="7" t="n"/>
-      <c r="G109" s="7" t="n"/>
-      <c r="H109" s="54" t="n"/>
-      <c r="I109" s="54" t="n"/>
-      <c r="J109" s="54" t="n"/>
-      <c r="K109" s="97" t="n"/>
-      <c r="L109" s="97" t="n"/>
-      <c r="M109" s="97" t="n"/>
-    </row>
-    <row r="110" spans="1:22">
-      <c r="B110" s="7" t="n"/>
-      <c r="C110" s="7" t="n"/>
-      <c r="D110" s="7" t="n"/>
-      <c r="E110" s="7" t="n"/>
-      <c r="F110" s="7" t="n"/>
-      <c r="G110" s="7" t="n"/>
-      <c r="H110" s="54" t="n"/>
-      <c r="I110" s="54" t="n"/>
-      <c r="J110" s="54" t="n"/>
-      <c r="K110" s="97" t="n"/>
-      <c r="L110" s="97" t="n"/>
-      <c r="M110" s="97" t="n"/>
-    </row>
-    <row r="111" spans="1:22">
-      <c r="B111" s="7" t="n"/>
-      <c r="C111" s="7" t="n"/>
-      <c r="D111" s="7" t="n"/>
-      <c r="E111" s="7" t="n"/>
-      <c r="F111" s="7" t="n"/>
-      <c r="G111" s="7" t="n"/>
-      <c r="H111" s="54" t="n"/>
-      <c r="I111" s="54" t="n"/>
-      <c r="J111" s="54" t="n"/>
-      <c r="K111" s="97" t="n"/>
-      <c r="L111" s="97" t="n"/>
-      <c r="M111" s="97" t="n"/>
-    </row>
-    <row r="112" spans="1:22">
-      <c r="B112" s="7" t="n"/>
-      <c r="C112" s="7" t="n"/>
-      <c r="D112" s="7" t="n"/>
-      <c r="E112" s="7" t="n"/>
-      <c r="F112" s="7" t="n"/>
-      <c r="G112" s="7" t="n"/>
-      <c r="H112" s="54" t="n"/>
-      <c r="I112" s="54" t="n"/>
-      <c r="J112" s="54" t="n"/>
-      <c r="K112" s="97" t="n"/>
-      <c r="L112" s="97" t="n"/>
-      <c r="M112" s="97" t="n"/>
-    </row>
-    <row r="113" spans="1:22">
-      <c r="B113" s="7" t="n"/>
-      <c r="C113" s="7" t="n"/>
-      <c r="D113" s="7" t="n"/>
-      <c r="E113" s="7" t="n"/>
-      <c r="F113" s="7" t="n"/>
-      <c r="G113" s="7" t="n"/>
-      <c r="H113" s="54" t="n"/>
-      <c r="I113" s="54" t="n"/>
-      <c r="J113" s="54" t="n"/>
-      <c r="K113" s="97" t="n"/>
-      <c r="L113" s="97" t="n"/>
-      <c r="M113" s="97" t="n"/>
-    </row>
-    <row r="114" spans="1:22">
-      <c r="B114" s="7" t="n"/>
-      <c r="C114" s="7" t="n"/>
-      <c r="D114" s="7" t="n"/>
-      <c r="E114" s="7" t="n"/>
-      <c r="F114" s="7" t="n"/>
-      <c r="G114" s="7" t="n"/>
-      <c r="H114" s="54" t="n"/>
-      <c r="I114" s="54" t="n"/>
-      <c r="J114" s="54" t="n"/>
-      <c r="K114" s="97" t="n"/>
-      <c r="L114" s="97" t="n"/>
-      <c r="M114" s="97" t="n"/>
-    </row>
-    <row r="115" spans="1:22">
-      <c r="B115" s="7" t="n"/>
-      <c r="C115" s="7" t="n"/>
-      <c r="D115" s="7" t="n"/>
-      <c r="E115" s="7" t="n"/>
-      <c r="F115" s="7" t="n"/>
-      <c r="G115" s="7" t="n"/>
-      <c r="H115" s="54" t="n"/>
-      <c r="I115" s="54" t="n"/>
-      <c r="J115" s="54" t="n"/>
-      <c r="K115" s="97" t="n"/>
-      <c r="L115" s="97" t="n"/>
-      <c r="M115" s="97" t="n"/>
-    </row>
-    <row r="116" spans="1:22">
-      <c r="B116" s="7" t="n"/>
-      <c r="C116" s="7" t="n"/>
-      <c r="D116" s="7" t="n"/>
-      <c r="E116" s="7" t="n"/>
-      <c r="F116" s="7" t="n"/>
-      <c r="G116" s="7" t="n"/>
-      <c r="H116" s="54" t="n"/>
-      <c r="I116" s="54" t="n"/>
-      <c r="J116" s="54" t="n"/>
-      <c r="K116" s="97" t="n"/>
-      <c r="L116" s="97" t="n"/>
-      <c r="M116" s="97" t="n"/>
-    </row>
-    <row r="117" spans="1:22">
-      <c r="B117" s="7" t="n"/>
-      <c r="C117" s="7" t="n"/>
-      <c r="D117" s="7" t="n"/>
-      <c r="E117" s="7" t="n"/>
-      <c r="F117" s="7" t="n"/>
-      <c r="G117" s="7" t="n"/>
-      <c r="H117" s="54" t="n"/>
-      <c r="I117" s="54" t="n"/>
-      <c r="J117" s="54" t="n"/>
-      <c r="K117" s="97" t="n"/>
-      <c r="L117" s="97" t="n"/>
-      <c r="M117" s="97" t="n"/>
-    </row>
-    <row r="118" spans="1:22">
-      <c r="B118" s="7" t="n"/>
-      <c r="C118" s="7" t="n"/>
-      <c r="D118" s="7" t="n"/>
-      <c r="E118" s="7" t="n"/>
-      <c r="F118" s="7" t="n"/>
-      <c r="G118" s="7" t="n"/>
-      <c r="H118" s="54" t="n"/>
-      <c r="I118" s="54" t="n"/>
-      <c r="J118" s="54" t="n"/>
-      <c r="K118" s="97" t="n"/>
-      <c r="L118" s="97" t="n"/>
-      <c r="M118" s="97" t="n"/>
-    </row>
-    <row r="119" spans="1:22">
-      <c r="B119" s="7" t="n"/>
-      <c r="C119" s="7" t="n"/>
-      <c r="D119" s="7" t="n"/>
-      <c r="E119" s="7" t="n"/>
-      <c r="F119" s="7" t="n"/>
-      <c r="G119" s="7" t="n"/>
-      <c r="H119" s="54" t="n"/>
-      <c r="I119" s="54" t="n"/>
-      <c r="J119" s="54" t="n"/>
-      <c r="K119" s="97" t="n"/>
-      <c r="L119" s="97" t="n"/>
-      <c r="M119" s="97" t="n"/>
-    </row>
-    <row r="120" spans="1:22">
-      <c r="B120" s="7" t="n"/>
-      <c r="C120" s="7" t="n"/>
-      <c r="D120" s="7" t="n"/>
-      <c r="E120" s="7" t="n"/>
-      <c r="F120" s="7" t="n"/>
-      <c r="G120" s="7" t="n"/>
-      <c r="H120" s="54" t="n"/>
-      <c r="I120" s="54" t="n"/>
-      <c r="J120" s="54" t="n"/>
-      <c r="K120" s="69" t="n"/>
-    </row>
-    <row r="121" spans="1:22">
+      <c r="E108" s="97"/>
+      <c r="F108" s="97"/>
+      <c r="G108" s="86"/>
+      <c r="H108" s="54"/>
+      <c r="I108" s="54"/>
+      <c r="J108" s="54"/>
+      <c r="K108" s="83"/>
+      <c r="L108" s="83"/>
+      <c r="M108" s="83"/>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="54"/>
+      <c r="J109" s="54"/>
+      <c r="K109" s="83"/>
+      <c r="L109" s="83"/>
+      <c r="M109" s="83"/>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="54"/>
+      <c r="I110" s="54"/>
+      <c r="J110" s="54"/>
+      <c r="K110" s="83"/>
+      <c r="L110" s="83"/>
+      <c r="M110" s="83"/>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="54"/>
+      <c r="I111" s="54"/>
+      <c r="J111" s="54"/>
+      <c r="K111" s="83"/>
+      <c r="L111" s="83"/>
+      <c r="M111" s="83"/>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="54"/>
+      <c r="I112" s="54"/>
+      <c r="J112" s="54"/>
+      <c r="K112" s="83"/>
+      <c r="L112" s="83"/>
+      <c r="M112" s="83"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="54"/>
+      <c r="I113" s="54"/>
+      <c r="J113" s="54"/>
+      <c r="K113" s="83"/>
+      <c r="L113" s="83"/>
+      <c r="M113" s="83"/>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="54"/>
+      <c r="I114" s="54"/>
+      <c r="J114" s="54"/>
+      <c r="K114" s="83"/>
+      <c r="L114" s="83"/>
+      <c r="M114" s="83"/>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="54"/>
+      <c r="I115" s="54"/>
+      <c r="J115" s="54"/>
+      <c r="K115" s="83"/>
+      <c r="L115" s="83"/>
+      <c r="M115" s="83"/>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="54"/>
+      <c r="I116" s="54"/>
+      <c r="J116" s="54"/>
+      <c r="K116" s="83"/>
+      <c r="L116" s="83"/>
+      <c r="M116" s="83"/>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="54"/>
+      <c r="I117" s="54"/>
+      <c r="J117" s="54"/>
+      <c r="K117" s="83"/>
+      <c r="L117" s="83"/>
+      <c r="M117" s="83"/>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="54"/>
+      <c r="I118" s="54"/>
+      <c r="J118" s="54"/>
+      <c r="K118" s="83"/>
+      <c r="L118" s="83"/>
+      <c r="M118" s="83"/>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="54"/>
+      <c r="I119" s="54"/>
+      <c r="J119" s="54"/>
+      <c r="K119" s="83"/>
+      <c r="L119" s="83"/>
+      <c r="M119" s="83"/>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="54"/>
+      <c r="I120" s="54"/>
+      <c r="J120" s="54"/>
+      <c r="K120" s="69"/>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
         <v>115</v>
       </c>
@@ -4826,15 +4911,15 @@
       <c r="F121" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G121" s="7" t="n"/>
-      <c r="H121" s="54" t="n"/>
-      <c r="I121" s="54" t="n"/>
-      <c r="J121" s="54" t="n"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="54"/>
+      <c r="I121" s="54"/>
+      <c r="J121" s="54"/>
       <c r="L121" s="54" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:22">
+    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
         <v>115</v>
       </c>
@@ -4850,58 +4935,59 @@
       <c r="F122" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G122" s="7" t="n"/>
-      <c r="H122" s="54" t="n"/>
-      <c r="I122" s="54" t="n"/>
-      <c r="J122" s="54" t="n"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="54"/>
+      <c r="I122" s="54"/>
+      <c r="J122" s="54"/>
       <c r="L122" s="54" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:22">
-      <c r="B123" s="7" t="n"/>
-      <c r="C123" s="7" t="n"/>
-      <c r="D123" s="7" t="n"/>
-      <c r="E123" s="7" t="n"/>
-      <c r="F123" s="7" t="n"/>
-      <c r="G123" s="7" t="n"/>
-      <c r="H123" s="54" t="n"/>
-      <c r="I123" s="54" t="n"/>
-      <c r="J123" s="54" t="n"/>
-      <c r="K123" s="97" t="n"/>
-      <c r="L123" s="97" t="n"/>
-      <c r="M123" s="97" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="124" s="90" spans="1:22" thickBot="1">
-      <c r="B124" s="7" t="n"/>
-      <c r="C124" s="7" t="n"/>
-      <c r="D124" s="7" t="n"/>
-      <c r="E124" s="7" t="n"/>
-      <c r="F124" s="7" t="n"/>
-      <c r="G124" s="7" t="n"/>
-      <c r="H124" s="54" t="n"/>
-      <c r="I124" s="54" t="n"/>
-      <c r="J124" s="54" t="n"/>
-      <c r="K124" s="97" t="n"/>
-      <c r="L124" s="97" t="n"/>
-      <c r="M124" s="97" t="n"/>
-    </row>
-    <row r="125" spans="1:22">
-      <c r="B125" s="45" t="n"/>
-      <c r="C125" s="113" t="n"/>
-      <c r="D125" s="113" t="s">
+    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="54"/>
+      <c r="I123" s="54"/>
+      <c r="J123" s="54"/>
+      <c r="K123" s="83"/>
+      <c r="L123" s="83"/>
+      <c r="M123" s="83"/>
+    </row>
+    <row r="124" spans="2:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="54"/>
+      <c r="I124" s="54"/>
+      <c r="J124" s="54"/>
+      <c r="K124" s="83"/>
+      <c r="L124" s="83"/>
+      <c r="M124" s="83"/>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B125" s="45"/>
+      <c r="C125" s="88"/>
+      <c r="D125" s="110" t="s">
         <v>121</v>
       </c>
-      <c r="F125" s="113" t="n"/>
-      <c r="G125" s="77" t="n"/>
-      <c r="H125" s="59" t="n"/>
-      <c r="I125" s="60" t="n"/>
-      <c r="J125" s="53" t="n"/>
-      <c r="K125" s="97" t="n"/>
-      <c r="L125" s="97" t="n"/>
-      <c r="M125" s="97" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="126" s="90" spans="1:22" thickBot="1">
+      <c r="E125" s="97"/>
+      <c r="F125" s="88"/>
+      <c r="G125" s="77"/>
+      <c r="H125" s="59"/>
+      <c r="I125" s="60"/>
+      <c r="J125" s="53"/>
+      <c r="K125" s="83"/>
+      <c r="L125" s="83"/>
+      <c r="M125" s="83"/>
+    </row>
+    <row r="126" spans="2:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B126" s="38" t="s">
         <v>122</v>
       </c>
@@ -4914,34 +5000,34 @@
       <c r="E126" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="F126" s="39" t="n">
+      <c r="F126" s="39">
         <v>9600</v>
       </c>
-      <c r="G126" s="37" t="n"/>
-      <c r="H126" s="56" t="n"/>
-      <c r="I126" s="57" t="n"/>
-      <c r="J126" s="58" t="n"/>
-      <c r="K126" s="97" t="n"/>
-      <c r="L126" s="97" t="n"/>
-      <c r="M126" s="97" t="n"/>
-    </row>
-    <row r="127" spans="1:22">
-      <c r="H127" s="52" t="n"/>
-      <c r="I127" s="52" t="n"/>
-      <c r="J127" s="52" t="n"/>
-    </row>
-    <row r="128" spans="1:22">
-      <c r="B128" s="7" t="n"/>
-      <c r="C128" s="7" t="n"/>
-      <c r="D128" s="76" t="n"/>
-      <c r="E128" s="7" t="n"/>
-      <c r="F128" s="7" t="n"/>
-      <c r="G128" s="7" t="n"/>
-      <c r="H128" s="54" t="n"/>
-      <c r="I128" s="54" t="n"/>
-      <c r="J128" s="54" t="n"/>
-    </row>
-    <row r="129" spans="1:22">
+      <c r="G126" s="37"/>
+      <c r="H126" s="56"/>
+      <c r="I126" s="57"/>
+      <c r="J126" s="58"/>
+      <c r="K126" s="83"/>
+      <c r="L126" s="83"/>
+      <c r="M126" s="83"/>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H127" s="52"/>
+      <c r="I127" s="52"/>
+      <c r="J127" s="52"/>
+    </row>
+    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="76"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="54"/>
+      <c r="I128" s="54"/>
+      <c r="J128" s="54"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
         <v>126</v>
       </c>
@@ -4954,15 +5040,15 @@
       <c r="E129" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F129" s="7" t="n">
+      <c r="F129" s="7">
         <v>30000</v>
       </c>
-      <c r="G129" s="7" t="n"/>
-      <c r="H129" s="54" t="n"/>
-      <c r="I129" s="54" t="n"/>
-      <c r="J129" s="54" t="n"/>
-    </row>
-    <row r="130" spans="1:22">
+      <c r="G129" s="7"/>
+      <c r="H129" s="54"/>
+      <c r="I129" s="54"/>
+      <c r="J129" s="54"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
         <v>126</v>
       </c>
@@ -4978,12 +5064,12 @@
       <c r="F130" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G130" s="7" t="n"/>
-      <c r="H130" s="54" t="n"/>
-      <c r="I130" s="54" t="n"/>
-      <c r="J130" s="54" t="n"/>
-    </row>
-    <row r="131" spans="1:22">
+      <c r="G130" s="7"/>
+      <c r="H130" s="54"/>
+      <c r="I130" s="54"/>
+      <c r="J130" s="54"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
         <v>126</v>
       </c>
@@ -4999,23 +5085,23 @@
       <c r="F131" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G131" s="7" t="n"/>
-      <c r="H131" s="54" t="n"/>
-      <c r="I131" s="54" t="n"/>
-      <c r="J131" s="54" t="n"/>
-    </row>
-    <row r="132" spans="1:22">
-      <c r="B132" s="7" t="n"/>
-      <c r="C132" s="7" t="n"/>
-      <c r="D132" s="7" t="n"/>
-      <c r="E132" s="7" t="n"/>
-      <c r="F132" s="7" t="n"/>
-      <c r="G132" s="7" t="n"/>
-      <c r="H132" s="54" t="n"/>
-      <c r="I132" s="54" t="n"/>
-      <c r="J132" s="54" t="n"/>
-    </row>
-    <row r="133" spans="1:22">
+      <c r="G131" s="7"/>
+      <c r="H131" s="54"/>
+      <c r="I131" s="54"/>
+      <c r="J131" s="54"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="54"/>
+      <c r="I132" s="54"/>
+      <c r="J132" s="54"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
         <v>134</v>
       </c>
@@ -5031,12 +5117,12 @@
       <c r="F133" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G133" s="7" t="n"/>
-      <c r="H133" s="54" t="n"/>
-      <c r="I133" s="54" t="n"/>
-      <c r="J133" s="54" t="n"/>
-    </row>
-    <row r="134" spans="1:22">
+      <c r="G133" s="7"/>
+      <c r="H133" s="54"/>
+      <c r="I133" s="54"/>
+      <c r="J133" s="54"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
         <v>134</v>
       </c>
@@ -5049,26 +5135,26 @@
       <c r="E134" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F134" s="7" t="n">
+      <c r="F134" s="7">
         <v>3000</v>
       </c>
-      <c r="G134" s="7" t="n"/>
-      <c r="H134" s="54" t="n"/>
-      <c r="I134" s="54" t="n"/>
-      <c r="J134" s="54" t="n"/>
-    </row>
-    <row r="135" spans="1:22">
-      <c r="B135" s="7" t="n"/>
-      <c r="C135" s="7" t="n"/>
-      <c r="D135" s="7" t="n"/>
-      <c r="E135" s="7" t="n"/>
-      <c r="F135" s="7" t="n"/>
-      <c r="G135" s="7" t="n"/>
-      <c r="H135" s="52" t="n"/>
-      <c r="I135" s="52" t="n"/>
-      <c r="J135" s="52" t="n"/>
-    </row>
-    <row r="136" spans="1:22">
+      <c r="G134" s="7"/>
+      <c r="H134" s="54"/>
+      <c r="I134" s="54"/>
+      <c r="J134" s="54"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="52"/>
+      <c r="I135" s="52"/>
+      <c r="J135" s="52"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
         <v>141</v>
       </c>
@@ -5084,12 +5170,12 @@
       <c r="F136" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G136" s="7" t="n"/>
-      <c r="H136" s="54" t="n"/>
-      <c r="I136" s="54" t="n"/>
-      <c r="J136" s="54" t="n"/>
-    </row>
-    <row r="137" spans="1:22">
+      <c r="G136" s="7"/>
+      <c r="H136" s="54"/>
+      <c r="I136" s="54"/>
+      <c r="J136" s="54"/>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B137" s="7" t="s">
         <v>141</v>
       </c>
@@ -5105,31 +5191,32 @@
       <c r="F137" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G137" s="7" t="n"/>
-      <c r="H137" s="54" t="n"/>
-      <c r="I137" s="54" t="n"/>
-      <c r="J137" s="54" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="138" s="90" spans="1:22" thickBot="1">
-      <c r="B138" s="7" t="n"/>
-      <c r="C138" s="7" t="n"/>
-      <c r="D138" s="7" t="n"/>
-      <c r="E138" s="7" t="n"/>
-      <c r="F138" s="7" t="n"/>
-    </row>
-    <row r="139" spans="1:22">
-      <c r="B139" s="31" t="n"/>
-      <c r="C139" s="32" t="n"/>
-      <c r="D139" s="109" t="s">
+      <c r="G137" s="7"/>
+      <c r="H137" s="54"/>
+      <c r="I137" s="54"/>
+      <c r="J137" s="54"/>
+    </row>
+    <row r="138" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B139" s="31"/>
+      <c r="C139" s="32"/>
+      <c r="D139" s="106" t="s">
         <v>150</v>
       </c>
-      <c r="F139" s="32" t="n"/>
-      <c r="G139" s="32" t="n"/>
-      <c r="H139" s="59" t="n"/>
-      <c r="I139" s="59" t="n"/>
-      <c r="J139" s="53" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="140" s="90" spans="1:22" thickBot="1">
+      <c r="E139" s="97"/>
+      <c r="F139" s="32"/>
+      <c r="G139" s="32"/>
+      <c r="H139" s="59"/>
+      <c r="I139" s="59"/>
+      <c r="J139" s="53"/>
+    </row>
+    <row r="140" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="34" t="s">
         <v>141</v>
       </c>
@@ -5142,157 +5229,171 @@
       <c r="E140" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="F140" s="35" t="n">
+      <c r="F140" s="35">
         <v>500</v>
       </c>
-      <c r="G140" s="35" t="n"/>
-      <c r="H140" s="56" t="n"/>
-      <c r="I140" s="57" t="n"/>
-      <c r="J140" s="58" t="n"/>
-    </row>
-    <row r="141" spans="1:22">
-      <c r="B141" s="7" t="n"/>
-      <c r="C141" s="7" t="n"/>
-      <c r="D141" s="7" t="n"/>
-      <c r="E141" s="7" t="n"/>
-      <c r="F141" s="7" t="n"/>
-      <c r="G141" s="7" t="n"/>
-    </row>
-    <row r="142" spans="1:22">
-      <c r="B142" s="7" t="n"/>
-      <c r="C142" s="7" t="n"/>
-      <c r="D142" s="7" t="n"/>
-      <c r="E142" s="7" t="n"/>
-      <c r="F142" s="7" t="n"/>
-      <c r="G142" s="7" t="n"/>
-      <c r="H142" s="52" t="n"/>
-      <c r="I142" s="52" t="n"/>
-      <c r="J142" s="52" t="n"/>
-    </row>
-    <row r="143" spans="1:22">
-      <c r="B143" s="7" t="n"/>
-      <c r="C143" s="7" t="n"/>
-      <c r="D143" s="7" t="n"/>
-      <c r="E143" s="7" t="n"/>
-      <c r="F143" s="7" t="n"/>
-      <c r="G143" s="7" t="n"/>
-      <c r="H143" s="52" t="n"/>
-      <c r="I143" s="52" t="n"/>
-      <c r="J143" s="52" t="n"/>
-    </row>
-    <row r="144" spans="1:22">
-      <c r="B144" s="7" t="n"/>
-      <c r="C144" s="7" t="n"/>
-      <c r="D144" s="7" t="n"/>
-      <c r="E144" s="7" t="n"/>
-      <c r="F144" s="7" t="n"/>
-      <c r="G144" s="7" t="n"/>
-      <c r="H144" s="52" t="n"/>
-      <c r="I144" s="52" t="n"/>
-      <c r="J144" s="52" t="n"/>
-    </row>
-    <row r="145" spans="1:22">
-      <c r="B145" s="7" t="n"/>
-      <c r="C145" s="7" t="n"/>
-      <c r="D145" s="7" t="n"/>
-      <c r="E145" s="7" t="n"/>
-      <c r="F145" s="7" t="n"/>
-      <c r="G145" s="7" t="n"/>
-      <c r="H145" s="52" t="n"/>
-      <c r="I145" s="52" t="n"/>
-      <c r="J145" s="52" t="n"/>
-    </row>
-    <row r="146" spans="1:22">
-      <c r="B146" s="7" t="n"/>
-      <c r="C146" s="7" t="n"/>
-      <c r="D146" s="7" t="n"/>
-      <c r="E146" s="7" t="n"/>
-      <c r="F146" s="7" t="n"/>
-      <c r="G146" s="7" t="n"/>
-      <c r="H146" s="52" t="n"/>
-      <c r="I146" s="52" t="n"/>
-      <c r="J146" s="52" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="147" s="90" spans="1:22" thickBot="1">
-      <c r="B147" s="7" t="n"/>
-      <c r="C147" s="7" t="n"/>
-      <c r="D147" s="7" t="n"/>
-      <c r="E147" s="7" t="n"/>
-      <c r="F147" s="7" t="n"/>
-      <c r="G147" s="7" t="n"/>
-      <c r="H147" s="52" t="n"/>
-      <c r="I147" s="52" t="n"/>
-      <c r="J147" s="52" t="n"/>
-    </row>
-    <row r="148" spans="1:22">
-      <c r="B148" s="112" t="s">
+      <c r="G140" s="35"/>
+      <c r="H140" s="56"/>
+      <c r="I140" s="57"/>
+      <c r="J140" s="58"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="52"/>
+      <c r="I142" s="52"/>
+      <c r="J142" s="52"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="52"/>
+      <c r="I143" s="52"/>
+      <c r="J143" s="52"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B144" s="7"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="52"/>
+      <c r="I144" s="52"/>
+      <c r="J144" s="52"/>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="52"/>
+      <c r="I145" s="52"/>
+      <c r="J145" s="52"/>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146" s="7"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="52"/>
+      <c r="I146" s="52"/>
+      <c r="J146" s="52"/>
+    </row>
+    <row r="147" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="52"/>
+      <c r="I147" s="52"/>
+      <c r="J147" s="52"/>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B148" s="109" t="s">
         <v>154</v>
       </c>
-      <c r="G148" s="7" t="n"/>
-      <c r="H148" s="54" t="n"/>
-      <c r="I148" s="54" t="n"/>
-      <c r="J148" s="54" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="149" s="90" spans="1:22" thickBot="1">
-      <c r="G149" s="7" t="n"/>
-      <c r="H149" s="52" t="n"/>
-      <c r="I149" s="52" t="n"/>
-      <c r="J149" s="52" t="n"/>
-    </row>
-    <row r="150" spans="1:22">
-      <c r="B150" s="7" t="n"/>
-      <c r="C150" s="7" t="n"/>
-      <c r="D150" s="7" t="n"/>
-      <c r="E150" s="7" t="n"/>
-      <c r="F150" s="7" t="n"/>
-      <c r="G150" s="7" t="n"/>
-      <c r="H150" s="52" t="n"/>
-      <c r="I150" s="52" t="n"/>
-      <c r="J150" s="52" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="151" s="90" spans="1:22" thickBot="1">
-      <c r="B151" s="7" t="n"/>
-      <c r="C151" s="7" t="n"/>
-      <c r="D151" s="7" t="n"/>
-      <c r="E151" s="7" t="n"/>
-      <c r="F151" s="7" t="n"/>
-      <c r="G151" s="7" t="n"/>
-      <c r="H151" s="54" t="n"/>
-      <c r="I151" s="54" t="n"/>
-      <c r="J151" s="54" t="n"/>
-    </row>
-    <row r="152" spans="1:22">
-      <c r="B152" s="36" t="n"/>
-      <c r="C152" s="100" t="n"/>
-      <c r="D152" s="111" t="s">
+      <c r="C148" s="96"/>
+      <c r="D148" s="96"/>
+      <c r="E148" s="97"/>
+      <c r="F148" s="97"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="54"/>
+      <c r="I148" s="54"/>
+      <c r="J148" s="54"/>
+    </row>
+    <row r="149" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="96"/>
+      <c r="C149" s="96"/>
+      <c r="D149" s="96"/>
+      <c r="E149" s="97"/>
+      <c r="F149" s="97"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="52"/>
+      <c r="I149" s="52"/>
+      <c r="J149" s="52"/>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B150" s="7"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="52"/>
+      <c r="I150" s="52"/>
+      <c r="J150" s="52"/>
+    </row>
+    <row r="151" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="54"/>
+      <c r="I151" s="54"/>
+      <c r="J151" s="54"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B152" s="36"/>
+      <c r="C152" s="84"/>
+      <c r="D152" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="F152" s="100" t="n"/>
-      <c r="G152" s="100" t="n"/>
-      <c r="H152" s="60" t="n"/>
-      <c r="I152" s="60" t="n"/>
-      <c r="J152" s="61" t="n"/>
-    </row>
-    <row r="153" spans="1:22">
-      <c r="B153" s="110" t="s">
+      <c r="E152" s="97"/>
+      <c r="F152" s="84"/>
+      <c r="G152" s="84"/>
+      <c r="H152" s="60"/>
+      <c r="I152" s="60"/>
+      <c r="J152" s="61"/>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B153" s="107" t="s">
         <v>156</v>
       </c>
-      <c r="H153" s="54" t="n"/>
-      <c r="I153" s="54" t="n"/>
-      <c r="J153" s="55" t="n"/>
-    </row>
-    <row r="154" spans="1:22">
-      <c r="B154" s="33" t="n"/>
-      <c r="C154" s="7" t="n"/>
-      <c r="D154" s="7" t="n"/>
-      <c r="E154" s="7" t="n"/>
-      <c r="F154" s="7" t="n"/>
-      <c r="G154" s="7" t="n"/>
-      <c r="H154" s="54" t="n"/>
-      <c r="I154" s="54" t="n"/>
-      <c r="J154" s="55" t="n"/>
-    </row>
-    <row r="155" spans="1:22">
+      <c r="C153" s="96"/>
+      <c r="D153" s="96"/>
+      <c r="E153" s="97"/>
+      <c r="F153" s="97"/>
+      <c r="H153" s="54"/>
+      <c r="I153" s="54"/>
+      <c r="J153" s="55"/>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B154" s="33"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="54"/>
+      <c r="I154" s="54"/>
+      <c r="J154" s="55"/>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B155" s="33" t="s">
         <v>102</v>
       </c>
@@ -5308,12 +5409,12 @@
       <c r="F155" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="G155" s="76" t="n"/>
-      <c r="H155" s="54" t="n"/>
-      <c r="I155" s="54" t="n"/>
-      <c r="J155" s="55" t="n"/>
-    </row>
-    <row r="156" spans="1:22">
+      <c r="G155" s="76"/>
+      <c r="H155" s="54"/>
+      <c r="I155" s="54"/>
+      <c r="J155" s="55"/>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B156" s="33" t="s">
         <v>122</v>
       </c>
@@ -5329,147 +5430,147 @@
       <c r="F156" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G156" s="7" t="n"/>
-      <c r="H156" s="54" t="n"/>
-      <c r="I156" s="54" t="n"/>
-      <c r="J156" s="55" t="n"/>
-    </row>
-    <row r="157" spans="1:22">
-      <c r="B157" s="33" t="n"/>
-      <c r="C157" s="7" t="n"/>
-      <c r="D157" s="7" t="n"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="54"/>
+      <c r="I156" s="54"/>
+      <c r="J156" s="55"/>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B157" s="33"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
       <c r="E157" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F157" s="7" t="n">
+      <c r="F157" s="7">
         <v>0</v>
       </c>
-      <c r="G157" s="7" t="n"/>
-      <c r="H157" s="54" t="n"/>
-      <c r="I157" s="54" t="n"/>
-      <c r="J157" s="55" t="n"/>
-    </row>
-    <row r="158" spans="1:22">
-      <c r="B158" s="33" t="n"/>
-      <c r="C158" s="7" t="n"/>
-      <c r="D158" s="7" t="n"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="54"/>
+      <c r="I157" s="54"/>
+      <c r="J157" s="55"/>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B158" s="33"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
       <c r="E158" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F158" s="7" t="n">
+      <c r="F158" s="7">
         <v>35</v>
       </c>
-      <c r="G158" s="7" t="n"/>
-      <c r="H158" s="54" t="n"/>
-      <c r="I158" s="54" t="n"/>
-      <c r="J158" s="55" t="n"/>
-    </row>
-    <row r="159" spans="1:22">
-      <c r="B159" s="33" t="n"/>
-      <c r="C159" s="7" t="n"/>
-      <c r="D159" s="7" t="n"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="54"/>
+      <c r="I158" s="54"/>
+      <c r="J158" s="55"/>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B159" s="33"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
       <c r="E159" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F159" s="7" t="n">
+      <c r="F159" s="7">
         <v>15</v>
       </c>
-      <c r="G159" s="7" t="n"/>
-      <c r="H159" s="54" t="n"/>
-      <c r="I159" s="54" t="n"/>
-      <c r="J159" s="55" t="n"/>
-    </row>
-    <row r="160" spans="1:22">
-      <c r="B160" s="33" t="n"/>
-      <c r="C160" s="7" t="n"/>
-      <c r="D160" s="7" t="n"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="54"/>
+      <c r="I159" s="54"/>
+      <c r="J159" s="55"/>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B160" s="33"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
       <c r="E160" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F160" s="7" t="n">
+      <c r="F160" s="7">
         <v>249</v>
       </c>
-      <c r="G160" s="7" t="n"/>
-      <c r="H160" s="54" t="n"/>
-      <c r="I160" s="54" t="n"/>
-      <c r="J160" s="55" t="n"/>
-    </row>
-    <row r="161" spans="1:22">
-      <c r="B161" s="33" t="n"/>
-      <c r="C161" s="7" t="n"/>
-      <c r="D161" s="7" t="n"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="54"/>
+      <c r="I160" s="54"/>
+      <c r="J160" s="55"/>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B161" s="33"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
       <c r="E161" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F161" s="7" t="n">
+      <c r="F161" s="7">
         <v>3</v>
       </c>
-      <c r="G161" s="7" t="n"/>
-      <c r="H161" s="54" t="n"/>
-      <c r="I161" s="54" t="n"/>
-      <c r="J161" s="55" t="n"/>
-    </row>
-    <row r="162" spans="1:22">
-      <c r="B162" s="33" t="n"/>
-      <c r="C162" s="7" t="n"/>
-      <c r="D162" s="7" t="n"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="54"/>
+      <c r="I161" s="54"/>
+      <c r="J161" s="55"/>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B162" s="33"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
       <c r="E162" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F162" s="7" t="n">
+      <c r="F162" s="7">
         <v>10</v>
       </c>
-      <c r="G162" s="7" t="n"/>
-      <c r="H162" s="54" t="n"/>
-      <c r="I162" s="54" t="n"/>
-      <c r="J162" s="55" t="n"/>
-    </row>
-    <row r="163" spans="1:22">
-      <c r="B163" s="33" t="n"/>
-      <c r="C163" s="7" t="n"/>
-      <c r="D163" s="7" t="n"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="54"/>
+      <c r="I162" s="54"/>
+      <c r="J162" s="55"/>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B163" s="33"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
       <c r="E163" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F163" s="7" t="n">
+      <c r="F163" s="7">
         <v>10</v>
       </c>
-      <c r="G163" s="7" t="n"/>
-      <c r="H163" s="54" t="n"/>
-      <c r="I163" s="54" t="n"/>
-      <c r="J163" s="55" t="n"/>
-    </row>
-    <row r="164" spans="1:22">
-      <c r="B164" s="33" t="n"/>
-      <c r="C164" s="7" t="n"/>
-      <c r="D164" s="7" t="n"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="54"/>
+      <c r="I163" s="54"/>
+      <c r="J163" s="55"/>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B164" s="33"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
       <c r="E164" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F164" s="7" t="n">
+      <c r="F164" s="7">
         <v>400</v>
       </c>
-      <c r="G164" s="7" t="n"/>
-      <c r="H164" s="54" t="n"/>
-      <c r="I164" s="54" t="n"/>
-      <c r="J164" s="55" t="n"/>
-    </row>
-    <row r="165" spans="1:22">
-      <c r="B165" s="33" t="n"/>
-      <c r="C165" s="7" t="n"/>
-      <c r="D165" s="7" t="n"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="54"/>
+      <c r="I164" s="54"/>
+      <c r="J164" s="55"/>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B165" s="33"/>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
       <c r="E165" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F165" s="7" t="n">
+      <c r="F165" s="7">
         <v>400</v>
       </c>
-      <c r="G165" s="7" t="n"/>
-      <c r="H165" s="54" t="n"/>
-      <c r="I165" s="54" t="n"/>
-      <c r="J165" s="55" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="166" s="90" spans="1:22" thickBot="1">
+      <c r="G165" s="7"/>
+      <c r="H165" s="54"/>
+      <c r="I165" s="54"/>
+      <c r="J165" s="55"/>
+    </row>
+    <row r="166" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B166" s="34" t="s">
         <v>29</v>
       </c>
@@ -5485,75 +5586,99 @@
       <c r="F166" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="G166" s="35" t="n"/>
-      <c r="H166" s="56" t="n"/>
-      <c r="I166" s="57" t="n"/>
-      <c r="J166" s="58" t="n"/>
-    </row>
-    <row r="167" spans="1:22">
-      <c r="B167" s="7" t="n"/>
-      <c r="C167" s="7" t="n"/>
-      <c r="D167" s="7" t="n"/>
-      <c r="E167" s="7" t="n"/>
-      <c r="F167" s="7" t="n"/>
-      <c r="G167" s="7" t="n"/>
-      <c r="H167" s="52" t="n"/>
-      <c r="I167" s="52" t="n"/>
-      <c r="J167" s="52" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="168" s="90" spans="1:22" thickBot="1">
-      <c r="B168" s="7" t="n"/>
-      <c r="C168" s="7" t="n"/>
-      <c r="D168" s="7" t="n"/>
-      <c r="E168" s="7" t="n"/>
-      <c r="F168" s="7" t="n"/>
-      <c r="G168" s="7" t="n"/>
-      <c r="H168" s="52" t="n"/>
-      <c r="I168" s="52" t="n"/>
-      <c r="J168" s="52" t="n"/>
-    </row>
-    <row r="169" spans="1:22">
-      <c r="B169" s="102" t="s">
+      <c r="G166" s="35"/>
+      <c r="H166" s="56"/>
+      <c r="I166" s="57"/>
+      <c r="J166" s="58"/>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B167" s="7"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="52"/>
+      <c r="I167" s="52"/>
+      <c r="J167" s="52"/>
+    </row>
+    <row r="168" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="7"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="52"/>
+      <c r="I168" s="52"/>
+      <c r="J168" s="52"/>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B169" s="95" t="s">
         <v>174</v>
       </c>
-      <c r="G169" s="48" t="n"/>
-      <c r="H169" s="54" t="n"/>
-      <c r="I169" s="54" t="n"/>
-      <c r="J169" s="54" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="170" s="90" spans="1:22" thickBot="1">
-      <c r="G170" s="48" t="n"/>
-      <c r="H170" s="47" t="n"/>
-      <c r="I170" s="47" t="n"/>
-      <c r="J170" s="47" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="171" s="90" spans="1:22" thickBot="1"/>
-    <row r="172" spans="1:22">
-      <c r="B172" s="102" t="s">
+      <c r="C169" s="96"/>
+      <c r="D169" s="96"/>
+      <c r="E169" s="97"/>
+      <c r="F169" s="97"/>
+      <c r="G169" s="48"/>
+      <c r="H169" s="54"/>
+      <c r="I169" s="54"/>
+      <c r="J169" s="54"/>
+    </row>
+    <row r="170" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="96"/>
+      <c r="C170" s="96"/>
+      <c r="D170" s="96"/>
+      <c r="E170" s="97"/>
+      <c r="F170" s="97"/>
+      <c r="G170" s="48"/>
+      <c r="H170" s="47"/>
+      <c r="I170" s="47"/>
+      <c r="J170" s="47"/>
+    </row>
+    <row r="171" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B172" s="95" t="s">
         <v>175</v>
       </c>
-      <c r="G172" s="48" t="n"/>
-      <c r="H172" s="54" t="n"/>
-      <c r="I172" s="54" t="n"/>
-      <c r="J172" s="54" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="173" s="90" spans="1:22" thickBot="1">
-      <c r="G173" s="48" t="n"/>
-      <c r="H173" s="47" t="n"/>
-      <c r="I173" s="47" t="n"/>
-      <c r="J173" s="47" t="n"/>
-    </row>
-    <row r="177" spans="1:22">
-      <c r="B177" s="2" t="n"/>
-    </row>
-    <row r="178" spans="1:22">
-      <c r="B178" s="2" t="n"/>
-    </row>
-    <row r="179" spans="1:22">
-      <c r="B179" s="2" t="n"/>
+      <c r="C172" s="96"/>
+      <c r="D172" s="96"/>
+      <c r="E172" s="97"/>
+      <c r="F172" s="97"/>
+      <c r="G172" s="48"/>
+      <c r="H172" s="54"/>
+      <c r="I172" s="54"/>
+      <c r="J172" s="54"/>
+    </row>
+    <row r="173" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="96"/>
+      <c r="C173" s="96"/>
+      <c r="D173" s="96"/>
+      <c r="E173" s="97"/>
+      <c r="F173" s="97"/>
+      <c r="G173" s="48"/>
+      <c r="H173" s="47"/>
+      <c r="I173" s="47"/>
+      <c r="J173" s="47"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" s="2"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178" s="2"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="C76:E78"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D13:D16"/>
     <mergeCell ref="B172:F173"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="D24:D27"/>
@@ -5568,550 +5693,536 @@
     <mergeCell ref="D152:E152"/>
     <mergeCell ref="B148:F149"/>
     <mergeCell ref="D125:E125"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="C76:E78"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D13:D16"/>
   </mergeCells>
   <conditionalFormatting sqref="B3 H133:H134 J133:J134">
-    <cfRule dxfId="1" operator="lessThan" priority="186" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="208" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="120" priority="186" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="208" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:F57">
-    <cfRule dxfId="1" operator="lessThan" priority="206" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="118" priority="206" stopIfTrue="1" operator="lessThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:F59">
-    <cfRule dxfId="1" operator="lessThan" priority="205" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="117" priority="205" stopIfTrue="1" operator="lessThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:F61">
-    <cfRule dxfId="1" operator="lessThan" priority="204" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="116" priority="204" stopIfTrue="1" operator="lessThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:F63">
-    <cfRule dxfId="1" operator="lessThan" priority="203" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="115" priority="203" stopIfTrue="1" operator="lessThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule dxfId="1" operator="lessThan" priority="164" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="165" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="114" priority="164" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="165" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule dxfId="1" operator="lessThan" priority="162" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="163" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="112" priority="162" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="163" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule dxfId="1" operator="lessThan" priority="160" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="161" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="110" priority="160" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="161" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule dxfId="1" operator="lessThan" priority="158" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="159" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="108" priority="158" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="159" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J136:J137 J148">
-    <cfRule dxfId="1" operator="lessThan" priority="74" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="75" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="106" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="75" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J155:J166">
-    <cfRule dxfId="1" operator="lessThan" priority="70" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="71" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="104" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="71" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J140">
-    <cfRule dxfId="1" operator="lessThan" priority="66" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="67" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="102" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="67" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H37">
-    <cfRule dxfId="1" operator="lessThan" priority="140" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="141" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="100" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="141" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:J37">
-    <cfRule dxfId="1" operator="lessThan" priority="138" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="139" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="98" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="139" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule dxfId="1" operator="lessThan" priority="136" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="137" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="96" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="137" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:H43">
-    <cfRule dxfId="1" operator="lessThan" priority="134" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="135" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="94" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="135" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule dxfId="1" operator="lessThan" priority="132" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="133" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="92" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="133" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule dxfId="1" operator="lessThan" priority="130" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="131" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="90" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="131" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42:J43">
-    <cfRule dxfId="1" operator="lessThan" priority="128" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="129" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="88" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="129" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule dxfId="1" operator="lessThan" priority="126" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="127" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="86" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="127" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67:H74 H76">
-    <cfRule dxfId="1" operator="lessThan" priority="124" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="125" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="84" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="125" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J67:J74 J76">
-    <cfRule dxfId="1" operator="lessThan" priority="122" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="123" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="82" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="123" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule dxfId="1" operator="lessThan" priority="120" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="121" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="80" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="121" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H140">
-    <cfRule dxfId="1" operator="lessThan" priority="68" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="69" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="78" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="69" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule dxfId="1" operator="lessThan" priority="110" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="111" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="76" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="111" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82">
-    <cfRule dxfId="1" operator="lessThan" priority="108" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="109" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="74" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="109" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86:H92">
-    <cfRule dxfId="1" operator="lessThan" priority="106" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="107" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="72" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="107" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J86:J92">
-    <cfRule dxfId="1" operator="lessThan" priority="104" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="105" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="70" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="105" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J96:J106">
-    <cfRule dxfId="1" operator="lessThan" priority="96" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="97" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="68" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="97" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126">
-    <cfRule dxfId="1" operator="lessThan" priority="90" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="91" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="66" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="91" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J126">
-    <cfRule dxfId="1" operator="lessThan" priority="88" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="89" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="64" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="89" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129:H131">
-    <cfRule dxfId="1" operator="lessThan" priority="86" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="87" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="62" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="87" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136:H137 H148">
-    <cfRule dxfId="1" operator="lessThan" priority="80" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="81" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="60" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="81" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J129:J131">
-    <cfRule dxfId="1" operator="lessThan" priority="78" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="79" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="58" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="79" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H155:H166">
-    <cfRule dxfId="1" operator="lessThan" priority="72" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="73" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="56" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="73" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J169">
-    <cfRule dxfId="1" operator="lessThan" priority="62" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="63" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="54" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="63" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169">
-    <cfRule dxfId="1" operator="lessThan" priority="64" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="65" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="52" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="65" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule dxfId="50" operator="containsText" priority="60" stopIfTrue="1" text="Config Name Greater Than 8 Characters" type="containsText">
+    <cfRule type="containsText" dxfId="50" priority="60" stopIfTrue="1" operator="containsText" text="Config Name Greater Than 8 Characters">
       <formula>NOT(ISERROR(SEARCH("Config Name Greater Than 8 Characters",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121:H122">
-    <cfRule dxfId="1" operator="lessThan" priority="57" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="58" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="49" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="58" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J121:J122">
-    <cfRule dxfId="1" operator="lessThan" priority="55" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="56" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="47" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="56" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86:D92">
-    <cfRule dxfId="1" operator="lessThan" priority="53" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="54" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="45" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="54" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:D106">
-    <cfRule dxfId="1" operator="lessThan" priority="51" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="52" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="43" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="52" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86:E92">
-    <cfRule dxfId="1" operator="lessThan" priority="49" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="50" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="41" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="50" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96:E106">
-    <cfRule dxfId="1" operator="lessThan" priority="47" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="48" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="39" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="48" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96:H106">
-    <cfRule dxfId="1" operator="lessThan" priority="45" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="46" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="37" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="46" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule dxfId="1" operator="lessThan" priority="43" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="44" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="35" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="44" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule dxfId="1" operator="lessThan" priority="41" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="42" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="33" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="42" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J172">
-    <cfRule dxfId="1" operator="lessThan" priority="29" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="30" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="31" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="30" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H172">
-    <cfRule dxfId="1" operator="lessThan" priority="31" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="32" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="29" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="32" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J30">
-    <cfRule dxfId="1" operator="lessThan" priority="7" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="8" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="27" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H30">
-    <cfRule dxfId="1" operator="lessThan" priority="27" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="28" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="25" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="28" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:J27">
-    <cfRule dxfId="1" operator="lessThan" priority="25" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="26" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="23" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="26" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:J19">
-    <cfRule dxfId="1" operator="lessThan" priority="21" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="22" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="21" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E19">
-    <cfRule dxfId="1" operator="lessThan" priority="19" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="20" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="19" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H19">
-    <cfRule dxfId="1" operator="lessThan" priority="23" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="24" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="17" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="24" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F19">
-    <cfRule dxfId="1" operator="lessThan" priority="15" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="16" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule dxfId="1" operator="lessThan" priority="17" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="18" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="13" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E30">
-    <cfRule dxfId="1" operator="lessThan" priority="13" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="14" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="11" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F30">
-    <cfRule dxfId="1" operator="lessThan" priority="9" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="10" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule dxfId="1" operator="lessThan" priority="11" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="12" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J108">
-    <cfRule dxfId="1" operator="lessThan" priority="5" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="6" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule dxfId="1" operator="lessThan" priority="3" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="4" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L121:L122">
-    <cfRule dxfId="1" operator="lessThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E12:E30" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E12:E30">
       <formula1>$L$13:$L$18</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions gridLines="1"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" scale="59"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="portrait"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12D20 CONFIGURATION SETTINGS_x000a_&amp;A</oddHeader>
+    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12D20 CONFIGURATION SETTINGS
+&amp;A</oddHeader>
     <oddFooter>&amp;L&amp;F&amp;C&amp;P of &amp;N&amp;R&amp;D</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="C2:F91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="40" width="8.88671875"/>
-    <col customWidth="1" max="3" min="3" style="40" width="4.88671875"/>
-    <col customWidth="1" max="4" min="4" style="40" width="34.5546875"/>
-    <col customWidth="1" max="5" min="5" style="40" width="31.5546875"/>
-    <col customWidth="1" max="6" min="6" style="40" width="34.109375"/>
-    <col customWidth="1" max="10" min="7" style="40" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="11" style="40" width="8.88671875"/>
+    <col min="1" max="2" width="8.88671875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" style="40" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" style="40" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" style="40" customWidth="1"/>
+    <col min="7" max="11" width="8.88671875" style="40" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="40"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E2" s="41" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D4" s="40" t="s">
         <v>177</v>
       </c>
@@ -6122,11 +6233,11 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="E5" s="42" t="n"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="C6" s="40" t="n">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="42"/>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="40">
         <v>1</v>
       </c>
       <c r="D6" s="40" t="s">
@@ -6139,8 +6250,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="C7" s="40" t="n">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="40">
         <v>2</v>
       </c>
       <c r="D7" s="40" t="s">
@@ -6153,8 +6264,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="C8" s="40" t="n">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="40">
         <v>3</v>
       </c>
       <c r="D8" s="40" t="s">
@@ -6167,8 +6278,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="C9" s="40" t="n">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="40">
         <v>4</v>
       </c>
       <c r="D9" s="40" t="s">
@@ -6181,8 +6292,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="C10" s="40" t="n">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="40">
         <v>5</v>
       </c>
       <c r="D10" s="40" t="s">
@@ -6195,8 +6306,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="C11" s="40" t="n">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="40">
         <v>6</v>
       </c>
       <c r="E11" s="40" t="s">
@@ -6206,8 +6317,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="C12" s="40" t="n">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="40">
         <v>7</v>
       </c>
       <c r="E12" s="40" t="s">
@@ -6217,8 +6328,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="C13" s="40" t="n">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="40">
         <v>8</v>
       </c>
       <c r="E13" s="40" t="s">
@@ -6228,8 +6339,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="C14" s="40" t="n">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="40">
         <v>9</v>
       </c>
       <c r="E14" s="40" t="s">
@@ -6239,8 +6350,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="C15" s="40" t="n">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="40">
         <v>10</v>
       </c>
       <c r="E15" s="40" t="s">
@@ -6250,8 +6361,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="C16" s="40" t="n">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="40">
         <v>11</v>
       </c>
       <c r="E16" s="40" t="s">
@@ -6261,8 +6372,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="C17" s="40" t="n">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="40">
         <v>12</v>
       </c>
       <c r="E17" s="40" t="s">
@@ -6272,8 +6383,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="C18" s="40" t="n">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="40">
         <v>13</v>
       </c>
       <c r="E18" s="40" t="s">
@@ -6283,8 +6394,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="C19" s="40" t="n">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="40">
         <v>14</v>
       </c>
       <c r="E19" s="40" t="s">
@@ -6294,8 +6405,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="C20" s="40" t="n">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="40">
         <v>15</v>
       </c>
       <c r="E20" s="40" t="s">
@@ -6305,8 +6416,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="C21" s="40" t="n">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="40">
         <v>16</v>
       </c>
       <c r="E21" s="40" t="s">
@@ -6316,148 +6427,148 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="C22" s="40" t="n">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="40">
         <v>17</v>
       </c>
       <c r="F22" s="40" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="C23" s="40" t="n">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="40">
         <v>18</v>
       </c>
       <c r="F23" s="40" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="C24" s="40" t="n">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="40">
         <v>19</v>
       </c>
       <c r="F24" s="40" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="E26" s="41" t="n"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="E27" s="41" t="n"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="C71" s="43" t="n"/>
-      <c r="D71" s="43" t="n"/>
-      <c r="E71" s="43" t="n"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="C72" s="43" t="n"/>
-      <c r="D72" s="44" t="n"/>
-      <c r="E72" s="43" t="n"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="C73" s="43" t="n"/>
-      <c r="D73" s="44" t="n"/>
-      <c r="E73" s="44" t="n"/>
-      <c r="F73" s="42" t="n"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="C74" s="43" t="n"/>
-      <c r="D74" s="44" t="n"/>
-      <c r="E74" s="44" t="n"/>
-      <c r="F74" s="42" t="n"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="C75" s="43" t="n"/>
-      <c r="D75" s="44" t="n"/>
-      <c r="E75" s="44" t="n"/>
-      <c r="F75" s="42" t="n"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="C76" s="43" t="n"/>
-      <c r="D76" s="44" t="n"/>
-      <c r="E76" s="44" t="n"/>
-      <c r="F76" s="42" t="n"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="C77" s="43" t="n"/>
-      <c r="D77" s="44" t="n"/>
-      <c r="E77" s="44" t="n"/>
-      <c r="F77" s="42" t="n"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="C78" s="43" t="n"/>
-      <c r="D78" s="44" t="n"/>
-      <c r="F78" s="42" t="n"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="C79" s="43" t="n"/>
-      <c r="D79" s="44" t="n"/>
-      <c r="F79" s="42" t="n"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="C80" s="43" t="n"/>
-      <c r="D80" s="44" t="n"/>
-      <c r="F80" s="42" t="n"/>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="C81" s="43" t="n"/>
-      <c r="D81" s="44" t="n"/>
-      <c r="F81" s="42" t="n"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="C82" s="43" t="n"/>
-      <c r="D82" s="44" t="n"/>
-      <c r="F82" s="42" t="n"/>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="C83" s="43" t="n"/>
-      <c r="D83" s="44" t="n"/>
-      <c r="F83" s="42" t="n"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="C84" s="43" t="n"/>
-      <c r="D84" s="44" t="n"/>
-      <c r="F84" s="42" t="n"/>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="C85" s="43" t="n"/>
-      <c r="D85" s="44" t="n"/>
-      <c r="F85" s="42" t="n"/>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="C86" s="43" t="n"/>
-      <c r="D86" s="44" t="n"/>
-      <c r="F86" s="42" t="n"/>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="C87" s="43" t="n"/>
-      <c r="D87" s="44" t="n"/>
-      <c r="F87" s="42" t="n"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="C88" s="43" t="n"/>
-      <c r="D88" s="44" t="n"/>
-      <c r="F88" s="42" t="n"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="C89" s="43" t="n"/>
-      <c r="D89" s="44" t="n"/>
-      <c r="F89" s="42" t="n"/>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="C90" s="43" t="n"/>
-      <c r="D90" s="44" t="n"/>
-      <c r="F90" s="42" t="n"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="C91" s="43" t="n"/>
-      <c r="D91" s="44" t="n"/>
-      <c r="F91" s="42" t="n"/>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E26" s="41"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E27" s="41"/>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C72" s="43"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="43"/>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C73" s="43"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="42"/>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C74" s="43"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="42"/>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C75" s="43"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="42"/>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C76" s="43"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="42"/>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C77" s="43"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="42"/>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C78" s="43"/>
+      <c r="D78" s="44"/>
+      <c r="F78" s="42"/>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C79" s="43"/>
+      <c r="D79" s="44"/>
+      <c r="F79" s="42"/>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C80" s="43"/>
+      <c r="D80" s="44"/>
+      <c r="F80" s="42"/>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C81" s="43"/>
+      <c r="D81" s="44"/>
+      <c r="F81" s="42"/>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C82" s="43"/>
+      <c r="D82" s="44"/>
+      <c r="F82" s="42"/>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C83" s="43"/>
+      <c r="D83" s="44"/>
+      <c r="F83" s="42"/>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C84" s="43"/>
+      <c r="D84" s="44"/>
+      <c r="F84" s="42"/>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C85" s="43"/>
+      <c r="D85" s="44"/>
+      <c r="F85" s="42"/>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C86" s="43"/>
+      <c r="D86" s="44"/>
+      <c r="F86" s="42"/>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C87" s="43"/>
+      <c r="D87" s="44"/>
+      <c r="F87" s="42"/>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C88" s="43"/>
+      <c r="D88" s="44"/>
+      <c r="F88" s="42"/>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C89" s="43"/>
+      <c r="D89" s="44"/>
+      <c r="F89" s="42"/>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C90" s="43"/>
+      <c r="D90" s="44"/>
+      <c r="F90" s="42"/>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C91" s="43"/>
+      <c r="D91" s="44"/>
+      <c r="F91" s="42"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/Example D20 XML/FE D20 M++ QC Doc Rev 3.xlsx
+++ b/Example D20 XML/FE D20 M++ QC Doc Rev 3.xlsx
@@ -1,31 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clbishop\Documents\GitHub\FE-D20_Checker\Example D20 XML\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8172" windowHeight="0" activeTab="1"/>
+    <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="General" sheetId="1" r:id="rId1"/>
-    <sheet name="D20++ QC Doc" sheetId="2" r:id="rId2"/>
-    <sheet name="ME++ Pseudo points" sheetId="3" r:id="rId3"/>
+    <sheet name="General" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="D20++ QC Doc" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ME++ Pseudo points" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'D20++ QC Doc'!$B$1:$J$173</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'D20++ QC Doc'!$8:$8</definedName>
+    <definedName localSheetId="1" name="_xlnm.Print_Titles">'D20++ QC Doc'!$8:$8</definedName>
+    <definedName localSheetId="1" name="_xlnm.Print_Area">'D20++ QC Doc'!$B$1:$J$173</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
   <si>
     <t>D20 ME,  MEII and MX QC Document</t>
   </si>
@@ -690,100 +684,100 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt formatCode="m/d/yy;@" numFmtId="164"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
+      <name val="Arial"/>
       <sz val="10"/>
-      <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="single"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <sz val="10"/>
+      <u val="single"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <sz val="14"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="55"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="55"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
+      <sz val="16"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="18"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="18"/>
+      <u val="single"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color indexed="10"/>
+      <sz val="8"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="8"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1099,332 +1093,332 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="116">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="18" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="19" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="13" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="22" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="22" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="23" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
@@ -2637,15 +2631,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -2945,170 +2931,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A7:J20"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="7" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row customHeight="1" ht="21" r="7" s="91" spans="1:10" thickBot="1">
       <c r="B7" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I7" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="18.75" r="11" s="91" spans="1:10" thickBot="1">
       <c r="D11" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customHeight="1" ht="12.75" r="13" s="91" spans="1:10">
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="94" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
       <c r="J13" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="32.25" r="14" s="91" spans="1:10">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="27" t="n">
         <v>42494</v>
       </c>
       <c r="C14" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
       <c r="J14" s="74" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
+    <row customHeight="1" ht="32.25" r="15" s="91" spans="1:10">
+      <c r="A15" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="27" t="n">
         <v>42821</v>
       </c>
       <c r="C15" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
       <c r="J15" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
+    <row customHeight="1" ht="51.75" r="16" s="91" spans="1:10">
+      <c r="A16" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="27" t="n">
         <v>42838</v>
       </c>
       <c r="C16" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
       <c r="J16" s="74" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
+    <row customHeight="1" ht="48" r="17" s="91" spans="1:10">
+      <c r="A17" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="27" t="n">
         <v>42935</v>
       </c>
       <c r="C17" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
       <c r="J17" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="28"/>
-    </row>
-    <row r="19" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="28"/>
-    </row>
-    <row r="20" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="28"/>
+    <row customHeight="1" ht="32.25" r="18" s="91" spans="1:10">
+      <c r="A18" s="26" t="n"/>
+      <c r="B18" s="27" t="n"/>
+      <c r="C18" s="90" t="n"/>
+      <c r="J18" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="19" s="91" spans="1:10">
+      <c r="A19" s="26" t="n"/>
+      <c r="B19" s="27" t="n"/>
+      <c r="C19" s="90" t="n"/>
+      <c r="J19" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="42" r="20" s="91" spans="1:10">
+      <c r="A20" s="26" t="n"/>
+      <c r="B20" s="27" t="n"/>
+      <c r="C20" s="90" t="n"/>
+      <c r="J20" s="28" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3123,93 +3056,94 @@
     <mergeCell ref="C16:I16"/>
     <mergeCell ref="C17:I17"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.5" top="1"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet2">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:V179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A9" ySplit="8"/>
+      <selection activeCell="E114" pane="bottomLeft" sqref="E114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="22" style="85" customWidth="1"/>
-    <col min="3" max="3" width="18" style="85" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="85" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" style="81" customWidth="1"/>
-    <col min="6" max="6" width="31.109375" style="81" customWidth="1"/>
-    <col min="7" max="7" width="1.33203125" style="81" customWidth="1"/>
-    <col min="9" max="9" width="2.33203125" style="79" customWidth="1"/>
-    <col min="11" max="11" width="2.5546875" style="79" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="79" bestFit="1" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" style="96" width="22"/>
+    <col customWidth="1" max="3" min="3" style="96" width="18"/>
+    <col customWidth="1" max="4" min="4" style="96" width="24.6640625"/>
+    <col customWidth="1" max="5" min="5" style="97" width="25.6640625"/>
+    <col customWidth="1" max="6" min="6" style="97" width="31.109375"/>
+    <col customWidth="1" max="7" min="7" style="97" width="1.33203125"/>
+    <col customWidth="1" max="9" min="9" style="91" width="2.33203125"/>
+    <col customWidth="1" max="11" min="11" style="91" width="2.5546875"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="91" width="15.109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="1" ht="33.6" r="1" s="91" spans="1:22">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-    </row>
-    <row r="2" spans="1:22" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customHeight="1" ht="19.2" r="2" s="91" spans="1:22">
       <c r="B2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="30"/>
-    </row>
-    <row r="3" spans="1:22" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="54"/>
-      <c r="C3" s="82" t="str">
+      <c r="C2" s="30" t="n"/>
+    </row>
+    <row customHeight="1" ht="29.4" r="3" s="91" spans="1:22">
+      <c r="B3" s="54" t="n"/>
+      <c r="C3" s="112">
         <f>IF(LEN(B3)&lt;8, "Insert Substation Name in Cell B3", "" )</f>
-        <v>Insert Substation Name in Cell B3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="B5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="30" t="n"/>
       <c r="D5" s="29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="54"/>
-      <c r="C6" s="87" t="str">
+    <row customHeight="1" ht="49.95" r="6" s="91" spans="1:22">
+      <c r="B6" s="54" t="n"/>
+      <c r="C6" s="104">
         <f>IF(LEN(B6)&gt;8, "Config Name Greater Than 8 Characters", "Insert Config Name In Cell B6" )</f>
-        <v>Insert Config Name In Cell B6</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="87" t="str">
+        <v/>
+      </c>
+      <c r="D6" s="50" t="n"/>
+      <c r="E6" s="104">
         <f>IF(LEN(D6)&lt;8, "Paste Config Properties Revision Text in Cell D6", "" )</f>
-        <v>Paste Config Properties Revision Text in Cell D6</v>
+        <v/>
       </c>
       <c r="F6" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
+      <c r="H6" s="54" t="n"/>
+      <c r="I6" s="54" t="n"/>
+      <c r="J6" s="54" t="n"/>
       <c r="L6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-    </row>
-    <row r="8" spans="1:22" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
+      <c r="H7" s="97" t="n"/>
+      <c r="I7" s="97" t="n"/>
+      <c r="J7" s="97" t="n"/>
+    </row>
+    <row customFormat="1" r="8" s="101" spans="1:22">
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
@@ -3225,40 +3159,39 @@
       <c r="F8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="86" t="s">
+      <c r="G8" s="1" t="n"/>
+      <c r="H8" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86" t="s">
+      <c r="I8" s="103" t="n"/>
+      <c r="J8" s="103" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="78" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-    </row>
-    <row r="10" spans="1:22" s="78" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+    <row customFormat="1" customHeight="1" ht="13.5" r="9" s="101" spans="1:22" thickBot="1">
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="89" t="n"/>
+      <c r="G9" s="1" t="n"/>
+      <c r="H9" s="103" t="n"/>
+      <c r="I9" s="103" t="n"/>
+      <c r="J9" s="103" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.5" r="10" s="101" spans="1:22" thickBot="1">
+      <c r="B10" s="7" t="n"/>
+      <c r="C10" s="7" t="n"/>
+      <c r="D10" s="7" t="n"/>
       <c r="E10" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="101"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-    </row>
-    <row r="11" spans="1:22" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="7" t="n"/>
+      <c r="H10" s="51" t="n"/>
+      <c r="I10" s="51" t="n"/>
+      <c r="J10" s="51" t="n"/>
+    </row>
+    <row customFormat="1" r="11" s="99" spans="1:22">
       <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
@@ -3274,118 +3207,114 @@
       <c r="F11" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-    </row>
-    <row r="12" spans="1:22" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="71"/>
-      <c r="F12" s="72"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="V12" s="83" t="s">
+      <c r="G11" s="7" t="n"/>
+      <c r="H11" s="54" t="n"/>
+      <c r="I11" s="54" t="n"/>
+      <c r="J11" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="12" s="99" spans="1:22">
+      <c r="E12" s="71" t="n"/>
+      <c r="F12" s="72" t="n"/>
+      <c r="H12" s="54" t="n"/>
+      <c r="I12" s="54" t="n"/>
+      <c r="J12" s="54" t="n"/>
+      <c r="V12" s="99" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="83" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="13.2" r="13" s="99" spans="1:22">
       <c r="D13" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="72"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="L13" s="83" t="s">
+      <c r="E13" s="71" t="n"/>
+      <c r="F13" s="72" t="n"/>
+      <c r="H13" s="54" t="n"/>
+      <c r="I13" s="54" t="n"/>
+      <c r="J13" s="54" t="n"/>
+      <c r="L13" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="V13" s="83" t="s">
+      <c r="V13" s="99" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="99"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="72"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="L14" s="83" t="s">
+    <row customFormat="1" r="14" s="99" spans="1:22">
+      <c r="E14" s="71" t="n"/>
+      <c r="F14" s="72" t="n"/>
+      <c r="H14" s="54" t="n"/>
+      <c r="I14" s="54" t="n"/>
+      <c r="J14" s="54" t="n"/>
+      <c r="L14" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="V14" s="83" t="s">
+      <c r="V14" s="99" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="99"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="L15" s="83" t="s">
+    <row customFormat="1" r="15" s="99" spans="1:22">
+      <c r="E15" s="71" t="n"/>
+      <c r="F15" s="72" t="n"/>
+      <c r="H15" s="54" t="n"/>
+      <c r="I15" s="54" t="n"/>
+      <c r="J15" s="54" t="n"/>
+      <c r="L15" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="V15" s="83" t="s">
+      <c r="V15" s="99" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="99"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="L16" s="83" t="s">
+    <row customFormat="1" r="16" s="99" spans="1:22">
+      <c r="E16" s="71" t="n"/>
+      <c r="F16" s="72" t="n"/>
+      <c r="H16" s="54" t="n"/>
+      <c r="I16" s="54" t="n"/>
+      <c r="J16" s="54" t="n"/>
+      <c r="L16" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="V16" s="83" t="s">
+      <c r="V16" s="99" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="71"/>
-      <c r="F17" s="72"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="L17" s="83" t="s">
+    <row customFormat="1" r="17" s="99" spans="1:22">
+      <c r="E17" s="71" t="n"/>
+      <c r="F17" s="72" t="n"/>
+      <c r="H17" s="54" t="n"/>
+      <c r="I17" s="54" t="n"/>
+      <c r="J17" s="54" t="n"/>
+      <c r="L17" s="99" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="71"/>
-      <c r="F18" s="72"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-    </row>
-    <row r="19" spans="2:13" s="83" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="75"/>
-      <c r="F19" s="73"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-    </row>
-    <row r="20" spans="2:13" s="83" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-    </row>
-    <row r="21" spans="2:13" s="83" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="18" s="99" spans="1:22">
+      <c r="E18" s="71" t="n"/>
+      <c r="F18" s="72" t="n"/>
+      <c r="H18" s="54" t="n"/>
+      <c r="I18" s="54" t="n"/>
+      <c r="J18" s="54" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.5" r="19" s="99" spans="1:22" thickBot="1">
+      <c r="E19" s="75" t="n"/>
+      <c r="F19" s="73" t="n"/>
+      <c r="H19" s="54" t="n"/>
+      <c r="I19" s="54" t="n"/>
+      <c r="J19" s="54" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.5" r="20" s="99" spans="1:22" thickBot="1">
+      <c r="H20" s="54" t="n"/>
+      <c r="I20" s="54" t="n"/>
+      <c r="J20" s="54" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.5" r="21" s="99" spans="1:22" thickBot="1">
       <c r="E21" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="99"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-    </row>
-    <row r="22" spans="2:13" s="83" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="54" t="n"/>
+      <c r="I21" s="54" t="n"/>
+      <c r="J21" s="54" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.2" r="22" s="99" spans="1:22">
       <c r="B22" s="7" t="s">
         <v>29</v>
       </c>
@@ -3401,89 +3330,86 @@
       <c r="F22" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-    </row>
-    <row r="23" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="71"/>
-      <c r="F23" s="72"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-    </row>
-    <row r="24" spans="2:13" s="83" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="7" t="n"/>
+      <c r="H22" s="54" t="n"/>
+      <c r="I22" s="54" t="n"/>
+      <c r="J22" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="23" s="99" spans="1:22">
+      <c r="E23" s="71" t="n"/>
+      <c r="F23" s="72" t="n"/>
+      <c r="H23" s="54" t="n"/>
+      <c r="I23" s="54" t="n"/>
+      <c r="J23" s="54" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.2" r="24" s="99" spans="1:22">
       <c r="D24" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="71"/>
-      <c r="F24" s="72"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-    </row>
-    <row r="25" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="99"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="72"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-    </row>
-    <row r="26" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="99"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="72"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-    </row>
-    <row r="27" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="99"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="72"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-    </row>
-    <row r="28" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="71"/>
-      <c r="F28" s="72"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-    </row>
-    <row r="29" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="71"/>
-      <c r="F29" s="72"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-    </row>
-    <row r="30" spans="2:13" s="83" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="75"/>
-      <c r="F30" s="73"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-    </row>
-    <row r="31" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-    </row>
-    <row r="32" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="71" t="n"/>
+      <c r="F24" s="72" t="n"/>
+      <c r="H24" s="54" t="n"/>
+      <c r="I24" s="54" t="n"/>
+      <c r="J24" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="25" s="99" spans="1:22">
+      <c r="E25" s="71" t="n"/>
+      <c r="F25" s="72" t="n"/>
+      <c r="H25" s="54" t="n"/>
+      <c r="I25" s="54" t="n"/>
+      <c r="J25" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="26" s="99" spans="1:22">
+      <c r="E26" s="71" t="n"/>
+      <c r="F26" s="72" t="n"/>
+      <c r="H26" s="54" t="n"/>
+      <c r="I26" s="54" t="n"/>
+      <c r="J26" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="27" s="99" spans="1:22">
+      <c r="E27" s="71" t="n"/>
+      <c r="F27" s="72" t="n"/>
+      <c r="H27" s="54" t="n"/>
+      <c r="I27" s="54" t="n"/>
+      <c r="J27" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="28" s="99" spans="1:22">
+      <c r="E28" s="71" t="n"/>
+      <c r="F28" s="72" t="n"/>
+      <c r="H28" s="54" t="n"/>
+      <c r="I28" s="54" t="n"/>
+      <c r="J28" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="29" s="99" spans="1:22">
+      <c r="E29" s="71" t="n"/>
+      <c r="F29" s="72" t="n"/>
+      <c r="H29" s="54" t="n"/>
+      <c r="I29" s="54" t="n"/>
+      <c r="J29" s="54" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.5" r="30" s="99" spans="1:22" thickBot="1">
+      <c r="E30" s="75" t="n"/>
+      <c r="F30" s="73" t="n"/>
+      <c r="H30" s="54" t="n"/>
+      <c r="I30" s="54" t="n"/>
+      <c r="J30" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="31" s="99" spans="1:22">
+      <c r="B31" s="7" t="n"/>
+      <c r="C31" s="7" t="n"/>
+      <c r="D31" s="7" t="n"/>
+      <c r="E31" s="7" t="n"/>
+      <c r="F31" s="7" t="n"/>
+      <c r="G31" s="7" t="n"/>
+      <c r="H31" s="101" t="n"/>
+      <c r="I31" s="101" t="n"/>
+      <c r="J31" s="101" t="n"/>
+      <c r="K31" s="101" t="n"/>
+      <c r="L31" s="101" t="n"/>
+      <c r="M31" s="101" t="n"/>
+    </row>
+    <row customFormat="1" r="32" s="99" spans="1:22"/>
+    <row customFormat="1" r="33" s="99" spans="1:22">
       <c r="B33" s="7" t="s">
         <v>29</v>
       </c>
@@ -3496,15 +3422,15 @@
       <c r="E33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-    </row>
-    <row r="34" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="7" t="n"/>
+      <c r="H33" s="54" t="n"/>
+      <c r="I33" s="54" t="n"/>
+      <c r="J33" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="34" s="99" spans="1:22">
       <c r="B34" s="7" t="s">
         <v>29</v>
       </c>
@@ -3520,12 +3446,12 @@
       <c r="F34" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-    </row>
-    <row r="35" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="7" t="n"/>
+      <c r="H34" s="54" t="n"/>
+      <c r="I34" s="54" t="n"/>
+      <c r="J34" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="35" s="99" spans="1:22">
       <c r="B35" s="7" t="s">
         <v>29</v>
       </c>
@@ -3538,15 +3464,15 @@
       <c r="E35" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-    </row>
-    <row r="36" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="7" t="n"/>
+      <c r="H35" s="54" t="n"/>
+      <c r="I35" s="54" t="n"/>
+      <c r="J35" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="36" s="99" spans="1:22">
       <c r="B36" s="7" t="s">
         <v>29</v>
       </c>
@@ -3562,12 +3488,12 @@
       <c r="F36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-    </row>
-    <row r="37" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="7" t="n"/>
+      <c r="H36" s="54" t="n"/>
+      <c r="I36" s="54" t="n"/>
+      <c r="J36" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="37" s="99" spans="1:22">
       <c r="B37" s="7" t="s">
         <v>29</v>
       </c>
@@ -3583,12 +3509,12 @@
       <c r="F37" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-    </row>
-    <row r="38" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="7" t="n"/>
+      <c r="H37" s="54" t="n"/>
+      <c r="I37" s="54" t="n"/>
+      <c r="J37" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="38" s="99" spans="1:22">
       <c r="B38" s="7" t="s">
         <v>29</v>
       </c>
@@ -3604,23 +3530,23 @@
       <c r="F38" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-    </row>
-    <row r="39" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-    </row>
-    <row r="40" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="7" t="n"/>
+      <c r="H38" s="54" t="n"/>
+      <c r="I38" s="54" t="n"/>
+      <c r="J38" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="39" s="99" spans="1:22">
+      <c r="B39" s="7" t="n"/>
+      <c r="C39" s="7" t="n"/>
+      <c r="D39" s="7" t="n"/>
+      <c r="E39" s="7" t="n"/>
+      <c r="F39" s="7" t="n"/>
+      <c r="G39" s="7" t="n"/>
+      <c r="H39" s="54" t="n"/>
+      <c r="I39" s="54" t="n"/>
+      <c r="J39" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="40" s="99" spans="1:22">
       <c r="B40" s="7" t="s">
         <v>55</v>
       </c>
@@ -3633,26 +3559,26 @@
       <c r="E40" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-    </row>
-    <row r="41" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-    </row>
-    <row r="42" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="7" t="n"/>
+      <c r="H40" s="54" t="n"/>
+      <c r="I40" s="54" t="n"/>
+      <c r="J40" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="41" s="99" spans="1:22">
+      <c r="B41" s="7" t="n"/>
+      <c r="C41" s="7" t="n"/>
+      <c r="D41" s="7" t="n"/>
+      <c r="E41" s="7" t="n"/>
+      <c r="F41" s="7" t="n"/>
+      <c r="G41" s="7" t="n"/>
+      <c r="H41" s="54" t="n"/>
+      <c r="I41" s="54" t="n"/>
+      <c r="J41" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="42" s="99" spans="1:22">
       <c r="B42" s="7" t="s">
         <v>59</v>
       </c>
@@ -3668,12 +3594,12 @@
       <c r="F42" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-    </row>
-    <row r="43" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="7" t="n"/>
+      <c r="H42" s="54" t="n"/>
+      <c r="I42" s="54" t="n"/>
+      <c r="J42" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="43" s="99" spans="1:22">
       <c r="B43" s="7" t="s">
         <v>59</v>
       </c>
@@ -3689,163 +3615,151 @@
       <c r="F43" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-    </row>
-    <row r="44" spans="2:10" s="83" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-    </row>
-    <row r="45" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="31"/>
-      <c r="C45" s="32"/>
+      <c r="G43" s="7" t="n"/>
+      <c r="H43" s="54" t="n"/>
+      <c r="I43" s="54" t="n"/>
+      <c r="J43" s="54" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.5" r="44" s="99" spans="1:22" thickBot="1">
+      <c r="B44" s="7" t="n"/>
+      <c r="C44" s="7" t="n"/>
+      <c r="D44" s="7" t="n"/>
+      <c r="E44" s="7" t="n"/>
+      <c r="F44" s="7" t="n"/>
+      <c r="G44" s="7" t="n"/>
+      <c r="H44" s="54" t="n"/>
+      <c r="I44" s="54" t="n"/>
+      <c r="J44" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="45" s="99" spans="1:22">
+      <c r="B45" s="31" t="n"/>
+      <c r="C45" s="32" t="n"/>
       <c r="D45" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="99"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-    </row>
-    <row r="46" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="33"/>
-      <c r="C46" s="7"/>
+      <c r="F45" s="16" t="n"/>
+      <c r="G45" s="7" t="n"/>
+      <c r="H45" s="54" t="n"/>
+      <c r="I45" s="54" t="n"/>
+      <c r="J45" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="46" s="99" spans="1:22">
+      <c r="B46" s="33" t="n"/>
+      <c r="C46" s="7" t="n"/>
       <c r="D46" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="E46" s="99"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-    </row>
-    <row r="47" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="33"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-    </row>
-    <row r="48" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F46" s="70" t="n"/>
+      <c r="G46" s="7" t="n"/>
+      <c r="H46" s="54" t="n"/>
+      <c r="I46" s="54" t="n"/>
+      <c r="J46" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="47" s="99" spans="1:22">
+      <c r="B47" s="33" t="n"/>
+      <c r="C47" s="7" t="n"/>
+      <c r="D47" s="7" t="n"/>
+      <c r="E47" s="8" t="n"/>
+      <c r="F47" s="70" t="n"/>
+      <c r="G47" s="7" t="n"/>
+      <c r="H47" s="54" t="n"/>
+      <c r="I47" s="54" t="n"/>
+      <c r="J47" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="48" s="99" spans="1:22">
       <c r="B48" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="7"/>
+      <c r="C48" s="7" t="n"/>
       <c r="D48" s="13" t="s">
         <v>71</v>
       </c>
       <c r="E48" s="10">
         <f>C65</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="F48" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-    </row>
-    <row r="49" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="99"/>
-      <c r="C49" s="7"/>
+      <c r="G48" s="7" t="n"/>
+      <c r="H48" s="54" t="n"/>
+      <c r="I48" s="54" t="n"/>
+      <c r="J48" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="49" s="99" spans="1:22">
+      <c r="C49" s="7" t="n"/>
       <c r="D49" s="14" t="s">
         <v>73</v>
       </c>
       <c r="E49" s="10">
         <f>D65</f>
-        <v>9</v>
-      </c>
-      <c r="F49" s="99"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-    </row>
-    <row r="50" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="99"/>
-      <c r="C50" s="7"/>
+        <v/>
+      </c>
+      <c r="G49" s="7" t="n"/>
+      <c r="H49" s="54" t="n"/>
+      <c r="I49" s="54" t="n"/>
+      <c r="J49" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="50" s="99" spans="1:22">
+      <c r="C50" s="7" t="n"/>
       <c r="D50" s="14" t="s">
         <v>74</v>
       </c>
       <c r="E50" s="10">
         <f>B65</f>
-        <v>0</v>
-      </c>
-      <c r="F50" s="99"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-    </row>
-    <row r="51" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="99"/>
-      <c r="C51" s="7"/>
+        <v/>
+      </c>
+      <c r="G50" s="7" t="n"/>
+      <c r="H50" s="54" t="n"/>
+      <c r="I50" s="54" t="n"/>
+      <c r="J50" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="51" s="99" spans="1:22">
+      <c r="C51" s="7" t="n"/>
       <c r="D51" s="15" t="s">
         <v>75</v>
       </c>
       <c r="E51" s="10">
         <f>F65</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="99"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-    </row>
-    <row r="52" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="33"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-    </row>
-    <row r="53" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="G51" s="7" t="n"/>
+      <c r="H51" s="54" t="n"/>
+      <c r="I51" s="54" t="n"/>
+      <c r="J51" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="52" s="99" spans="1:22">
+      <c r="B52" s="33" t="n"/>
+      <c r="C52" s="7" t="n"/>
+      <c r="D52" s="11" t="n"/>
+      <c r="E52" s="97" t="n"/>
+      <c r="F52" s="17" t="n"/>
+      <c r="G52" s="7" t="n"/>
+      <c r="H52" s="54" t="n"/>
+      <c r="I52" s="54" t="n"/>
+      <c r="J52" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="53" s="99" spans="1:22">
       <c r="B53" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-    </row>
-    <row r="54" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="33"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-    </row>
-    <row r="55" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G53" s="7" t="n"/>
+      <c r="H53" s="54" t="n"/>
+      <c r="I53" s="54" t="n"/>
+      <c r="J53" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="54" s="99" spans="1:22">
+      <c r="B54" s="33" t="n"/>
+      <c r="C54" s="7" t="n"/>
+      <c r="D54" s="7" t="n"/>
+      <c r="E54" s="7" t="n"/>
+      <c r="F54" s="70" t="n"/>
+      <c r="G54" s="7" t="n"/>
+      <c r="H54" s="54" t="n"/>
+      <c r="I54" s="54" t="n"/>
+      <c r="J54" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="55" s="99" spans="1:22">
       <c r="B55" s="18" t="s">
         <v>77</v>
       </c>
@@ -3861,192 +3775,192 @@
       <c r="F55" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="54"/>
-    </row>
-    <row r="56" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="20">
+      <c r="G55" s="7" t="n"/>
+      <c r="H55" s="54" t="n"/>
+      <c r="I55" s="54" t="n"/>
+      <c r="J55" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="56" s="99" spans="1:22">
+      <c r="B56" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="21">
+      <c r="E56" s="12" t="n"/>
+      <c r="F56" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="54"/>
-    </row>
-    <row r="57" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="62"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="54"/>
-    </row>
-    <row r="58" spans="2:10" s="83" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G56" s="7" t="n"/>
+      <c r="H56" s="54" t="n"/>
+      <c r="I56" s="54" t="n"/>
+      <c r="J56" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="57" s="99" spans="1:22">
+      <c r="B57" s="62" t="n"/>
+      <c r="C57" s="54" t="n"/>
+      <c r="D57" s="54" t="n"/>
+      <c r="E57" s="54" t="n"/>
+      <c r="F57" s="55" t="n"/>
+      <c r="G57" s="7" t="n"/>
+      <c r="H57" s="54" t="n"/>
+      <c r="I57" s="54" t="n"/>
+      <c r="J57" s="54" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.2" r="58" s="99" spans="1:22">
       <c r="B58" s="63">
         <f>(F57*5)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C58" s="64">
         <f>(F57*13)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="D58" s="64">
         <f>(F57*10)</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="64"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54"/>
-    </row>
-    <row r="59" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="62"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-    </row>
-    <row r="60" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="E58" s="64" t="n"/>
+      <c r="F58" s="65" t="n"/>
+      <c r="G58" s="7" t="n"/>
+      <c r="H58" s="54" t="n"/>
+      <c r="I58" s="54" t="n"/>
+      <c r="J58" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="59" s="99" spans="1:22">
+      <c r="B59" s="62" t="n"/>
+      <c r="C59" s="54" t="n"/>
+      <c r="D59" s="54" t="n"/>
+      <c r="E59" s="54" t="n"/>
+      <c r="F59" s="55" t="n"/>
+      <c r="G59" s="7" t="n"/>
+      <c r="H59" s="54" t="n"/>
+      <c r="I59" s="54" t="n"/>
+      <c r="J59" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="60" s="99" spans="1:22">
       <c r="B60" s="63">
         <f>(F59*5)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C60" s="64">
         <f>(F59*13)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="D60" s="64">
         <f>(F59*10)</f>
-        <v>0</v>
-      </c>
-      <c r="E60" s="64"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="54"/>
-    </row>
-    <row r="61" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="62"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
-    </row>
-    <row r="62" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="E60" s="64" t="n"/>
+      <c r="F60" s="65" t="n"/>
+      <c r="G60" s="7" t="n"/>
+      <c r="H60" s="54" t="n"/>
+      <c r="I60" s="54" t="n"/>
+      <c r="J60" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="61" s="99" spans="1:22">
+      <c r="B61" s="62" t="n"/>
+      <c r="C61" s="54" t="n"/>
+      <c r="D61" s="54" t="n"/>
+      <c r="E61" s="54" t="n"/>
+      <c r="F61" s="55" t="n"/>
+      <c r="G61" s="7" t="n"/>
+      <c r="H61" s="54" t="n"/>
+      <c r="I61" s="54" t="n"/>
+      <c r="J61" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="62" s="99" spans="1:22">
       <c r="B62" s="63">
         <f>(F61*5)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C62" s="64">
         <f>(F61*13)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="D62" s="64">
         <f>(F61*10)</f>
-        <v>0</v>
-      </c>
-      <c r="E62" s="64"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
-    </row>
-    <row r="63" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="62"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-    </row>
-    <row r="64" spans="2:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="E62" s="64" t="n"/>
+      <c r="F62" s="65" t="n"/>
+      <c r="G62" s="7" t="n"/>
+      <c r="H62" s="54" t="n"/>
+      <c r="I62" s="54" t="n"/>
+      <c r="J62" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="63" s="99" spans="1:22">
+      <c r="B63" s="62" t="n"/>
+      <c r="C63" s="54" t="n"/>
+      <c r="D63" s="54" t="n"/>
+      <c r="E63" s="54" t="n"/>
+      <c r="F63" s="55" t="n"/>
+      <c r="G63" s="7" t="n"/>
+      <c r="H63" s="54" t="n"/>
+      <c r="I63" s="54" t="n"/>
+      <c r="J63" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="64" s="99" spans="1:22">
       <c r="B64" s="20">
         <f>(F63*5)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C64" s="12">
         <f>(F63*13)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="D64" s="12">
         <f>(F63*10)</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="12"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="54"/>
-    </row>
-    <row r="65" spans="2:11" s="83" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="E64" s="12" t="n"/>
+      <c r="F64" s="22" t="n"/>
+      <c r="G64" s="7" t="n"/>
+      <c r="H64" s="54" t="n"/>
+      <c r="I64" s="54" t="n"/>
+      <c r="J64" s="54" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.5" r="65" s="99" spans="1:22" thickBot="1">
       <c r="B65" s="23">
         <f>SUM(B56:B64)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C65" s="24">
         <f>SUM(C56:C64)</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="D65" s="24">
         <f>SUM(D56:D64)</f>
-        <v>9</v>
+        <v/>
       </c>
       <c r="E65" s="24">
         <f>SUM(E56:E64)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="F65" s="25">
         <f>SUM(F56:F64)</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
-    </row>
-    <row r="66" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="54"/>
-    </row>
-    <row r="67" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="G65" s="7" t="n"/>
+      <c r="H65" s="54" t="n"/>
+      <c r="I65" s="54" t="n"/>
+      <c r="J65" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="66" s="99" spans="1:22">
+      <c r="B66" s="7" t="n"/>
+      <c r="C66" s="7" t="n"/>
+      <c r="D66" s="7" t="n"/>
+      <c r="E66" s="7" t="n"/>
+      <c r="F66" s="7" t="n"/>
+      <c r="G66" s="7" t="n"/>
+      <c r="H66" s="54" t="n"/>
+      <c r="I66" s="54" t="n"/>
+      <c r="J66" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="67" s="99" spans="1:22">
       <c r="B67" s="7" t="s">
         <v>82</v>
       </c>
@@ -4059,15 +3973,15 @@
       <c r="E67" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="7" t="n">
         <v>500</v>
       </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
-    </row>
-    <row r="68" spans="2:11" s="83" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G67" s="7" t="n"/>
+      <c r="H67" s="54" t="n"/>
+      <c r="I67" s="54" t="n"/>
+      <c r="J67" s="54" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.2" r="68" s="99" spans="1:22">
       <c r="B68" s="7" t="s">
         <v>82</v>
       </c>
@@ -4083,12 +3997,12 @@
       <c r="F68" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G68" s="7"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="54"/>
-    </row>
-    <row r="69" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G68" s="7" t="n"/>
+      <c r="H68" s="54" t="n"/>
+      <c r="I68" s="54" t="n"/>
+      <c r="J68" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="69" s="99" spans="1:22">
       <c r="B69" s="7" t="s">
         <v>82</v>
       </c>
@@ -4101,15 +4015,15 @@
       <c r="E69" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="54"/>
-      <c r="I69" s="54"/>
-      <c r="J69" s="54"/>
-    </row>
-    <row r="70" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="7" t="n"/>
+      <c r="H69" s="54" t="n"/>
+      <c r="I69" s="54" t="n"/>
+      <c r="J69" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="70" s="99" spans="1:22">
       <c r="B70" s="7" t="s">
         <v>82</v>
       </c>
@@ -4122,15 +4036,15 @@
       <c r="E70" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="54"/>
-      <c r="I70" s="54"/>
-      <c r="J70" s="54"/>
-    </row>
-    <row r="71" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G70" s="7" t="n"/>
+      <c r="H70" s="54" t="n"/>
+      <c r="I70" s="54" t="n"/>
+      <c r="J70" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="71" s="99" spans="1:22">
       <c r="B71" s="7" t="s">
         <v>82</v>
       </c>
@@ -4143,13 +4057,13 @@
       <c r="E71" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="54"/>
-      <c r="I71" s="54"/>
-      <c r="J71" s="54"/>
-    </row>
-    <row r="72" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F71" s="7" t="n"/>
+      <c r="G71" s="7" t="n"/>
+      <c r="H71" s="54" t="n"/>
+      <c r="I71" s="54" t="n"/>
+      <c r="J71" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="72" s="99" spans="1:22">
       <c r="B72" s="7" t="s">
         <v>82</v>
       </c>
@@ -4162,13 +4076,13 @@
       <c r="E72" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="54"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="54"/>
-    </row>
-    <row r="73" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F72" s="7" t="n"/>
+      <c r="G72" s="7" t="n"/>
+      <c r="H72" s="54" t="n"/>
+      <c r="I72" s="54" t="n"/>
+      <c r="J72" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="73" s="99" spans="1:22">
       <c r="B73" s="7" t="s">
         <v>82</v>
       </c>
@@ -4181,13 +4095,13 @@
       <c r="E73" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="54"/>
-      <c r="I73" s="54"/>
-      <c r="J73" s="54"/>
-    </row>
-    <row r="74" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F73" s="7" t="n"/>
+      <c r="G73" s="7" t="n"/>
+      <c r="H73" s="54" t="n"/>
+      <c r="I73" s="54" t="n"/>
+      <c r="J73" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="74" s="99" spans="1:22">
       <c r="B74" s="7" t="s">
         <v>82</v>
       </c>
@@ -4203,12 +4117,12 @@
       <c r="F74" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="54"/>
-    </row>
-    <row r="75" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G74" s="7" t="n"/>
+      <c r="H74" s="54" t="n"/>
+      <c r="I74" s="54" t="n"/>
+      <c r="J74" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="75" s="99" spans="1:22">
       <c r="B75" s="7" t="s">
         <v>82</v>
       </c>
@@ -4218,75 +4132,65 @@
       <c r="D75" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G75" s="7"/>
-    </row>
-    <row r="76" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="7"/>
-      <c r="C76" s="114"/>
-      <c r="D76" s="99"/>
-      <c r="E76" s="99"/>
+      <c r="G75" s="7" t="n"/>
+    </row>
+    <row customFormat="1" r="76" s="99" spans="1:22">
+      <c r="B76" s="7" t="n"/>
+      <c r="C76" s="114" t="n"/>
       <c r="F76" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="G76" s="7"/>
-      <c r="H76" s="54"/>
-      <c r="I76" s="54"/>
-      <c r="J76" s="54"/>
-    </row>
-    <row r="77" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="7"/>
-      <c r="C77" s="99"/>
-      <c r="D77" s="99"/>
-      <c r="E77" s="99"/>
-      <c r="F77" s="99"/>
-      <c r="G77" s="7"/>
-      <c r="I77" s="54"/>
-    </row>
-    <row r="78" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="7"/>
-      <c r="C78" s="99"/>
-      <c r="D78" s="99"/>
-      <c r="E78" s="99"/>
-      <c r="F78" s="99"/>
-      <c r="G78" s="7"/>
-      <c r="I78" s="54"/>
-    </row>
-    <row r="79" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="54"/>
-      <c r="I79" s="54"/>
-      <c r="J79" s="54"/>
-      <c r="K79" s="69"/>
-    </row>
-    <row r="80" spans="2:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="69"/>
-    </row>
-    <row r="81" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="54"/>
-      <c r="I81" s="54"/>
-      <c r="J81" s="54"/>
-    </row>
-    <row r="82" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G76" s="7" t="n"/>
+      <c r="H76" s="54" t="n"/>
+      <c r="I76" s="54" t="n"/>
+      <c r="J76" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="77" s="99" spans="1:22">
+      <c r="B77" s="7" t="n"/>
+      <c r="G77" s="7" t="n"/>
+      <c r="I77" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="78" s="99" spans="1:22">
+      <c r="B78" s="7" t="n"/>
+      <c r="G78" s="7" t="n"/>
+      <c r="I78" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="79" s="99" spans="1:22">
+      <c r="B79" s="7" t="n"/>
+      <c r="C79" s="7" t="n"/>
+      <c r="D79" s="7" t="n"/>
+      <c r="E79" s="7" t="n"/>
+      <c r="F79" s="7" t="n"/>
+      <c r="G79" s="7" t="n"/>
+      <c r="H79" s="54" t="n"/>
+      <c r="I79" s="54" t="n"/>
+      <c r="J79" s="54" t="n"/>
+      <c r="K79" s="69" t="n"/>
+    </row>
+    <row customFormat="1" r="80" s="99" spans="1:22">
+      <c r="B80" s="7" t="n"/>
+      <c r="C80" s="7" t="n"/>
+      <c r="D80" s="7" t="n"/>
+      <c r="E80" s="7" t="n"/>
+      <c r="F80" s="7" t="n"/>
+      <c r="G80" s="7" t="n"/>
+      <c r="H80" s="54" t="n"/>
+      <c r="I80" s="54" t="n"/>
+      <c r="J80" s="54" t="n"/>
+      <c r="K80" s="69" t="n"/>
+    </row>
+    <row customFormat="1" r="81" s="99" spans="1:22">
+      <c r="B81" s="7" t="n"/>
+      <c r="C81" s="7" t="n"/>
+      <c r="D81" s="7" t="n"/>
+      <c r="E81" s="7" t="n"/>
+      <c r="F81" s="7" t="n"/>
+      <c r="G81" s="7" t="n"/>
+      <c r="H81" s="54" t="n"/>
+      <c r="I81" s="54" t="n"/>
+      <c r="J81" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="82" s="99" spans="1:22">
       <c r="B82" s="7" t="s">
         <v>102</v>
       </c>
@@ -4299,417 +4203,417 @@
       <c r="E82" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="F82" s="76">
+      <c r="F82" s="76" t="n">
         <v>10</v>
       </c>
-      <c r="G82" s="76"/>
-      <c r="H82" s="54"/>
-      <c r="I82" s="54"/>
-      <c r="J82" s="54"/>
-    </row>
-    <row r="83" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="76"/>
-      <c r="F83" s="76"/>
-      <c r="G83" s="76"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="54"/>
-      <c r="J83" s="54"/>
-    </row>
-    <row r="84" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="86" t="s">
+      <c r="G82" s="76" t="n"/>
+      <c r="H82" s="54" t="n"/>
+      <c r="I82" s="54" t="n"/>
+      <c r="J82" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="83" s="99" spans="1:22">
+      <c r="B83" s="7" t="n"/>
+      <c r="C83" s="7" t="n"/>
+      <c r="D83" s="7" t="n"/>
+      <c r="E83" s="76" t="n"/>
+      <c r="F83" s="76" t="n"/>
+      <c r="G83" s="76" t="n"/>
+      <c r="H83" s="54" t="n"/>
+      <c r="I83" s="54" t="n"/>
+      <c r="J83" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="84" s="99" spans="1:22">
+      <c r="B84" s="7" t="n"/>
+      <c r="C84" s="7" t="n"/>
+      <c r="D84" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="E84" s="86" t="s">
+      <c r="E84" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="F84" s="86" t="s">
+      <c r="F84" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="G84" s="76"/>
-      <c r="H84" s="54"/>
-      <c r="I84" s="54"/>
-      <c r="J84" s="54"/>
-    </row>
-    <row r="85" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G84" s="76" t="n"/>
+      <c r="H84" s="54" t="n"/>
+      <c r="I84" s="54" t="n"/>
+      <c r="J84" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="85" s="99" spans="1:22">
       <c r="B85" s="7" t="s">
         <v>102</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D85" s="86" t="s">
+      <c r="D85" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="E85" s="86" t="s">
+      <c r="E85" s="103" t="s">
         <v>108</v>
       </c>
       <c r="F85" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="G85" s="76"/>
-      <c r="H85" s="54"/>
-      <c r="I85" s="54"/>
-      <c r="J85" s="54"/>
-    </row>
-    <row r="86" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="68"/>
-      <c r="E86" s="66"/>
-      <c r="F86" s="46" t="str">
-        <f t="shared" ref="F86:F92" si="0">DEC2HEX(D86)</f>
-        <v>0</v>
-      </c>
-      <c r="G86" s="76"/>
-      <c r="H86" s="54"/>
-      <c r="I86" s="54"/>
-      <c r="J86" s="54"/>
-    </row>
-    <row r="87" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="46" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G87" s="76"/>
-      <c r="H87" s="54"/>
-      <c r="I87" s="54"/>
-      <c r="J87" s="54"/>
-    </row>
-    <row r="88" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="66"/>
-      <c r="E88" s="66"/>
-      <c r="F88" s="46" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="76"/>
-      <c r="H88" s="54"/>
-      <c r="I88" s="54"/>
-      <c r="J88" s="54"/>
-    </row>
-    <row r="89" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="66"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="46" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G89" s="76"/>
-      <c r="H89" s="54"/>
-      <c r="I89" s="54"/>
-      <c r="J89" s="54"/>
-      <c r="K89" s="69"/>
-    </row>
-    <row r="90" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="46" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="76"/>
-      <c r="H90" s="54"/>
-      <c r="I90" s="54"/>
-      <c r="J90" s="54"/>
-      <c r="K90" s="69"/>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="66"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="46" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G91" s="76"/>
-      <c r="H91" s="54"/>
-      <c r="I91" s="54"/>
-      <c r="J91" s="54"/>
-      <c r="K91" s="83"/>
-      <c r="L91" s="83"/>
-      <c r="M91" s="83"/>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="66"/>
-      <c r="F92" s="46" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G92" s="76"/>
-      <c r="H92" s="54"/>
-      <c r="I92" s="54"/>
-      <c r="J92" s="54"/>
-      <c r="K92" s="83"/>
-      <c r="L92" s="83"/>
-      <c r="M92" s="83"/>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="54"/>
-      <c r="I93" s="54"/>
-      <c r="J93" s="54"/>
-      <c r="K93" s="83"/>
-      <c r="L93" s="83"/>
-      <c r="M93" s="83"/>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="86" t="s">
+      <c r="G85" s="76" t="n"/>
+      <c r="H85" s="54" t="n"/>
+      <c r="I85" s="54" t="n"/>
+      <c r="J85" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="86" s="99" spans="1:22">
+      <c r="B86" s="7" t="n"/>
+      <c r="C86" s="7" t="n"/>
+      <c r="D86" s="68" t="n"/>
+      <c r="E86" s="66" t="n"/>
+      <c r="F86" s="46">
+        <f>DEC2HEX(D86)</f>
+        <v/>
+      </c>
+      <c r="G86" s="76" t="n"/>
+      <c r="H86" s="54" t="n"/>
+      <c r="I86" s="54" t="n"/>
+      <c r="J86" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="87" s="99" spans="1:22">
+      <c r="B87" s="7" t="n"/>
+      <c r="C87" s="7" t="n"/>
+      <c r="D87" s="68" t="n"/>
+      <c r="E87" s="66" t="n"/>
+      <c r="F87" s="46">
+        <f>DEC2HEX(D87)</f>
+        <v/>
+      </c>
+      <c r="G87" s="76" t="n"/>
+      <c r="H87" s="54" t="n"/>
+      <c r="I87" s="54" t="n"/>
+      <c r="J87" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="88" s="99" spans="1:22">
+      <c r="B88" s="7" t="n"/>
+      <c r="C88" s="7" t="n"/>
+      <c r="D88" s="66" t="n"/>
+      <c r="E88" s="66" t="n"/>
+      <c r="F88" s="46">
+        <f>DEC2HEX(D88)</f>
+        <v/>
+      </c>
+      <c r="G88" s="76" t="n"/>
+      <c r="H88" s="54" t="n"/>
+      <c r="I88" s="54" t="n"/>
+      <c r="J88" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="89" s="99" spans="1:22">
+      <c r="B89" s="7" t="n"/>
+      <c r="C89" s="7" t="n"/>
+      <c r="D89" s="66" t="n"/>
+      <c r="E89" s="66" t="n"/>
+      <c r="F89" s="46">
+        <f>DEC2HEX(D89)</f>
+        <v/>
+      </c>
+      <c r="G89" s="76" t="n"/>
+      <c r="H89" s="54" t="n"/>
+      <c r="I89" s="54" t="n"/>
+      <c r="J89" s="54" t="n"/>
+      <c r="K89" s="69" t="n"/>
+    </row>
+    <row customFormat="1" r="90" s="99" spans="1:22">
+      <c r="B90" s="7" t="n"/>
+      <c r="C90" s="7" t="n"/>
+      <c r="D90" s="66" t="n"/>
+      <c r="E90" s="66" t="n"/>
+      <c r="F90" s="46">
+        <f>DEC2HEX(D90)</f>
+        <v/>
+      </c>
+      <c r="G90" s="76" t="n"/>
+      <c r="H90" s="54" t="n"/>
+      <c r="I90" s="54" t="n"/>
+      <c r="J90" s="54" t="n"/>
+      <c r="K90" s="69" t="n"/>
+    </row>
+    <row r="91" spans="1:22">
+      <c r="B91" s="7" t="n"/>
+      <c r="C91" s="7" t="n"/>
+      <c r="D91" s="66" t="n"/>
+      <c r="E91" s="66" t="n"/>
+      <c r="F91" s="46">
+        <f>DEC2HEX(D91)</f>
+        <v/>
+      </c>
+      <c r="G91" s="76" t="n"/>
+      <c r="H91" s="54" t="n"/>
+      <c r="I91" s="54" t="n"/>
+      <c r="J91" s="54" t="n"/>
+      <c r="K91" s="99" t="n"/>
+      <c r="L91" s="99" t="n"/>
+      <c r="M91" s="99" t="n"/>
+    </row>
+    <row r="92" spans="1:22">
+      <c r="B92" s="7" t="n"/>
+      <c r="C92" s="7" t="n"/>
+      <c r="D92" s="66" t="n"/>
+      <c r="E92" s="66" t="n"/>
+      <c r="F92" s="46">
+        <f>DEC2HEX(D92)</f>
+        <v/>
+      </c>
+      <c r="G92" s="76" t="n"/>
+      <c r="H92" s="54" t="n"/>
+      <c r="I92" s="54" t="n"/>
+      <c r="J92" s="54" t="n"/>
+      <c r="K92" s="99" t="n"/>
+      <c r="L92" s="99" t="n"/>
+      <c r="M92" s="99" t="n"/>
+    </row>
+    <row r="93" spans="1:22">
+      <c r="B93" s="7" t="n"/>
+      <c r="C93" s="7" t="n"/>
+      <c r="D93" s="7" t="n"/>
+      <c r="E93" s="7" t="n"/>
+      <c r="F93" s="7" t="n"/>
+      <c r="G93" s="7" t="n"/>
+      <c r="H93" s="54" t="n"/>
+      <c r="I93" s="54" t="n"/>
+      <c r="J93" s="54" t="n"/>
+      <c r="K93" s="99" t="n"/>
+      <c r="L93" s="99" t="n"/>
+      <c r="M93" s="99" t="n"/>
+    </row>
+    <row r="94" spans="1:22">
+      <c r="B94" s="7" t="n"/>
+      <c r="C94" s="7" t="n"/>
+      <c r="D94" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="E94" s="86" t="s">
+      <c r="E94" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="F94" s="86" t="s">
+      <c r="F94" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="G94" s="76"/>
-      <c r="H94" s="54"/>
-      <c r="I94" s="54"/>
-      <c r="J94" s="54"/>
-      <c r="K94" s="83"/>
-      <c r="L94" s="83"/>
-      <c r="M94" s="83"/>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G94" s="76" t="n"/>
+      <c r="H94" s="54" t="n"/>
+      <c r="I94" s="54" t="n"/>
+      <c r="J94" s="54" t="n"/>
+      <c r="K94" s="99" t="n"/>
+      <c r="L94" s="99" t="n"/>
+      <c r="M94" s="99" t="n"/>
+    </row>
+    <row r="95" spans="1:22">
       <c r="B95" s="7" t="s">
         <v>102</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D95" s="86" t="s">
+      <c r="D95" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="E95" s="86" t="s">
+      <c r="E95" s="103" t="s">
         <v>111</v>
       </c>
       <c r="F95" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="G95" s="76"/>
-      <c r="H95" s="54"/>
-      <c r="I95" s="54"/>
-      <c r="J95" s="54"/>
-      <c r="K95" s="83"/>
-      <c r="L95" s="83"/>
-      <c r="M95" s="83"/>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="66"/>
-      <c r="F96" s="46" t="str">
-        <f t="shared" ref="F96:F106" si="1">DEC2HEX(D96)</f>
-        <v>0</v>
-      </c>
-      <c r="G96" s="76"/>
-      <c r="H96" s="54"/>
-      <c r="I96" s="54"/>
-      <c r="J96" s="54"/>
-      <c r="K96" s="83"/>
-      <c r="L96" s="83"/>
-      <c r="M96" s="83"/>
-    </row>
-    <row r="97" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="66"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="46" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G97" s="76"/>
-      <c r="H97" s="54"/>
-      <c r="I97" s="54"/>
-      <c r="J97" s="54"/>
-    </row>
-    <row r="98" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="46" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G98" s="76"/>
-      <c r="H98" s="54"/>
-      <c r="I98" s="54"/>
-      <c r="J98" s="54"/>
-    </row>
-    <row r="99" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="66"/>
-      <c r="E99" s="66"/>
-      <c r="F99" s="46" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G99" s="76"/>
-      <c r="H99" s="54"/>
-      <c r="I99" s="54"/>
-      <c r="J99" s="54"/>
-    </row>
-    <row r="100" spans="2:13" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="66"/>
-      <c r="E100" s="66"/>
-      <c r="F100" s="46" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G100" s="76"/>
-      <c r="H100" s="54"/>
-      <c r="I100" s="54"/>
-      <c r="J100" s="54"/>
-    </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="66"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="46" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G101" s="76"/>
-      <c r="H101" s="54"/>
-      <c r="I101" s="54"/>
-      <c r="J101" s="54"/>
-      <c r="K101" s="83"/>
-      <c r="L101" s="83"/>
-      <c r="M101" s="83"/>
-    </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="46" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G102" s="76"/>
-      <c r="H102" s="54"/>
-      <c r="I102" s="54"/>
-      <c r="J102" s="54"/>
-      <c r="K102" s="83"/>
-      <c r="L102" s="83"/>
-      <c r="M102" s="83"/>
-    </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="66"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="46" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="76"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="54"/>
-      <c r="J103" s="54"/>
-      <c r="K103" s="83"/>
-      <c r="L103" s="83"/>
-      <c r="M103" s="83"/>
-    </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="46" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G104" s="76"/>
-      <c r="H104" s="54"/>
-      <c r="I104" s="54"/>
-      <c r="J104" s="54"/>
-      <c r="K104" s="83"/>
-      <c r="L104" s="83"/>
-      <c r="M104" s="83"/>
-    </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="66"/>
-      <c r="E105" s="66"/>
-      <c r="F105" s="46" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G105" s="76"/>
-      <c r="H105" s="54"/>
-      <c r="I105" s="54"/>
-      <c r="J105" s="54"/>
-      <c r="K105" s="83"/>
-      <c r="L105" s="83"/>
-      <c r="M105" s="83"/>
-    </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="66"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="46" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G106" s="76"/>
-      <c r="H106" s="54"/>
-      <c r="I106" s="54"/>
-      <c r="J106" s="54"/>
-      <c r="K106" s="83"/>
-      <c r="L106" s="83"/>
-      <c r="M106" s="83"/>
-    </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="54"/>
-      <c r="I107" s="54"/>
-      <c r="J107" s="54"/>
-      <c r="K107" s="83"/>
-      <c r="L107" s="83"/>
-      <c r="M107" s="83"/>
-    </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G95" s="76" t="n"/>
+      <c r="H95" s="54" t="n"/>
+      <c r="I95" s="54" t="n"/>
+      <c r="J95" s="54" t="n"/>
+      <c r="K95" s="99" t="n"/>
+      <c r="L95" s="99" t="n"/>
+      <c r="M95" s="99" t="n"/>
+    </row>
+    <row r="96" spans="1:22">
+      <c r="B96" s="7" t="n"/>
+      <c r="C96" s="7" t="n"/>
+      <c r="D96" s="66" t="n"/>
+      <c r="E96" s="66" t="n"/>
+      <c r="F96" s="46">
+        <f>DEC2HEX(D96)</f>
+        <v/>
+      </c>
+      <c r="G96" s="76" t="n"/>
+      <c r="H96" s="54" t="n"/>
+      <c r="I96" s="54" t="n"/>
+      <c r="J96" s="54" t="n"/>
+      <c r="K96" s="99" t="n"/>
+      <c r="L96" s="99" t="n"/>
+      <c r="M96" s="99" t="n"/>
+    </row>
+    <row customFormat="1" r="97" s="99" spans="1:22">
+      <c r="B97" s="7" t="n"/>
+      <c r="C97" s="7" t="n"/>
+      <c r="D97" s="66" t="n"/>
+      <c r="E97" s="66" t="n"/>
+      <c r="F97" s="46">
+        <f>DEC2HEX(D97)</f>
+        <v/>
+      </c>
+      <c r="G97" s="76" t="n"/>
+      <c r="H97" s="54" t="n"/>
+      <c r="I97" s="54" t="n"/>
+      <c r="J97" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="98" s="99" spans="1:22">
+      <c r="B98" s="7" t="n"/>
+      <c r="C98" s="7" t="n"/>
+      <c r="D98" s="66" t="n"/>
+      <c r="E98" s="66" t="n"/>
+      <c r="F98" s="46">
+        <f>DEC2HEX(D98)</f>
+        <v/>
+      </c>
+      <c r="G98" s="76" t="n"/>
+      <c r="H98" s="54" t="n"/>
+      <c r="I98" s="54" t="n"/>
+      <c r="J98" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="99" s="99" spans="1:22">
+      <c r="B99" s="7" t="n"/>
+      <c r="C99" s="7" t="n"/>
+      <c r="D99" s="66" t="n"/>
+      <c r="E99" s="66" t="n"/>
+      <c r="F99" s="46">
+        <f>DEC2HEX(D99)</f>
+        <v/>
+      </c>
+      <c r="G99" s="76" t="n"/>
+      <c r="H99" s="54" t="n"/>
+      <c r="I99" s="54" t="n"/>
+      <c r="J99" s="54" t="n"/>
+    </row>
+    <row customFormat="1" r="100" s="99" spans="1:22">
+      <c r="B100" s="7" t="n"/>
+      <c r="C100" s="7" t="n"/>
+      <c r="D100" s="66" t="n"/>
+      <c r="E100" s="66" t="n"/>
+      <c r="F100" s="46">
+        <f>DEC2HEX(D100)</f>
+        <v/>
+      </c>
+      <c r="G100" s="76" t="n"/>
+      <c r="H100" s="54" t="n"/>
+      <c r="I100" s="54" t="n"/>
+      <c r="J100" s="54" t="n"/>
+    </row>
+    <row r="101" spans="1:22">
+      <c r="B101" s="7" t="n"/>
+      <c r="C101" s="7" t="n"/>
+      <c r="D101" s="66" t="n"/>
+      <c r="E101" s="66" t="n"/>
+      <c r="F101" s="46">
+        <f>DEC2HEX(D101)</f>
+        <v/>
+      </c>
+      <c r="G101" s="76" t="n"/>
+      <c r="H101" s="54" t="n"/>
+      <c r="I101" s="54" t="n"/>
+      <c r="J101" s="54" t="n"/>
+      <c r="K101" s="99" t="n"/>
+      <c r="L101" s="99" t="n"/>
+      <c r="M101" s="99" t="n"/>
+    </row>
+    <row r="102" spans="1:22">
+      <c r="B102" s="7" t="n"/>
+      <c r="C102" s="7" t="n"/>
+      <c r="D102" s="66" t="n"/>
+      <c r="E102" s="66" t="n"/>
+      <c r="F102" s="46">
+        <f>DEC2HEX(D102)</f>
+        <v/>
+      </c>
+      <c r="G102" s="76" t="n"/>
+      <c r="H102" s="54" t="n"/>
+      <c r="I102" s="54" t="n"/>
+      <c r="J102" s="54" t="n"/>
+      <c r="K102" s="99" t="n"/>
+      <c r="L102" s="99" t="n"/>
+      <c r="M102" s="99" t="n"/>
+    </row>
+    <row r="103" spans="1:22">
+      <c r="B103" s="7" t="n"/>
+      <c r="C103" s="7" t="n"/>
+      <c r="D103" s="66" t="n"/>
+      <c r="E103" s="66" t="n"/>
+      <c r="F103" s="46">
+        <f>DEC2HEX(D103)</f>
+        <v/>
+      </c>
+      <c r="G103" s="76" t="n"/>
+      <c r="H103" s="54" t="n"/>
+      <c r="I103" s="54" t="n"/>
+      <c r="J103" s="54" t="n"/>
+      <c r="K103" s="99" t="n"/>
+      <c r="L103" s="99" t="n"/>
+      <c r="M103" s="99" t="n"/>
+    </row>
+    <row r="104" spans="1:22">
+      <c r="B104" s="7" t="n"/>
+      <c r="C104" s="7" t="n"/>
+      <c r="D104" s="66" t="n"/>
+      <c r="E104" s="66" t="n"/>
+      <c r="F104" s="46">
+        <f>DEC2HEX(D104)</f>
+        <v/>
+      </c>
+      <c r="G104" s="76" t="n"/>
+      <c r="H104" s="54" t="n"/>
+      <c r="I104" s="54" t="n"/>
+      <c r="J104" s="54" t="n"/>
+      <c r="K104" s="99" t="n"/>
+      <c r="L104" s="99" t="n"/>
+      <c r="M104" s="99" t="n"/>
+    </row>
+    <row r="105" spans="1:22">
+      <c r="B105" s="7" t="n"/>
+      <c r="C105" s="7" t="n"/>
+      <c r="D105" s="66" t="n"/>
+      <c r="E105" s="66" t="n"/>
+      <c r="F105" s="46">
+        <f>DEC2HEX(D105)</f>
+        <v/>
+      </c>
+      <c r="G105" s="76" t="n"/>
+      <c r="H105" s="54" t="n"/>
+      <c r="I105" s="54" t="n"/>
+      <c r="J105" s="54" t="n"/>
+      <c r="K105" s="99" t="n"/>
+      <c r="L105" s="99" t="n"/>
+      <c r="M105" s="99" t="n"/>
+    </row>
+    <row r="106" spans="1:22">
+      <c r="B106" s="7" t="n"/>
+      <c r="C106" s="7" t="n"/>
+      <c r="D106" s="66" t="n"/>
+      <c r="E106" s="66" t="n"/>
+      <c r="F106" s="46">
+        <f>DEC2HEX(D106)</f>
+        <v/>
+      </c>
+      <c r="G106" s="76" t="n"/>
+      <c r="H106" s="54" t="n"/>
+      <c r="I106" s="54" t="n"/>
+      <c r="J106" s="54" t="n"/>
+      <c r="K106" s="99" t="n"/>
+      <c r="L106" s="99" t="n"/>
+      <c r="M106" s="99" t="n"/>
+    </row>
+    <row r="107" spans="1:22">
+      <c r="B107" s="7" t="n"/>
+      <c r="C107" s="7" t="n"/>
+      <c r="D107" s="7" t="n"/>
+      <c r="E107" s="7" t="n"/>
+      <c r="F107" s="7" t="n"/>
+      <c r="G107" s="7" t="n"/>
+      <c r="H107" s="54" t="n"/>
+      <c r="I107" s="54" t="n"/>
+      <c r="J107" s="54" t="n"/>
+      <c r="K107" s="99" t="n"/>
+      <c r="L107" s="99" t="n"/>
+      <c r="M107" s="99" t="n"/>
+    </row>
+    <row r="108" spans="1:22">
       <c r="B108" s="7" t="s">
         <v>112</v>
       </c>
@@ -4719,183 +4623,181 @@
       <c r="D108" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="E108" s="97"/>
-      <c r="F108" s="97"/>
-      <c r="G108" s="86"/>
-      <c r="H108" s="54"/>
-      <c r="I108" s="54"/>
-      <c r="J108" s="54"/>
-      <c r="K108" s="83"/>
-      <c r="L108" s="83"/>
-      <c r="M108" s="83"/>
-    </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="54"/>
-      <c r="I109" s="54"/>
-      <c r="J109" s="54"/>
-      <c r="K109" s="83"/>
-      <c r="L109" s="83"/>
-      <c r="M109" s="83"/>
-    </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="54"/>
-      <c r="I110" s="54"/>
-      <c r="J110" s="54"/>
-      <c r="K110" s="83"/>
-      <c r="L110" s="83"/>
-      <c r="M110" s="83"/>
-    </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="54"/>
-      <c r="I111" s="54"/>
-      <c r="J111" s="54"/>
-      <c r="K111" s="83"/>
-      <c r="L111" s="83"/>
-      <c r="M111" s="83"/>
-    </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="54"/>
-      <c r="I112" s="54"/>
-      <c r="J112" s="54"/>
-      <c r="K112" s="83"/>
-      <c r="L112" s="83"/>
-      <c r="M112" s="83"/>
-    </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="54"/>
-      <c r="I113" s="54"/>
-      <c r="J113" s="54"/>
-      <c r="K113" s="83"/>
-      <c r="L113" s="83"/>
-      <c r="M113" s="83"/>
-    </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="54"/>
-      <c r="I114" s="54"/>
-      <c r="J114" s="54"/>
-      <c r="K114" s="83"/>
-      <c r="L114" s="83"/>
-      <c r="M114" s="83"/>
-    </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="54"/>
-      <c r="I115" s="54"/>
-      <c r="J115" s="54"/>
-      <c r="K115" s="83"/>
-      <c r="L115" s="83"/>
-      <c r="M115" s="83"/>
-    </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="54"/>
-      <c r="I116" s="54"/>
-      <c r="J116" s="54"/>
-      <c r="K116" s="83"/>
-      <c r="L116" s="83"/>
-      <c r="M116" s="83"/>
-    </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="54"/>
-      <c r="I117" s="54"/>
-      <c r="J117" s="54"/>
-      <c r="K117" s="83"/>
-      <c r="L117" s="83"/>
-      <c r="M117" s="83"/>
-    </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="54"/>
-      <c r="I118" s="54"/>
-      <c r="J118" s="54"/>
-      <c r="K118" s="83"/>
-      <c r="L118" s="83"/>
-      <c r="M118" s="83"/>
-    </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="54"/>
-      <c r="I119" s="54"/>
-      <c r="J119" s="54"/>
-      <c r="K119" s="83"/>
-      <c r="L119" s="83"/>
-      <c r="M119" s="83"/>
-    </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="54"/>
-      <c r="I120" s="54"/>
-      <c r="J120" s="54"/>
-      <c r="K120" s="69"/>
-    </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G108" s="103" t="n"/>
+      <c r="H108" s="54" t="n"/>
+      <c r="I108" s="54" t="n"/>
+      <c r="J108" s="54" t="n"/>
+      <c r="K108" s="99" t="n"/>
+      <c r="L108" s="99" t="n"/>
+      <c r="M108" s="99" t="n"/>
+    </row>
+    <row r="109" spans="1:22">
+      <c r="B109" s="7" t="n"/>
+      <c r="C109" s="7" t="n"/>
+      <c r="D109" s="7" t="n"/>
+      <c r="E109" s="7" t="n"/>
+      <c r="F109" s="7" t="n"/>
+      <c r="G109" s="7" t="n"/>
+      <c r="H109" s="54" t="n"/>
+      <c r="I109" s="54" t="n"/>
+      <c r="J109" s="54" t="n"/>
+      <c r="K109" s="99" t="n"/>
+      <c r="L109" s="99" t="n"/>
+      <c r="M109" s="99" t="n"/>
+    </row>
+    <row r="110" spans="1:22">
+      <c r="B110" s="7" t="n"/>
+      <c r="C110" s="7" t="n"/>
+      <c r="D110" s="7" t="n"/>
+      <c r="E110" s="7" t="n"/>
+      <c r="F110" s="7" t="n"/>
+      <c r="G110" s="7" t="n"/>
+      <c r="H110" s="54" t="n"/>
+      <c r="I110" s="54" t="n"/>
+      <c r="J110" s="54" t="n"/>
+      <c r="K110" s="99" t="n"/>
+      <c r="L110" s="99" t="n"/>
+      <c r="M110" s="99" t="n"/>
+    </row>
+    <row r="111" spans="1:22">
+      <c r="B111" s="7" t="n"/>
+      <c r="C111" s="7" t="n"/>
+      <c r="D111" s="7" t="n"/>
+      <c r="E111" s="7" t="n"/>
+      <c r="F111" s="7" t="n"/>
+      <c r="G111" s="7" t="n"/>
+      <c r="H111" s="54" t="n"/>
+      <c r="I111" s="54" t="n"/>
+      <c r="J111" s="54" t="n"/>
+      <c r="K111" s="99" t="n"/>
+      <c r="L111" s="99" t="n"/>
+      <c r="M111" s="99" t="n"/>
+    </row>
+    <row r="112" spans="1:22">
+      <c r="B112" s="7" t="n"/>
+      <c r="C112" s="7" t="n"/>
+      <c r="D112" s="7" t="n"/>
+      <c r="E112" s="7" t="n"/>
+      <c r="F112" s="7" t="n"/>
+      <c r="G112" s="7" t="n"/>
+      <c r="H112" s="54" t="n"/>
+      <c r="I112" s="54" t="n"/>
+      <c r="J112" s="54" t="n"/>
+      <c r="K112" s="99" t="n"/>
+      <c r="L112" s="99" t="n"/>
+      <c r="M112" s="99" t="n"/>
+    </row>
+    <row r="113" spans="1:22">
+      <c r="B113" s="7" t="n"/>
+      <c r="C113" s="7" t="n"/>
+      <c r="D113" s="7" t="n"/>
+      <c r="E113" s="7" t="n"/>
+      <c r="F113" s="7" t="n"/>
+      <c r="G113" s="7" t="n"/>
+      <c r="H113" s="54" t="n"/>
+      <c r="I113" s="54" t="n"/>
+      <c r="J113" s="54" t="n"/>
+      <c r="K113" s="99" t="n"/>
+      <c r="L113" s="99" t="n"/>
+      <c r="M113" s="99" t="n"/>
+    </row>
+    <row r="114" spans="1:22">
+      <c r="B114" s="7" t="n"/>
+      <c r="C114" s="7" t="n"/>
+      <c r="D114" s="7" t="n"/>
+      <c r="E114" s="7" t="n"/>
+      <c r="F114" s="7" t="n"/>
+      <c r="G114" s="7" t="n"/>
+      <c r="H114" s="54" t="n"/>
+      <c r="I114" s="54" t="n"/>
+      <c r="J114" s="54" t="n"/>
+      <c r="K114" s="99" t="n"/>
+      <c r="L114" s="99" t="n"/>
+      <c r="M114" s="99" t="n"/>
+    </row>
+    <row r="115" spans="1:22">
+      <c r="B115" s="7" t="n"/>
+      <c r="C115" s="7" t="n"/>
+      <c r="D115" s="7" t="n"/>
+      <c r="E115" s="7" t="n"/>
+      <c r="F115" s="7" t="n"/>
+      <c r="G115" s="7" t="n"/>
+      <c r="H115" s="54" t="n"/>
+      <c r="I115" s="54" t="n"/>
+      <c r="J115" s="54" t="n"/>
+      <c r="K115" s="99" t="n"/>
+      <c r="L115" s="99" t="n"/>
+      <c r="M115" s="99" t="n"/>
+    </row>
+    <row r="116" spans="1:22">
+      <c r="B116" s="7" t="n"/>
+      <c r="C116" s="7" t="n"/>
+      <c r="D116" s="7" t="n"/>
+      <c r="E116" s="7" t="n"/>
+      <c r="F116" s="7" t="n"/>
+      <c r="G116" s="7" t="n"/>
+      <c r="H116" s="54" t="n"/>
+      <c r="I116" s="54" t="n"/>
+      <c r="J116" s="54" t="n"/>
+      <c r="K116" s="99" t="n"/>
+      <c r="L116" s="99" t="n"/>
+      <c r="M116" s="99" t="n"/>
+    </row>
+    <row r="117" spans="1:22">
+      <c r="B117" s="7" t="n"/>
+      <c r="C117" s="7" t="n"/>
+      <c r="D117" s="7" t="n"/>
+      <c r="E117" s="7" t="n"/>
+      <c r="F117" s="7" t="n"/>
+      <c r="G117" s="7" t="n"/>
+      <c r="H117" s="54" t="n"/>
+      <c r="I117" s="54" t="n"/>
+      <c r="J117" s="54" t="n"/>
+      <c r="K117" s="99" t="n"/>
+      <c r="L117" s="99" t="n"/>
+      <c r="M117" s="99" t="n"/>
+    </row>
+    <row r="118" spans="1:22">
+      <c r="B118" s="7" t="n"/>
+      <c r="C118" s="7" t="n"/>
+      <c r="D118" s="7" t="n"/>
+      <c r="E118" s="7" t="n"/>
+      <c r="F118" s="7" t="n"/>
+      <c r="G118" s="7" t="n"/>
+      <c r="H118" s="54" t="n"/>
+      <c r="I118" s="54" t="n"/>
+      <c r="J118" s="54" t="n"/>
+      <c r="K118" s="99" t="n"/>
+      <c r="L118" s="99" t="n"/>
+      <c r="M118" s="99" t="n"/>
+    </row>
+    <row r="119" spans="1:22">
+      <c r="B119" s="7" t="n"/>
+      <c r="C119" s="7" t="n"/>
+      <c r="D119" s="7" t="n"/>
+      <c r="E119" s="7" t="n"/>
+      <c r="F119" s="7" t="n"/>
+      <c r="G119" s="7" t="n"/>
+      <c r="H119" s="54" t="n"/>
+      <c r="I119" s="54" t="n"/>
+      <c r="J119" s="54" t="n"/>
+      <c r="K119" s="99" t="n"/>
+      <c r="L119" s="99" t="n"/>
+      <c r="M119" s="99" t="n"/>
+    </row>
+    <row r="120" spans="1:22">
+      <c r="B120" s="7" t="n"/>
+      <c r="C120" s="7" t="n"/>
+      <c r="D120" s="7" t="n"/>
+      <c r="E120" s="7" t="n"/>
+      <c r="F120" s="7" t="n"/>
+      <c r="G120" s="7" t="n"/>
+      <c r="H120" s="54" t="n"/>
+      <c r="I120" s="54" t="n"/>
+      <c r="J120" s="54" t="n"/>
+      <c r="K120" s="69" t="n"/>
+    </row>
+    <row r="121" spans="1:22">
       <c r="B121" s="7" t="s">
         <v>115</v>
       </c>
@@ -4911,15 +4813,15 @@
       <c r="F121" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G121" s="7"/>
-      <c r="H121" s="54"/>
-      <c r="I121" s="54"/>
-      <c r="J121" s="54"/>
+      <c r="G121" s="7" t="n"/>
+      <c r="H121" s="54" t="n"/>
+      <c r="I121" s="54" t="n"/>
+      <c r="J121" s="54" t="n"/>
       <c r="L121" s="54" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22">
       <c r="B122" s="7" t="s">
         <v>115</v>
       </c>
@@ -4935,59 +4837,58 @@
       <c r="F122" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G122" s="7"/>
-      <c r="H122" s="54"/>
-      <c r="I122" s="54"/>
-      <c r="J122" s="54"/>
+      <c r="G122" s="7" t="n"/>
+      <c r="H122" s="54" t="n"/>
+      <c r="I122" s="54" t="n"/>
+      <c r="J122" s="54" t="n"/>
       <c r="L122" s="54" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="54"/>
-      <c r="I123" s="54"/>
-      <c r="J123" s="54"/>
-      <c r="K123" s="83"/>
-      <c r="L123" s="83"/>
-      <c r="M123" s="83"/>
-    </row>
-    <row r="124" spans="2:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="54"/>
-      <c r="I124" s="54"/>
-      <c r="J124" s="54"/>
-      <c r="K124" s="83"/>
-      <c r="L124" s="83"/>
-      <c r="M124" s="83"/>
-    </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B125" s="45"/>
-      <c r="C125" s="88"/>
+    <row r="123" spans="1:22">
+      <c r="B123" s="7" t="n"/>
+      <c r="C123" s="7" t="n"/>
+      <c r="D123" s="7" t="n"/>
+      <c r="E123" s="7" t="n"/>
+      <c r="F123" s="7" t="n"/>
+      <c r="G123" s="7" t="n"/>
+      <c r="H123" s="54" t="n"/>
+      <c r="I123" s="54" t="n"/>
+      <c r="J123" s="54" t="n"/>
+      <c r="K123" s="99" t="n"/>
+      <c r="L123" s="99" t="n"/>
+      <c r="M123" s="99" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.5" r="124" s="91" spans="1:22" thickBot="1">
+      <c r="B124" s="7" t="n"/>
+      <c r="C124" s="7" t="n"/>
+      <c r="D124" s="7" t="n"/>
+      <c r="E124" s="7" t="n"/>
+      <c r="F124" s="7" t="n"/>
+      <c r="G124" s="7" t="n"/>
+      <c r="H124" s="54" t="n"/>
+      <c r="I124" s="54" t="n"/>
+      <c r="J124" s="54" t="n"/>
+      <c r="K124" s="99" t="n"/>
+      <c r="L124" s="99" t="n"/>
+      <c r="M124" s="99" t="n"/>
+    </row>
+    <row r="125" spans="1:22">
+      <c r="B125" s="45" t="n"/>
+      <c r="C125" s="110" t="n"/>
       <c r="D125" s="110" t="s">
         <v>121</v>
       </c>
-      <c r="E125" s="97"/>
-      <c r="F125" s="88"/>
-      <c r="G125" s="77"/>
-      <c r="H125" s="59"/>
-      <c r="I125" s="60"/>
-      <c r="J125" s="53"/>
-      <c r="K125" s="83"/>
-      <c r="L125" s="83"/>
-      <c r="M125" s="83"/>
-    </row>
-    <row r="126" spans="2:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F125" s="110" t="n"/>
+      <c r="G125" s="77" t="n"/>
+      <c r="H125" s="59" t="n"/>
+      <c r="I125" s="60" t="n"/>
+      <c r="J125" s="53" t="n"/>
+      <c r="K125" s="99" t="n"/>
+      <c r="L125" s="99" t="n"/>
+      <c r="M125" s="99" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.5" r="126" s="91" spans="1:22" thickBot="1">
       <c r="B126" s="38" t="s">
         <v>122</v>
       </c>
@@ -5000,34 +4901,34 @@
       <c r="E126" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="F126" s="39">
+      <c r="F126" s="39" t="n">
         <v>9600</v>
       </c>
-      <c r="G126" s="37"/>
-      <c r="H126" s="56"/>
-      <c r="I126" s="57"/>
-      <c r="J126" s="58"/>
-      <c r="K126" s="83"/>
-      <c r="L126" s="83"/>
-      <c r="M126" s="83"/>
-    </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H127" s="52"/>
-      <c r="I127" s="52"/>
-      <c r="J127" s="52"/>
-    </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B128" s="7"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="76"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="54"/>
-      <c r="I128" s="54"/>
-      <c r="J128" s="54"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G126" s="37" t="n"/>
+      <c r="H126" s="56" t="n"/>
+      <c r="I126" s="57" t="n"/>
+      <c r="J126" s="58" t="n"/>
+      <c r="K126" s="99" t="n"/>
+      <c r="L126" s="99" t="n"/>
+      <c r="M126" s="99" t="n"/>
+    </row>
+    <row r="127" spans="1:22">
+      <c r="H127" s="52" t="n"/>
+      <c r="I127" s="52" t="n"/>
+      <c r="J127" s="52" t="n"/>
+    </row>
+    <row r="128" spans="1:22">
+      <c r="B128" s="7" t="n"/>
+      <c r="C128" s="7" t="n"/>
+      <c r="D128" s="76" t="n"/>
+      <c r="E128" s="7" t="n"/>
+      <c r="F128" s="7" t="n"/>
+      <c r="G128" s="7" t="n"/>
+      <c r="H128" s="54" t="n"/>
+      <c r="I128" s="54" t="n"/>
+      <c r="J128" s="54" t="n"/>
+    </row>
+    <row r="129" spans="1:22">
       <c r="B129" s="7" t="s">
         <v>126</v>
       </c>
@@ -5040,15 +4941,15 @@
       <c r="E129" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F129" s="7">
+      <c r="F129" s="7" t="n">
         <v>30000</v>
       </c>
-      <c r="G129" s="7"/>
-      <c r="H129" s="54"/>
-      <c r="I129" s="54"/>
-      <c r="J129" s="54"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G129" s="7" t="n"/>
+      <c r="H129" s="54" t="n"/>
+      <c r="I129" s="54" t="n"/>
+      <c r="J129" s="54" t="n"/>
+    </row>
+    <row r="130" spans="1:22">
       <c r="B130" s="7" t="s">
         <v>126</v>
       </c>
@@ -5064,12 +4965,12 @@
       <c r="F130" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G130" s="7"/>
-      <c r="H130" s="54"/>
-      <c r="I130" s="54"/>
-      <c r="J130" s="54"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G130" s="7" t="n"/>
+      <c r="H130" s="54" t="n"/>
+      <c r="I130" s="54" t="n"/>
+      <c r="J130" s="54" t="n"/>
+    </row>
+    <row r="131" spans="1:22">
       <c r="B131" s="7" t="s">
         <v>126</v>
       </c>
@@ -5085,23 +4986,23 @@
       <c r="F131" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G131" s="7"/>
-      <c r="H131" s="54"/>
-      <c r="I131" s="54"/>
-      <c r="J131" s="54"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="54"/>
-      <c r="I132" s="54"/>
-      <c r="J132" s="54"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G131" s="7" t="n"/>
+      <c r="H131" s="54" t="n"/>
+      <c r="I131" s="54" t="n"/>
+      <c r="J131" s="54" t="n"/>
+    </row>
+    <row r="132" spans="1:22">
+      <c r="B132" s="7" t="n"/>
+      <c r="C132" s="7" t="n"/>
+      <c r="D132" s="7" t="n"/>
+      <c r="E132" s="7" t="n"/>
+      <c r="F132" s="7" t="n"/>
+      <c r="G132" s="7" t="n"/>
+      <c r="H132" s="54" t="n"/>
+      <c r="I132" s="54" t="n"/>
+      <c r="J132" s="54" t="n"/>
+    </row>
+    <row r="133" spans="1:22">
       <c r="B133" s="7" t="s">
         <v>134</v>
       </c>
@@ -5117,12 +5018,12 @@
       <c r="F133" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G133" s="7"/>
-      <c r="H133" s="54"/>
-      <c r="I133" s="54"/>
-      <c r="J133" s="54"/>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G133" s="7" t="n"/>
+      <c r="H133" s="54" t="n"/>
+      <c r="I133" s="54" t="n"/>
+      <c r="J133" s="54" t="n"/>
+    </row>
+    <row r="134" spans="1:22">
       <c r="B134" s="7" t="s">
         <v>134</v>
       </c>
@@ -5135,26 +5036,26 @@
       <c r="E134" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F134" s="7">
+      <c r="F134" s="7" t="n">
         <v>3000</v>
       </c>
-      <c r="G134" s="7"/>
-      <c r="H134" s="54"/>
-      <c r="I134" s="54"/>
-      <c r="J134" s="54"/>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="52"/>
-      <c r="I135" s="52"/>
-      <c r="J135" s="52"/>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G134" s="7" t="n"/>
+      <c r="H134" s="54" t="n"/>
+      <c r="I134" s="54" t="n"/>
+      <c r="J134" s="54" t="n"/>
+    </row>
+    <row r="135" spans="1:22">
+      <c r="B135" s="7" t="n"/>
+      <c r="C135" s="7" t="n"/>
+      <c r="D135" s="7" t="n"/>
+      <c r="E135" s="7" t="n"/>
+      <c r="F135" s="7" t="n"/>
+      <c r="G135" s="7" t="n"/>
+      <c r="H135" s="52" t="n"/>
+      <c r="I135" s="52" t="n"/>
+      <c r="J135" s="52" t="n"/>
+    </row>
+    <row r="136" spans="1:22">
       <c r="B136" s="7" t="s">
         <v>141</v>
       </c>
@@ -5170,12 +5071,12 @@
       <c r="F136" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G136" s="7"/>
-      <c r="H136" s="54"/>
-      <c r="I136" s="54"/>
-      <c r="J136" s="54"/>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G136" s="7" t="n"/>
+      <c r="H136" s="54" t="n"/>
+      <c r="I136" s="54" t="n"/>
+      <c r="J136" s="54" t="n"/>
+    </row>
+    <row r="137" spans="1:22">
       <c r="B137" s="7" t="s">
         <v>141</v>
       </c>
@@ -5191,32 +5092,31 @@
       <c r="F137" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G137" s="7"/>
-      <c r="H137" s="54"/>
-      <c r="I137" s="54"/>
-      <c r="J137" s="54"/>
-    </row>
-    <row r="138" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="7"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B139" s="31"/>
-      <c r="C139" s="32"/>
+      <c r="G137" s="7" t="n"/>
+      <c r="H137" s="54" t="n"/>
+      <c r="I137" s="54" t="n"/>
+      <c r="J137" s="54" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.5" r="138" s="91" spans="1:22" thickBot="1">
+      <c r="B138" s="7" t="n"/>
+      <c r="C138" s="7" t="n"/>
+      <c r="D138" s="7" t="n"/>
+      <c r="E138" s="7" t="n"/>
+      <c r="F138" s="7" t="n"/>
+    </row>
+    <row r="139" spans="1:22">
+      <c r="B139" s="31" t="n"/>
+      <c r="C139" s="32" t="n"/>
       <c r="D139" s="106" t="s">
         <v>150</v>
       </c>
-      <c r="E139" s="97"/>
-      <c r="F139" s="32"/>
-      <c r="G139" s="32"/>
-      <c r="H139" s="59"/>
-      <c r="I139" s="59"/>
-      <c r="J139" s="53"/>
-    </row>
-    <row r="140" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F139" s="32" t="n"/>
+      <c r="G139" s="32" t="n"/>
+      <c r="H139" s="59" t="n"/>
+      <c r="I139" s="59" t="n"/>
+      <c r="J139" s="53" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.5" r="140" s="91" spans="1:22" thickBot="1">
       <c r="B140" s="34" t="s">
         <v>141</v>
       </c>
@@ -5229,171 +5129,157 @@
       <c r="E140" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="F140" s="35">
+      <c r="F140" s="35" t="n">
         <v>500</v>
       </c>
-      <c r="G140" s="35"/>
-      <c r="H140" s="56"/>
-      <c r="I140" s="57"/>
-      <c r="J140" s="58"/>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B141" s="7"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B142" s="7"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="52"/>
-      <c r="I142" s="52"/>
-      <c r="J142" s="52"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B143" s="7"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="52"/>
-      <c r="I143" s="52"/>
-      <c r="J143" s="52"/>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B144" s="7"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="52"/>
-      <c r="I144" s="52"/>
-      <c r="J144" s="52"/>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B145" s="7"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="52"/>
-      <c r="I145" s="52"/>
-      <c r="J145" s="52"/>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B146" s="7"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="52"/>
-      <c r="I146" s="52"/>
-      <c r="J146" s="52"/>
-    </row>
-    <row r="147" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="7"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="52"/>
-      <c r="I147" s="52"/>
-      <c r="J147" s="52"/>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G140" s="35" t="n"/>
+      <c r="H140" s="56" t="n"/>
+      <c r="I140" s="57" t="n"/>
+      <c r="J140" s="58" t="n"/>
+    </row>
+    <row r="141" spans="1:22">
+      <c r="B141" s="7" t="n"/>
+      <c r="C141" s="7" t="n"/>
+      <c r="D141" s="7" t="n"/>
+      <c r="E141" s="7" t="n"/>
+      <c r="F141" s="7" t="n"/>
+      <c r="G141" s="7" t="n"/>
+    </row>
+    <row r="142" spans="1:22">
+      <c r="B142" s="7" t="n"/>
+      <c r="C142" s="7" t="n"/>
+      <c r="D142" s="7" t="n"/>
+      <c r="E142" s="7" t="n"/>
+      <c r="F142" s="7" t="n"/>
+      <c r="G142" s="7" t="n"/>
+      <c r="H142" s="52" t="n"/>
+      <c r="I142" s="52" t="n"/>
+      <c r="J142" s="52" t="n"/>
+    </row>
+    <row r="143" spans="1:22">
+      <c r="B143" s="7" t="n"/>
+      <c r="C143" s="7" t="n"/>
+      <c r="D143" s="7" t="n"/>
+      <c r="E143" s="7" t="n"/>
+      <c r="F143" s="7" t="n"/>
+      <c r="G143" s="7" t="n"/>
+      <c r="H143" s="52" t="n"/>
+      <c r="I143" s="52" t="n"/>
+      <c r="J143" s="52" t="n"/>
+    </row>
+    <row r="144" spans="1:22">
+      <c r="B144" s="7" t="n"/>
+      <c r="C144" s="7" t="n"/>
+      <c r="D144" s="7" t="n"/>
+      <c r="E144" s="7" t="n"/>
+      <c r="F144" s="7" t="n"/>
+      <c r="G144" s="7" t="n"/>
+      <c r="H144" s="52" t="n"/>
+      <c r="I144" s="52" t="n"/>
+      <c r="J144" s="52" t="n"/>
+    </row>
+    <row r="145" spans="1:22">
+      <c r="B145" s="7" t="n"/>
+      <c r="C145" s="7" t="n"/>
+      <c r="D145" s="7" t="n"/>
+      <c r="E145" s="7" t="n"/>
+      <c r="F145" s="7" t="n"/>
+      <c r="G145" s="7" t="n"/>
+      <c r="H145" s="52" t="n"/>
+      <c r="I145" s="52" t="n"/>
+      <c r="J145" s="52" t="n"/>
+    </row>
+    <row r="146" spans="1:22">
+      <c r="B146" s="7" t="n"/>
+      <c r="C146" s="7" t="n"/>
+      <c r="D146" s="7" t="n"/>
+      <c r="E146" s="7" t="n"/>
+      <c r="F146" s="7" t="n"/>
+      <c r="G146" s="7" t="n"/>
+      <c r="H146" s="52" t="n"/>
+      <c r="I146" s="52" t="n"/>
+      <c r="J146" s="52" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.5" r="147" s="91" spans="1:22" thickBot="1">
+      <c r="B147" s="7" t="n"/>
+      <c r="C147" s="7" t="n"/>
+      <c r="D147" s="7" t="n"/>
+      <c r="E147" s="7" t="n"/>
+      <c r="F147" s="7" t="n"/>
+      <c r="G147" s="7" t="n"/>
+      <c r="H147" s="52" t="n"/>
+      <c r="I147" s="52" t="n"/>
+      <c r="J147" s="52" t="n"/>
+    </row>
+    <row r="148" spans="1:22">
       <c r="B148" s="109" t="s">
         <v>154</v>
       </c>
-      <c r="C148" s="96"/>
-      <c r="D148" s="96"/>
-      <c r="E148" s="97"/>
-      <c r="F148" s="97"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="54"/>
-      <c r="I148" s="54"/>
-      <c r="J148" s="54"/>
-    </row>
-    <row r="149" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="96"/>
-      <c r="C149" s="96"/>
-      <c r="D149" s="96"/>
-      <c r="E149" s="97"/>
-      <c r="F149" s="97"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="52"/>
-      <c r="I149" s="52"/>
-      <c r="J149" s="52"/>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B150" s="7"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="52"/>
-      <c r="I150" s="52"/>
-      <c r="J150" s="52"/>
-    </row>
-    <row r="151" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="7"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="54"/>
-      <c r="I151" s="54"/>
-      <c r="J151" s="54"/>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B152" s="36"/>
-      <c r="C152" s="84"/>
+      <c r="G148" s="7" t="n"/>
+      <c r="H148" s="54" t="n"/>
+      <c r="I148" s="54" t="n"/>
+      <c r="J148" s="54" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.5" r="149" s="91" spans="1:22" thickBot="1">
+      <c r="G149" s="7" t="n"/>
+      <c r="H149" s="52" t="n"/>
+      <c r="I149" s="52" t="n"/>
+      <c r="J149" s="52" t="n"/>
+    </row>
+    <row r="150" spans="1:22">
+      <c r="B150" s="7" t="n"/>
+      <c r="C150" s="7" t="n"/>
+      <c r="D150" s="7" t="n"/>
+      <c r="E150" s="7" t="n"/>
+      <c r="F150" s="7" t="n"/>
+      <c r="G150" s="7" t="n"/>
+      <c r="H150" s="52" t="n"/>
+      <c r="I150" s="52" t="n"/>
+      <c r="J150" s="52" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.5" r="151" s="91" spans="1:22" thickBot="1">
+      <c r="B151" s="7" t="n"/>
+      <c r="C151" s="7" t="n"/>
+      <c r="D151" s="7" t="n"/>
+      <c r="E151" s="7" t="n"/>
+      <c r="F151" s="7" t="n"/>
+      <c r="G151" s="7" t="n"/>
+      <c r="H151" s="54" t="n"/>
+      <c r="I151" s="54" t="n"/>
+      <c r="J151" s="54" t="n"/>
+    </row>
+    <row r="152" spans="1:22">
+      <c r="B152" s="36" t="n"/>
+      <c r="C152" s="115" t="n"/>
       <c r="D152" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="E152" s="97"/>
-      <c r="F152" s="84"/>
-      <c r="G152" s="84"/>
-      <c r="H152" s="60"/>
-      <c r="I152" s="60"/>
-      <c r="J152" s="61"/>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F152" s="115" t="n"/>
+      <c r="G152" s="115" t="n"/>
+      <c r="H152" s="60" t="n"/>
+      <c r="I152" s="60" t="n"/>
+      <c r="J152" s="61" t="n"/>
+    </row>
+    <row r="153" spans="1:22">
       <c r="B153" s="107" t="s">
         <v>156</v>
       </c>
-      <c r="C153" s="96"/>
-      <c r="D153" s="96"/>
-      <c r="E153" s="97"/>
-      <c r="F153" s="97"/>
-      <c r="H153" s="54"/>
-      <c r="I153" s="54"/>
-      <c r="J153" s="55"/>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B154" s="33"/>
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="54"/>
-      <c r="I154" s="54"/>
-      <c r="J154" s="55"/>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H153" s="54" t="n"/>
+      <c r="I153" s="54" t="n"/>
+      <c r="J153" s="55" t="n"/>
+    </row>
+    <row r="154" spans="1:22">
+      <c r="B154" s="33" t="n"/>
+      <c r="C154" s="7" t="n"/>
+      <c r="D154" s="7" t="n"/>
+      <c r="E154" s="7" t="n"/>
+      <c r="F154" s="7" t="n"/>
+      <c r="G154" s="7" t="n"/>
+      <c r="H154" s="54" t="n"/>
+      <c r="I154" s="54" t="n"/>
+      <c r="J154" s="55" t="n"/>
+    </row>
+    <row r="155" spans="1:22">
       <c r="B155" s="33" t="s">
         <v>102</v>
       </c>
@@ -5409,12 +5295,12 @@
       <c r="F155" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="G155" s="76"/>
-      <c r="H155" s="54"/>
-      <c r="I155" s="54"/>
-      <c r="J155" s="55"/>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G155" s="76" t="n"/>
+      <c r="H155" s="54" t="n"/>
+      <c r="I155" s="54" t="n"/>
+      <c r="J155" s="55" t="n"/>
+    </row>
+    <row r="156" spans="1:22">
       <c r="B156" s="33" t="s">
         <v>122</v>
       </c>
@@ -5430,147 +5316,147 @@
       <c r="F156" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G156" s="7"/>
-      <c r="H156" s="54"/>
-      <c r="I156" s="54"/>
-      <c r="J156" s="55"/>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B157" s="33"/>
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
+      <c r="G156" s="7" t="n"/>
+      <c r="H156" s="54" t="n"/>
+      <c r="I156" s="54" t="n"/>
+      <c r="J156" s="55" t="n"/>
+    </row>
+    <row r="157" spans="1:22">
+      <c r="B157" s="33" t="n"/>
+      <c r="C157" s="7" t="n"/>
+      <c r="D157" s="7" t="n"/>
       <c r="E157" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F157" s="7">
+      <c r="F157" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="G157" s="7"/>
-      <c r="H157" s="54"/>
-      <c r="I157" s="54"/>
-      <c r="J157" s="55"/>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B158" s="33"/>
-      <c r="C158" s="7"/>
-      <c r="D158" s="7"/>
+      <c r="G157" s="7" t="n"/>
+      <c r="H157" s="54" t="n"/>
+      <c r="I157" s="54" t="n"/>
+      <c r="J157" s="55" t="n"/>
+    </row>
+    <row r="158" spans="1:22">
+      <c r="B158" s="33" t="n"/>
+      <c r="C158" s="7" t="n"/>
+      <c r="D158" s="7" t="n"/>
       <c r="E158" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F158" s="7">
+      <c r="F158" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="G158" s="7"/>
-      <c r="H158" s="54"/>
-      <c r="I158" s="54"/>
-      <c r="J158" s="55"/>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B159" s="33"/>
-      <c r="C159" s="7"/>
-      <c r="D159" s="7"/>
+      <c r="G158" s="7" t="n"/>
+      <c r="H158" s="54" t="n"/>
+      <c r="I158" s="54" t="n"/>
+      <c r="J158" s="55" t="n"/>
+    </row>
+    <row r="159" spans="1:22">
+      <c r="B159" s="33" t="n"/>
+      <c r="C159" s="7" t="n"/>
+      <c r="D159" s="7" t="n"/>
       <c r="E159" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F159" s="7">
+      <c r="F159" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="G159" s="7"/>
-      <c r="H159" s="54"/>
-      <c r="I159" s="54"/>
-      <c r="J159" s="55"/>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B160" s="33"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="7"/>
+      <c r="G159" s="7" t="n"/>
+      <c r="H159" s="54" t="n"/>
+      <c r="I159" s="54" t="n"/>
+      <c r="J159" s="55" t="n"/>
+    </row>
+    <row r="160" spans="1:22">
+      <c r="B160" s="33" t="n"/>
+      <c r="C160" s="7" t="n"/>
+      <c r="D160" s="7" t="n"/>
       <c r="E160" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F160" s="7">
+      <c r="F160" s="7" t="n">
         <v>249</v>
       </c>
-      <c r="G160" s="7"/>
-      <c r="H160" s="54"/>
-      <c r="I160" s="54"/>
-      <c r="J160" s="55"/>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B161" s="33"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="7"/>
+      <c r="G160" s="7" t="n"/>
+      <c r="H160" s="54" t="n"/>
+      <c r="I160" s="54" t="n"/>
+      <c r="J160" s="55" t="n"/>
+    </row>
+    <row r="161" spans="1:22">
+      <c r="B161" s="33" t="n"/>
+      <c r="C161" s="7" t="n"/>
+      <c r="D161" s="7" t="n"/>
       <c r="E161" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F161" s="7">
+      <c r="F161" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G161" s="7"/>
-      <c r="H161" s="54"/>
-      <c r="I161" s="54"/>
-      <c r="J161" s="55"/>
-    </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B162" s="33"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="7"/>
+      <c r="G161" s="7" t="n"/>
+      <c r="H161" s="54" t="n"/>
+      <c r="I161" s="54" t="n"/>
+      <c r="J161" s="55" t="n"/>
+    </row>
+    <row r="162" spans="1:22">
+      <c r="B162" s="33" t="n"/>
+      <c r="C162" s="7" t="n"/>
+      <c r="D162" s="7" t="n"/>
       <c r="E162" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F162" s="7">
+      <c r="F162" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="G162" s="7"/>
-      <c r="H162" s="54"/>
-      <c r="I162" s="54"/>
-      <c r="J162" s="55"/>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B163" s="33"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="7"/>
+      <c r="G162" s="7" t="n"/>
+      <c r="H162" s="54" t="n"/>
+      <c r="I162" s="54" t="n"/>
+      <c r="J162" s="55" t="n"/>
+    </row>
+    <row r="163" spans="1:22">
+      <c r="B163" s="33" t="n"/>
+      <c r="C163" s="7" t="n"/>
+      <c r="D163" s="7" t="n"/>
       <c r="E163" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F163" s="7">
+      <c r="F163" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="G163" s="7"/>
-      <c r="H163" s="54"/>
-      <c r="I163" s="54"/>
-      <c r="J163" s="55"/>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B164" s="33"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
+      <c r="G163" s="7" t="n"/>
+      <c r="H163" s="54" t="n"/>
+      <c r="I163" s="54" t="n"/>
+      <c r="J163" s="55" t="n"/>
+    </row>
+    <row r="164" spans="1:22">
+      <c r="B164" s="33" t="n"/>
+      <c r="C164" s="7" t="n"/>
+      <c r="D164" s="7" t="n"/>
       <c r="E164" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F164" s="7">
+      <c r="F164" s="7" t="n">
         <v>400</v>
       </c>
-      <c r="G164" s="7"/>
-      <c r="H164" s="54"/>
-      <c r="I164" s="54"/>
-      <c r="J164" s="55"/>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B165" s="33"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="7"/>
+      <c r="G164" s="7" t="n"/>
+      <c r="H164" s="54" t="n"/>
+      <c r="I164" s="54" t="n"/>
+      <c r="J164" s="55" t="n"/>
+    </row>
+    <row r="165" spans="1:22">
+      <c r="B165" s="33" t="n"/>
+      <c r="C165" s="7" t="n"/>
+      <c r="D165" s="7" t="n"/>
       <c r="E165" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F165" s="7">
+      <c r="F165" s="7" t="n">
         <v>400</v>
       </c>
-      <c r="G165" s="7"/>
-      <c r="H165" s="54"/>
-      <c r="I165" s="54"/>
-      <c r="J165" s="55"/>
-    </row>
-    <row r="166" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G165" s="7" t="n"/>
+      <c r="H165" s="54" t="n"/>
+      <c r="I165" s="54" t="n"/>
+      <c r="J165" s="55" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.5" r="166" s="91" spans="1:22" thickBot="1">
       <c r="B166" s="34" t="s">
         <v>29</v>
       </c>
@@ -5586,90 +5472,72 @@
       <c r="F166" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="G166" s="35"/>
-      <c r="H166" s="56"/>
-      <c r="I166" s="57"/>
-      <c r="J166" s="58"/>
-    </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B167" s="7"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
-      <c r="E167" s="7"/>
-      <c r="F167" s="7"/>
-      <c r="G167" s="7"/>
-      <c r="H167" s="52"/>
-      <c r="I167" s="52"/>
-      <c r="J167" s="52"/>
-    </row>
-    <row r="168" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="7"/>
-      <c r="C168" s="7"/>
-      <c r="D168" s="7"/>
-      <c r="E168" s="7"/>
-      <c r="F168" s="7"/>
-      <c r="G168" s="7"/>
-      <c r="H168" s="52"/>
-      <c r="I168" s="52"/>
-      <c r="J168" s="52"/>
-    </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G166" s="35" t="n"/>
+      <c r="H166" s="56" t="n"/>
+      <c r="I166" s="57" t="n"/>
+      <c r="J166" s="58" t="n"/>
+    </row>
+    <row r="167" spans="1:22">
+      <c r="B167" s="7" t="n"/>
+      <c r="C167" s="7" t="n"/>
+      <c r="D167" s="7" t="n"/>
+      <c r="E167" s="7" t="n"/>
+      <c r="F167" s="7" t="n"/>
+      <c r="G167" s="7" t="n"/>
+      <c r="H167" s="52" t="n"/>
+      <c r="I167" s="52" t="n"/>
+      <c r="J167" s="52" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.5" r="168" s="91" spans="1:22" thickBot="1">
+      <c r="B168" s="7" t="n"/>
+      <c r="C168" s="7" t="n"/>
+      <c r="D168" s="7" t="n"/>
+      <c r="E168" s="7" t="n"/>
+      <c r="F168" s="7" t="n"/>
+      <c r="G168" s="7" t="n"/>
+      <c r="H168" s="52" t="n"/>
+      <c r="I168" s="52" t="n"/>
+      <c r="J168" s="52" t="n"/>
+    </row>
+    <row r="169" spans="1:22">
       <c r="B169" s="95" t="s">
         <v>174</v>
       </c>
-      <c r="C169" s="96"/>
-      <c r="D169" s="96"/>
-      <c r="E169" s="97"/>
-      <c r="F169" s="97"/>
-      <c r="G169" s="48"/>
-      <c r="H169" s="54"/>
-      <c r="I169" s="54"/>
-      <c r="J169" s="54"/>
-    </row>
-    <row r="170" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="96"/>
-      <c r="C170" s="96"/>
-      <c r="D170" s="96"/>
-      <c r="E170" s="97"/>
-      <c r="F170" s="97"/>
-      <c r="G170" s="48"/>
-      <c r="H170" s="47"/>
-      <c r="I170" s="47"/>
-      <c r="J170" s="47"/>
-    </row>
-    <row r="171" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G169" s="48" t="n"/>
+      <c r="H169" s="54" t="n"/>
+      <c r="I169" s="54" t="n"/>
+      <c r="J169" s="54" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.5" r="170" s="91" spans="1:22" thickBot="1">
+      <c r="G170" s="48" t="n"/>
+      <c r="H170" s="47" t="n"/>
+      <c r="I170" s="47" t="n"/>
+      <c r="J170" s="47" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.5" r="171" s="91" spans="1:22" thickBot="1"/>
+    <row r="172" spans="1:22">
       <c r="B172" s="95" t="s">
         <v>175</v>
       </c>
-      <c r="C172" s="96"/>
-      <c r="D172" s="96"/>
-      <c r="E172" s="97"/>
-      <c r="F172" s="97"/>
-      <c r="G172" s="48"/>
-      <c r="H172" s="54"/>
-      <c r="I172" s="54"/>
-      <c r="J172" s="54"/>
-    </row>
-    <row r="173" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="96"/>
-      <c r="C173" s="96"/>
-      <c r="D173" s="96"/>
-      <c r="E173" s="97"/>
-      <c r="F173" s="97"/>
-      <c r="G173" s="48"/>
-      <c r="H173" s="47"/>
-      <c r="I173" s="47"/>
-      <c r="J173" s="47"/>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" s="2"/>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" s="2"/>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" s="2"/>
+      <c r="G172" s="48" t="n"/>
+      <c r="H172" s="54" t="n"/>
+      <c r="I172" s="54" t="n"/>
+      <c r="J172" s="54" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.5" r="173" s="91" spans="1:22" thickBot="1">
+      <c r="G173" s="48" t="n"/>
+      <c r="H173" s="47" t="n"/>
+      <c r="I173" s="47" t="n"/>
+      <c r="J173" s="47" t="n"/>
+    </row>
+    <row r="177" spans="1:22">
+      <c r="B177" s="2" t="n"/>
+    </row>
+    <row r="178" spans="1:22">
+      <c r="B178" s="2" t="n"/>
+    </row>
+    <row r="179" spans="1:22">
+      <c r="B179" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -5695,534 +5563,542 @@
     <mergeCell ref="D125:E125"/>
   </mergeCells>
   <conditionalFormatting sqref="B3 H133:H134 J133:J134">
-    <cfRule type="cellIs" dxfId="120" priority="186" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="208" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="186" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="208" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:F57">
-    <cfRule type="cellIs" dxfId="118" priority="206" stopIfTrue="1" operator="lessThan">
+    <cfRule dxfId="1" operator="lessThan" priority="206" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:F59">
-    <cfRule type="cellIs" dxfId="117" priority="205" stopIfTrue="1" operator="lessThan">
+    <cfRule dxfId="1" operator="lessThan" priority="205" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:F61">
-    <cfRule type="cellIs" dxfId="116" priority="204" stopIfTrue="1" operator="lessThan">
+    <cfRule dxfId="1" operator="lessThan" priority="204" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:F63">
-    <cfRule type="cellIs" dxfId="115" priority="203" stopIfTrue="1" operator="lessThan">
+    <cfRule dxfId="1" operator="lessThan" priority="203" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="114" priority="164" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="165" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="164" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="165" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="112" priority="162" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="163" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="162" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="163" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="110" priority="160" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="161" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="160" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="161" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="108" priority="158" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="159" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="158" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="159" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J136:J137 J148">
-    <cfRule type="cellIs" dxfId="106" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="75" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="74" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="75" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J155:J166">
-    <cfRule type="cellIs" dxfId="104" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="71" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="70" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="71" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J140">
-    <cfRule type="cellIs" dxfId="102" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="67" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="66" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="67" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H37">
-    <cfRule type="cellIs" dxfId="100" priority="140" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="141" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="140" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="141" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:J37">
-    <cfRule type="cellIs" dxfId="98" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="139" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="138" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="139" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="96" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="137" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="136" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="137" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:H43">
-    <cfRule type="cellIs" dxfId="94" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="135" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="134" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="135" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="92" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="133" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="132" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="133" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="cellIs" dxfId="90" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="131" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="130" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="131" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42:J43">
-    <cfRule type="cellIs" dxfId="88" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="129" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="128" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="129" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="cellIs" dxfId="86" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="127" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="126" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="127" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67:H74 H76">
-    <cfRule type="cellIs" dxfId="84" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="125" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="124" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="125" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J67:J74 J76">
-    <cfRule type="cellIs" dxfId="82" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="123" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="122" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="123" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="cellIs" dxfId="80" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="121" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="120" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="121" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H140">
-    <cfRule type="cellIs" dxfId="78" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="69" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="68" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="69" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="76" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="111" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="110" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="111" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82">
-    <cfRule type="cellIs" dxfId="74" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="109" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="108" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="109" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86:H92">
-    <cfRule type="cellIs" dxfId="72" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="107" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="106" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="107" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J86:J92">
-    <cfRule type="cellIs" dxfId="70" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="105" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="104" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="105" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J96:J106">
-    <cfRule type="cellIs" dxfId="68" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="97" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="96" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="97" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126">
-    <cfRule type="cellIs" dxfId="66" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="91" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="90" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="91" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J126">
-    <cfRule type="cellIs" dxfId="64" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="89" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="88" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="89" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129:H131">
-    <cfRule type="cellIs" dxfId="62" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="87" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="86" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="87" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136:H137 H148">
-    <cfRule type="cellIs" dxfId="60" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="81" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="80" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="81" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J129:J131">
-    <cfRule type="cellIs" dxfId="58" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="79" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="78" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="79" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H155:H166">
-    <cfRule type="cellIs" dxfId="56" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="73" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="72" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="73" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J169">
-    <cfRule type="cellIs" dxfId="54" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="63" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="62" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="63" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169">
-    <cfRule type="cellIs" dxfId="52" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="65" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="64" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="65" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="containsText" dxfId="50" priority="60" stopIfTrue="1" operator="containsText" text="Config Name Greater Than 8 Characters">
+    <cfRule dxfId="50" operator="containsText" priority="60" stopIfTrue="1" text="Config Name Greater Than 8 Characters" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Config Name Greater Than 8 Characters",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121:H122">
-    <cfRule type="cellIs" dxfId="49" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="58" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="57" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="58" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J121:J122">
-    <cfRule type="cellIs" dxfId="47" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="56" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="55" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="56" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86:D92">
-    <cfRule type="cellIs" dxfId="45" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="54" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="53" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="54" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:D106">
-    <cfRule type="cellIs" dxfId="43" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="52" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="51" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="52" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86:E92">
-    <cfRule type="cellIs" dxfId="41" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="50" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="49" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="50" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96:E106">
-    <cfRule type="cellIs" dxfId="39" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="48" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="47" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="48" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96:H106">
-    <cfRule type="cellIs" dxfId="37" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="46" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="45" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="46" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="35" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="44" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="43" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="44" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="cellIs" dxfId="33" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="42" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="41" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="42" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J172">
-    <cfRule type="cellIs" dxfId="31" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="30" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="29" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="30" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H172">
-    <cfRule type="cellIs" dxfId="29" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="32" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="31" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="32" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J30">
-    <cfRule type="cellIs" dxfId="27" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="8" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="7" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="8" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H30">
-    <cfRule type="cellIs" dxfId="25" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="28" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="27" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="28" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:J27">
-    <cfRule type="cellIs" dxfId="23" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="26" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="25" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="26" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:J19">
-    <cfRule type="cellIs" dxfId="21" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="21" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="22" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E19">
-    <cfRule type="cellIs" dxfId="19" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="19" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="20" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H19">
-    <cfRule type="cellIs" dxfId="17" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="24" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="23" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="24" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F19">
-    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="15" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="16" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="13" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="18" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="17" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="18" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E30">
-    <cfRule type="cellIs" dxfId="11" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="13" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="14" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F30">
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="9" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="10" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="11" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="12" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J108">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="5" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="6" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="4" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L121:L122">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule dxfId="1" operator="lessThan" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E12:E30">
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E12:E30" type="list">
       <formula1>$L$13:$L$18</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions gridLines="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="59" orientation="portrait"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" scale="59"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12D20 CONFIGURATION SETTINGS
-&amp;A</oddHeader>
+    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12D20 CONFIGURATION SETTINGS_x000a_&amp;A</oddHeader>
     <oddFooter>&amp;L&amp;F&amp;C&amp;P of &amp;N&amp;R&amp;D</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet3">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="C2:F91"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="4.88671875" style="40" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" style="40" customWidth="1"/>
-    <col min="5" max="5" width="31.5546875" style="40" customWidth="1"/>
-    <col min="6" max="6" width="34.109375" style="40" customWidth="1"/>
-    <col min="7" max="11" width="8.88671875" style="40" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="40"/>
+    <col customWidth="1" max="2" min="1" style="40" width="8.88671875"/>
+    <col customWidth="1" max="3" min="3" style="40" width="4.88671875"/>
+    <col customWidth="1" max="4" min="4" style="40" width="34.5546875"/>
+    <col customWidth="1" max="5" min="5" style="40" width="31.5546875"/>
+    <col customWidth="1" max="6" min="6" style="40" width="34.109375"/>
+    <col customWidth="1" max="11" min="7" style="40" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="12" style="40" width="8.88671875"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="E2" s="41" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="D4" s="40" t="s">
         <v>177</v>
       </c>
@@ -6233,11 +6109,11 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E5" s="42"/>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="40">
+    <row r="5" spans="1:6">
+      <c r="E5" s="42" t="n"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6" s="40" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="40" t="s">
@@ -6250,8 +6126,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="40">
+    <row r="7" spans="1:6">
+      <c r="C7" s="40" t="n">
         <v>2</v>
       </c>
       <c r="D7" s="40" t="s">
@@ -6264,8 +6140,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="40">
+    <row r="8" spans="1:6">
+      <c r="C8" s="40" t="n">
         <v>3</v>
       </c>
       <c r="D8" s="40" t="s">
@@ -6278,8 +6154,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="40">
+    <row r="9" spans="1:6">
+      <c r="C9" s="40" t="n">
         <v>4</v>
       </c>
       <c r="D9" s="40" t="s">
@@ -6292,8 +6168,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C10" s="40">
+    <row r="10" spans="1:6">
+      <c r="C10" s="40" t="n">
         <v>5</v>
       </c>
       <c r="D10" s="40" t="s">
@@ -6306,8 +6182,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="40">
+    <row r="11" spans="1:6">
+      <c r="C11" s="40" t="n">
         <v>6</v>
       </c>
       <c r="E11" s="40" t="s">
@@ -6317,8 +6193,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="40">
+    <row r="12" spans="1:6">
+      <c r="C12" s="40" t="n">
         <v>7</v>
       </c>
       <c r="E12" s="40" t="s">
@@ -6328,8 +6204,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="40">
+    <row r="13" spans="1:6">
+      <c r="C13" s="40" t="n">
         <v>8</v>
       </c>
       <c r="E13" s="40" t="s">
@@ -6339,8 +6215,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="40">
+    <row r="14" spans="1:6">
+      <c r="C14" s="40" t="n">
         <v>9</v>
       </c>
       <c r="E14" s="40" t="s">
@@ -6350,8 +6226,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="40">
+    <row r="15" spans="1:6">
+      <c r="C15" s="40" t="n">
         <v>10</v>
       </c>
       <c r="E15" s="40" t="s">
@@ -6361,8 +6237,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C16" s="40">
+    <row r="16" spans="1:6">
+      <c r="C16" s="40" t="n">
         <v>11</v>
       </c>
       <c r="E16" s="40" t="s">
@@ -6372,8 +6248,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="40">
+    <row r="17" spans="1:6">
+      <c r="C17" s="40" t="n">
         <v>12</v>
       </c>
       <c r="E17" s="40" t="s">
@@ -6383,8 +6259,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="40">
+    <row r="18" spans="1:6">
+      <c r="C18" s="40" t="n">
         <v>13</v>
       </c>
       <c r="E18" s="40" t="s">
@@ -6394,8 +6270,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="40">
+    <row r="19" spans="1:6">
+      <c r="C19" s="40" t="n">
         <v>14</v>
       </c>
       <c r="E19" s="40" t="s">
@@ -6405,8 +6281,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="40">
+    <row r="20" spans="1:6">
+      <c r="C20" s="40" t="n">
         <v>15</v>
       </c>
       <c r="E20" s="40" t="s">
@@ -6416,8 +6292,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="40">
+    <row r="21" spans="1:6">
+      <c r="C21" s="40" t="n">
         <v>16</v>
       </c>
       <c r="E21" s="40" t="s">
@@ -6427,148 +6303,148 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="40">
+    <row r="22" spans="1:6">
+      <c r="C22" s="40" t="n">
         <v>17</v>
       </c>
       <c r="F22" s="40" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C23" s="40">
+    <row r="23" spans="1:6">
+      <c r="C23" s="40" t="n">
         <v>18</v>
       </c>
       <c r="F23" s="40" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C24" s="40">
+    <row r="24" spans="1:6">
+      <c r="C24" s="40" t="n">
         <v>19</v>
       </c>
       <c r="F24" s="40" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E26" s="41"/>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E27" s="41"/>
-    </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-    </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C72" s="43"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="43"/>
-    </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C73" s="43"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="42"/>
-    </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C74" s="43"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="42"/>
-    </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C75" s="43"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="42"/>
-    </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C76" s="43"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="42"/>
-    </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C77" s="43"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="42"/>
-    </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C78" s="43"/>
-      <c r="D78" s="44"/>
-      <c r="F78" s="42"/>
-    </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C79" s="43"/>
-      <c r="D79" s="44"/>
-      <c r="F79" s="42"/>
-    </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C80" s="43"/>
-      <c r="D80" s="44"/>
-      <c r="F80" s="42"/>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C81" s="43"/>
-      <c r="D81" s="44"/>
-      <c r="F81" s="42"/>
-    </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C82" s="43"/>
-      <c r="D82" s="44"/>
-      <c r="F82" s="42"/>
-    </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C83" s="43"/>
-      <c r="D83" s="44"/>
-      <c r="F83" s="42"/>
-    </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C84" s="43"/>
-      <c r="D84" s="44"/>
-      <c r="F84" s="42"/>
-    </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C85" s="43"/>
-      <c r="D85" s="44"/>
-      <c r="F85" s="42"/>
-    </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C86" s="43"/>
-      <c r="D86" s="44"/>
-      <c r="F86" s="42"/>
-    </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C87" s="43"/>
-      <c r="D87" s="44"/>
-      <c r="F87" s="42"/>
-    </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C88" s="43"/>
-      <c r="D88" s="44"/>
-      <c r="F88" s="42"/>
-    </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C89" s="43"/>
-      <c r="D89" s="44"/>
-      <c r="F89" s="42"/>
-    </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C90" s="43"/>
-      <c r="D90" s="44"/>
-      <c r="F90" s="42"/>
-    </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C91" s="43"/>
-      <c r="D91" s="44"/>
-      <c r="F91" s="42"/>
+    <row r="26" spans="1:6">
+      <c r="E26" s="41" t="n"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="E27" s="41" t="n"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="C71" s="43" t="n"/>
+      <c r="D71" s="43" t="n"/>
+      <c r="E71" s="43" t="n"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="C72" s="43" t="n"/>
+      <c r="D72" s="44" t="n"/>
+      <c r="E72" s="43" t="n"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="C73" s="43" t="n"/>
+      <c r="D73" s="44" t="n"/>
+      <c r="E73" s="44" t="n"/>
+      <c r="F73" s="42" t="n"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="C74" s="43" t="n"/>
+      <c r="D74" s="44" t="n"/>
+      <c r="E74" s="44" t="n"/>
+      <c r="F74" s="42" t="n"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="C75" s="43" t="n"/>
+      <c r="D75" s="44" t="n"/>
+      <c r="E75" s="44" t="n"/>
+      <c r="F75" s="42" t="n"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="C76" s="43" t="n"/>
+      <c r="D76" s="44" t="n"/>
+      <c r="E76" s="44" t="n"/>
+      <c r="F76" s="42" t="n"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="C77" s="43" t="n"/>
+      <c r="D77" s="44" t="n"/>
+      <c r="E77" s="44" t="n"/>
+      <c r="F77" s="42" t="n"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="C78" s="43" t="n"/>
+      <c r="D78" s="44" t="n"/>
+      <c r="F78" s="42" t="n"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="C79" s="43" t="n"/>
+      <c r="D79" s="44" t="n"/>
+      <c r="F79" s="42" t="n"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="C80" s="43" t="n"/>
+      <c r="D80" s="44" t="n"/>
+      <c r="F80" s="42" t="n"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="C81" s="43" t="n"/>
+      <c r="D81" s="44" t="n"/>
+      <c r="F81" s="42" t="n"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="C82" s="43" t="n"/>
+      <c r="D82" s="44" t="n"/>
+      <c r="F82" s="42" t="n"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="C83" s="43" t="n"/>
+      <c r="D83" s="44" t="n"/>
+      <c r="F83" s="42" t="n"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="C84" s="43" t="n"/>
+      <c r="D84" s="44" t="n"/>
+      <c r="F84" s="42" t="n"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="C85" s="43" t="n"/>
+      <c r="D85" s="44" t="n"/>
+      <c r="F85" s="42" t="n"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="C86" s="43" t="n"/>
+      <c r="D86" s="44" t="n"/>
+      <c r="F86" s="42" t="n"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="C87" s="43" t="n"/>
+      <c r="D87" s="44" t="n"/>
+      <c r="F87" s="42" t="n"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="C88" s="43" t="n"/>
+      <c r="D88" s="44" t="n"/>
+      <c r="F88" s="42" t="n"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="C89" s="43" t="n"/>
+      <c r="D89" s="44" t="n"/>
+      <c r="F89" s="42" t="n"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="C90" s="43" t="n"/>
+      <c r="D90" s="44" t="n"/>
+      <c r="F90" s="42" t="n"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="C91" s="43" t="n"/>
+      <c r="D91" s="44" t="n"/>
+      <c r="F91" s="42" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>